--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,9 @@
     <t>['24', '26', '46', '77']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['84']</t>
   </si>
   <si>
@@ -587,6 +590,12 @@
   </si>
   <si>
     <t>['39', '90+2']</t>
+  </si>
+  <si>
+    <t>['44', '75', '81']</t>
+  </si>
+  <si>
+    <t>['42', '69']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK92"/>
+  <dimension ref="A1:BK95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1765,7 +1774,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1956,7 +1965,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2046,7 +2055,7 @@
         <v>2.57</v>
       </c>
       <c r="AT6">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2147,7 +2156,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2338,7 +2347,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2529,7 +2538,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2807,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT10">
         <v>0.63</v>
@@ -2911,7 +2920,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3001,7 +3010,7 @@
         <v>1.75</v>
       </c>
       <c r="AT11">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3102,7 +3111,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3192,7 +3201,7 @@
         <v>1.25</v>
       </c>
       <c r="AT12">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3293,7 +3302,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3484,7 +3493,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -3866,7 +3875,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>12</v>
@@ -3953,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT16">
         <v>0.57</v>
@@ -4248,7 +4257,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4338,7 +4347,7 @@
         <v>1.71</v>
       </c>
       <c r="AT18">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>2.03</v>
@@ -4630,7 +4639,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4821,7 +4830,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4911,7 +4920,7 @@
         <v>1.25</v>
       </c>
       <c r="AT21">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU21">
         <v>1.65</v>
@@ -5012,7 +5021,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5099,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="AS22">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT22">
         <v>1.86</v>
@@ -5290,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT23">
         <v>0.75</v>
@@ -5484,7 +5493,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU24">
         <v>1.72</v>
@@ -5585,7 +5594,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5776,7 +5785,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5866,7 +5875,7 @@
         <v>1.13</v>
       </c>
       <c r="AT26">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU26">
         <v>1.09</v>
@@ -6349,7 +6358,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6540,7 +6549,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -7113,7 +7122,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7203,7 +7212,7 @@
         <v>1.75</v>
       </c>
       <c r="AT33">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU33">
         <v>2.72</v>
@@ -7304,7 +7313,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7495,7 +7504,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7686,7 +7695,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7776,7 +7785,7 @@
         <v>1.71</v>
       </c>
       <c r="AT36">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU36">
         <v>2.25</v>
@@ -7964,7 +7973,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT37">
         <v>0.63</v>
@@ -8259,7 +8268,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8349,7 +8358,7 @@
         <v>0.38</v>
       </c>
       <c r="AT39">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU39">
         <v>1.51</v>
@@ -8450,7 +8459,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8537,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT40">
         <v>1</v>
@@ -8641,7 +8650,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8832,7 +8841,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9023,7 +9032,7 @@
         <v>79</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9596,7 +9605,7 @@
         <v>79</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9787,7 +9796,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10068,7 +10077,7 @@
         <v>1.71</v>
       </c>
       <c r="AT48">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU48">
         <v>2.11</v>
@@ -10169,7 +10178,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10256,10 +10265,10 @@
         <v>0.67</v>
       </c>
       <c r="AS49">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT49">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU49">
         <v>2.33</v>
@@ -10360,7 +10369,7 @@
         <v>79</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10450,7 +10459,7 @@
         <v>1.75</v>
       </c>
       <c r="AT50">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.67</v>
@@ -10742,7 +10751,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10829,7 +10838,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT52">
         <v>2</v>
@@ -11315,7 +11324,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11506,7 +11515,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11697,7 +11706,7 @@
         <v>94</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11978,7 +11987,7 @@
         <v>1.13</v>
       </c>
       <c r="AT58">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU58">
         <v>1.23</v>
@@ -12079,7 +12088,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12357,7 +12366,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT60">
         <v>0.75</v>
@@ -12461,7 +12470,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12551,7 +12560,7 @@
         <v>1.75</v>
       </c>
       <c r="AT61">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU61">
         <v>1.64</v>
@@ -12652,7 +12661,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13503,7 +13512,7 @@
         <v>0.67</v>
       </c>
       <c r="AS66">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT66">
         <v>0.57</v>
@@ -13697,7 +13706,7 @@
         <v>0.38</v>
       </c>
       <c r="AT67">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU67">
         <v>1.69</v>
@@ -13798,7 +13807,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>11</v>
@@ -13989,7 +13998,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q69">
         <v>14</v>
@@ -14076,10 +14085,10 @@
         <v>1.8</v>
       </c>
       <c r="AS69">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT69">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU69">
         <v>2.42</v>
@@ -14180,7 +14189,7 @@
         <v>79</v>
       </c>
       <c r="P70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14371,7 +14380,7 @@
         <v>79</v>
       </c>
       <c r="P71" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14562,7 +14571,7 @@
         <v>127</v>
       </c>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14652,7 +14661,7 @@
         <v>1.63</v>
       </c>
       <c r="AT72">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU72">
         <v>1.67</v>
@@ -14753,7 +14762,7 @@
         <v>79</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -14840,7 +14849,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT73">
         <v>2</v>
@@ -14944,7 +14953,7 @@
         <v>79</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15135,7 +15144,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15607,7 +15616,7 @@
         <v>1.63</v>
       </c>
       <c r="AT77">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU77">
         <v>1.63</v>
@@ -15708,7 +15717,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15798,7 +15807,7 @@
         <v>1.25</v>
       </c>
       <c r="AT78">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU78">
         <v>1.63</v>
@@ -15986,7 +15995,7 @@
         <v>0.83</v>
       </c>
       <c r="AS79">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="AT79">
         <v>0.63</v>
@@ -16281,7 +16290,7 @@
         <v>134</v>
       </c>
       <c r="P81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16371,7 +16380,7 @@
         <v>1.25</v>
       </c>
       <c r="AT81">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU81">
         <v>1.49</v>
@@ -16472,7 +16481,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16663,7 +16672,7 @@
         <v>79</v>
       </c>
       <c r="P83" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16854,7 +16863,7 @@
         <v>136</v>
       </c>
       <c r="P84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17236,7 +17245,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -17427,7 +17436,7 @@
         <v>120</v>
       </c>
       <c r="P87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17618,7 +17627,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17809,7 +17818,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -17899,7 +17908,7 @@
         <v>2.57</v>
       </c>
       <c r="AT89">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU89">
         <v>2.29</v>
@@ -18191,7 +18200,7 @@
         <v>79</v>
       </c>
       <c r="P91" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18524,6 +18533,579 @@
       </c>
       <c r="BK92">
         <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3168548</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>73</v>
+      </c>
+      <c r="H93" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>134</v>
+      </c>
+      <c r="P93" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q93">
+        <v>6</v>
+      </c>
+      <c r="R93">
+        <v>10</v>
+      </c>
+      <c r="S93">
+        <v>16</v>
+      </c>
+      <c r="T93">
+        <v>1.57</v>
+      </c>
+      <c r="U93">
+        <v>2.75</v>
+      </c>
+      <c r="V93">
+        <v>9</v>
+      </c>
+      <c r="W93">
+        <v>1.25</v>
+      </c>
+      <c r="X93">
+        <v>3.75</v>
+      </c>
+      <c r="Y93">
+        <v>2.2</v>
+      </c>
+      <c r="Z93">
+        <v>1.62</v>
+      </c>
+      <c r="AA93">
+        <v>5</v>
+      </c>
+      <c r="AB93">
+        <v>1.17</v>
+      </c>
+      <c r="AC93">
+        <v>1.17</v>
+      </c>
+      <c r="AD93">
+        <v>6</v>
+      </c>
+      <c r="AE93">
+        <v>8.5</v>
+      </c>
+      <c r="AF93">
+        <v>1.02</v>
+      </c>
+      <c r="AG93">
+        <v>13</v>
+      </c>
+      <c r="AH93">
+        <v>1.14</v>
+      </c>
+      <c r="AI93">
+        <v>5</v>
+      </c>
+      <c r="AJ93">
+        <v>1.44</v>
+      </c>
+      <c r="AK93">
+        <v>2.6</v>
+      </c>
+      <c r="AL93">
+        <v>2.1</v>
+      </c>
+      <c r="AM93">
+        <v>1.67</v>
+      </c>
+      <c r="AN93">
+        <v>1.03</v>
+      </c>
+      <c r="AO93">
+        <v>1.09</v>
+      </c>
+      <c r="AP93">
+        <v>4.75</v>
+      </c>
+      <c r="AQ93">
+        <v>2.67</v>
+      </c>
+      <c r="AR93">
+        <v>0.71</v>
+      </c>
+      <c r="AS93">
+        <v>2.71</v>
+      </c>
+      <c r="AT93">
+        <v>0.63</v>
+      </c>
+      <c r="AU93">
+        <v>2.43</v>
+      </c>
+      <c r="AV93">
+        <v>1.37</v>
+      </c>
+      <c r="AW93">
+        <v>3.8</v>
+      </c>
+      <c r="AX93">
+        <v>1.07</v>
+      </c>
+      <c r="AY93">
+        <v>14.25</v>
+      </c>
+      <c r="AZ93">
+        <v>10</v>
+      </c>
+      <c r="BA93">
+        <v>1.19</v>
+      </c>
+      <c r="BB93">
+        <v>1.36</v>
+      </c>
+      <c r="BC93">
+        <v>1.6</v>
+      </c>
+      <c r="BD93">
+        <v>1.9</v>
+      </c>
+      <c r="BE93">
+        <v>2.5</v>
+      </c>
+      <c r="BF93">
+        <v>4</v>
+      </c>
+      <c r="BG93">
+        <v>5</v>
+      </c>
+      <c r="BH93">
+        <v>8</v>
+      </c>
+      <c r="BI93">
+        <v>11</v>
+      </c>
+      <c r="BJ93">
+        <v>12</v>
+      </c>
+      <c r="BK93">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>3168544</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>44864.58333333334</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s">
+        <v>69</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>4</v>
+      </c>
+      <c r="O94" t="s">
+        <v>141</v>
+      </c>
+      <c r="P94" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q94">
+        <v>7</v>
+      </c>
+      <c r="R94">
+        <v>3</v>
+      </c>
+      <c r="S94">
+        <v>10</v>
+      </c>
+      <c r="T94">
+        <v>4.33</v>
+      </c>
+      <c r="U94">
+        <v>2.2</v>
+      </c>
+      <c r="V94">
+        <v>2.38</v>
+      </c>
+      <c r="W94">
+        <v>1.36</v>
+      </c>
+      <c r="X94">
+        <v>3</v>
+      </c>
+      <c r="Y94">
+        <v>2.75</v>
+      </c>
+      <c r="Z94">
+        <v>1.4</v>
+      </c>
+      <c r="AA94">
+        <v>7</v>
+      </c>
+      <c r="AB94">
+        <v>1.1</v>
+      </c>
+      <c r="AC94">
+        <v>3.5</v>
+      </c>
+      <c r="AD94">
+        <v>3.4</v>
+      </c>
+      <c r="AE94">
+        <v>1.85</v>
+      </c>
+      <c r="AF94">
+        <v>1.05</v>
+      </c>
+      <c r="AG94">
+        <v>9</v>
+      </c>
+      <c r="AH94">
+        <v>1.3</v>
+      </c>
+      <c r="AI94">
+        <v>3.4</v>
+      </c>
+      <c r="AJ94">
+        <v>1.92</v>
+      </c>
+      <c r="AK94">
+        <v>1.9</v>
+      </c>
+      <c r="AL94">
+        <v>1.83</v>
+      </c>
+      <c r="AM94">
+        <v>1.83</v>
+      </c>
+      <c r="AN94">
+        <v>1.93</v>
+      </c>
+      <c r="AO94">
+        <v>1.27</v>
+      </c>
+      <c r="AP94">
+        <v>1.22</v>
+      </c>
+      <c r="AQ94">
+        <v>1.43</v>
+      </c>
+      <c r="AR94">
+        <v>1.14</v>
+      </c>
+      <c r="AS94">
+        <v>1.11</v>
+      </c>
+      <c r="AT94">
+        <v>1.38</v>
+      </c>
+      <c r="AU94">
+        <v>1.86</v>
+      </c>
+      <c r="AV94">
+        <v>1.57</v>
+      </c>
+      <c r="AW94">
+        <v>3.43</v>
+      </c>
+      <c r="AX94">
+        <v>3.72</v>
+      </c>
+      <c r="AY94">
+        <v>8.5</v>
+      </c>
+      <c r="AZ94">
+        <v>1.39</v>
+      </c>
+      <c r="BA94">
+        <v>1.21</v>
+      </c>
+      <c r="BB94">
+        <v>1.39</v>
+      </c>
+      <c r="BC94">
+        <v>1.65</v>
+      </c>
+      <c r="BD94">
+        <v>2.06</v>
+      </c>
+      <c r="BE94">
+        <v>2.65</v>
+      </c>
+      <c r="BF94">
+        <v>7</v>
+      </c>
+      <c r="BG94">
+        <v>11</v>
+      </c>
+      <c r="BH94">
+        <v>9</v>
+      </c>
+      <c r="BI94">
+        <v>9</v>
+      </c>
+      <c r="BJ94">
+        <v>16</v>
+      </c>
+      <c r="BK94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>3168551</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>44869.5625</v>
+      </c>
+      <c r="F95">
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s">
+        <v>68</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>79</v>
+      </c>
+      <c r="P95" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q95">
+        <v>6</v>
+      </c>
+      <c r="R95">
+        <v>3</v>
+      </c>
+      <c r="S95">
+        <v>9</v>
+      </c>
+      <c r="T95">
+        <v>2.95</v>
+      </c>
+      <c r="U95">
+        <v>2.1</v>
+      </c>
+      <c r="V95">
+        <v>3.25</v>
+      </c>
+      <c r="W95">
+        <v>1.37</v>
+      </c>
+      <c r="X95">
+        <v>2.85</v>
+      </c>
+      <c r="Y95">
+        <v>2.65</v>
+      </c>
+      <c r="Z95">
+        <v>1.42</v>
+      </c>
+      <c r="AA95">
+        <v>6.75</v>
+      </c>
+      <c r="AB95">
+        <v>1.09</v>
+      </c>
+      <c r="AC95">
+        <v>2.45</v>
+      </c>
+      <c r="AD95">
+        <v>3.45</v>
+      </c>
+      <c r="AE95">
+        <v>2.6</v>
+      </c>
+      <c r="AF95">
+        <v>1.05</v>
+      </c>
+      <c r="AG95">
+        <v>9</v>
+      </c>
+      <c r="AH95">
+        <v>1.28</v>
+      </c>
+      <c r="AI95">
+        <v>3.5</v>
+      </c>
+      <c r="AJ95">
+        <v>1.75</v>
+      </c>
+      <c r="AK95">
+        <v>1.95</v>
+      </c>
+      <c r="AL95">
+        <v>1.66</v>
+      </c>
+      <c r="AM95">
+        <v>2.05</v>
+      </c>
+      <c r="AN95">
+        <v>1.42</v>
+      </c>
+      <c r="AO95">
+        <v>1.3</v>
+      </c>
+      <c r="AP95">
+        <v>1.53</v>
+      </c>
+      <c r="AQ95">
+        <v>1.25</v>
+      </c>
+      <c r="AR95">
+        <v>1.13</v>
+      </c>
+      <c r="AS95">
+        <v>1.11</v>
+      </c>
+      <c r="AT95">
+        <v>1.33</v>
+      </c>
+      <c r="AU95">
+        <v>1.89</v>
+      </c>
+      <c r="AV95">
+        <v>1.52</v>
+      </c>
+      <c r="AW95">
+        <v>3.41</v>
+      </c>
+      <c r="AX95">
+        <v>2.02</v>
+      </c>
+      <c r="AY95">
+        <v>7.9</v>
+      </c>
+      <c r="AZ95">
+        <v>2.18</v>
+      </c>
+      <c r="BA95">
+        <v>1.19</v>
+      </c>
+      <c r="BB95">
+        <v>1.34</v>
+      </c>
+      <c r="BC95">
+        <v>1.67</v>
+      </c>
+      <c r="BD95">
+        <v>2</v>
+      </c>
+      <c r="BE95">
+        <v>2.65</v>
+      </c>
+      <c r="BF95">
+        <v>4</v>
+      </c>
+      <c r="BG95">
+        <v>9</v>
+      </c>
+      <c r="BH95">
+        <v>12</v>
+      </c>
+      <c r="BI95">
+        <v>7</v>
+      </c>
+      <c r="BJ95">
+        <v>16</v>
+      </c>
+      <c r="BK95">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,13 +412,13 @@
     <t>['79', '81']</t>
   </si>
   <si>
-    <t>['45', '82']</t>
-  </si>
-  <si>
     <t>['66', '69', '87']</t>
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['45', '82']</t>
   </si>
   <si>
     <t>['9', '40', '66']</t>
@@ -427,10 +427,10 @@
     <t>['87']</t>
   </si>
   <si>
-    <t>['46', '80']</t>
+    <t>['78']</t>
   </si>
   <si>
-    <t>['78']</t>
+    <t>['46', '80']</t>
   </si>
   <si>
     <t>['69', '86']</t>
@@ -440,6 +440,27 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['6', '21', '35', '81']</t>
+  </si>
+  <si>
+    <t>['47', '90+5']</t>
+  </si>
+  <si>
+    <t>['60', '75', '77', '90+5']</t>
+  </si>
+  <si>
+    <t>['10', '48', '53']</t>
+  </si>
+  <si>
+    <t>['48', '56']</t>
   </si>
   <si>
     <t>['84']</t>
@@ -583,10 +604,10 @@
     <t>['81']</t>
   </si>
   <si>
-    <t>['67', '77']</t>
+    <t>['21', '67']</t>
   </si>
   <si>
-    <t>['21', '67']</t>
+    <t>['67', '77']</t>
   </si>
   <si>
     <t>['39', '90+2']</t>
@@ -596,6 +617,18 @@
   </si>
   <si>
     <t>['42', '69']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['23', '51', '56', '69']</t>
+  </si>
+  <si>
+    <t>['84', '88', '90+1', '90+3']</t>
+  </si>
+  <si>
+    <t>['16', '73']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK95"/>
+  <dimension ref="A1:BK105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT2">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1479,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1670,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT4">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1774,7 +1807,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1861,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT5">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1965,7 +1998,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2052,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT6">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2156,7 +2189,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2243,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT7">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2347,7 +2380,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2434,10 +2467,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT8">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2538,7 +2571,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2625,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT9">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2816,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT10">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2920,7 +2953,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3007,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT11">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3111,7 +3144,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3302,7 +3335,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3389,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT13">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU13">
         <v>1.4</v>
@@ -3493,7 +3526,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -3580,10 +3613,10 @@
         <v>1.5</v>
       </c>
       <c r="AS14">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT14">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU14">
         <v>1.29</v>
@@ -3771,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT15">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU15">
         <v>0.78</v>
@@ -3875,7 +3908,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>12</v>
@@ -3962,10 +3995,10 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT16">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU16">
         <v>2.8</v>
@@ -4153,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -4257,7 +4290,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4344,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT18">
         <v>1.33</v>
@@ -4535,10 +4568,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT19">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU19">
         <v>1.43</v>
@@ -4639,7 +4672,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4726,10 +4759,10 @@
         <v>0.5</v>
       </c>
       <c r="AS20">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT20">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU20">
         <v>2.25</v>
@@ -4830,7 +4863,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4917,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT21">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU21">
         <v>1.65</v>
@@ -5021,7 +5054,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5111,7 +5144,7 @@
         <v>1.11</v>
       </c>
       <c r="AT22">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5299,10 +5332,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT23">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU23">
         <v>2.8</v>
@@ -5490,10 +5523,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT24">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU24">
         <v>1.72</v>
@@ -5594,7 +5627,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5681,10 +5714,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT25">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU25">
         <v>2.05</v>
@@ -5785,7 +5818,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5872,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT26">
         <v>1.33</v>
@@ -6063,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT27">
         <v>1</v>
@@ -6257,7 +6290,7 @@
         <v>1.25</v>
       </c>
       <c r="AT28">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU28">
         <v>2.08</v>
@@ -6358,7 +6391,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6445,10 +6478,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU29">
         <v>2.54</v>
@@ -6549,7 +6582,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6636,10 +6669,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU30">
         <v>1.48</v>
@@ -6827,10 +6860,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU31">
         <v>2.14</v>
@@ -7018,10 +7051,10 @@
         <v>0.75</v>
       </c>
       <c r="AS32">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT32">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU32">
         <v>2.05</v>
@@ -7122,7 +7155,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7209,10 +7242,10 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT33">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU33">
         <v>2.72</v>
@@ -7313,7 +7346,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7400,10 +7433,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT34">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU34">
         <v>2.05</v>
@@ -7504,7 +7537,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7591,10 +7624,10 @@
         <v>2.33</v>
       </c>
       <c r="AS35">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT35">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU35">
         <v>1.71</v>
@@ -7695,7 +7728,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7782,10 +7815,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT36">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU36">
         <v>2.25</v>
@@ -7973,10 +8006,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT37">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU37">
         <v>2.56</v>
@@ -8164,10 +8197,10 @@
         <v>0.33</v>
       </c>
       <c r="AS38">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT38">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU38">
         <v>1.73</v>
@@ -8268,7 +8301,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8355,7 +8388,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT39">
         <v>1.33</v>
@@ -8459,7 +8492,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8650,7 +8683,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8737,10 +8770,10 @@
         <v>0.33</v>
       </c>
       <c r="AS41">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT41">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU41">
         <v>2.28</v>
@@ -8841,7 +8874,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8928,10 +8961,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT42">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU42">
         <v>1.31</v>
@@ -9032,7 +9065,7 @@
         <v>79</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9122,7 +9155,7 @@
         <v>1.25</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU43">
         <v>1.54</v>
@@ -9310,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT44">
         <v>1</v>
@@ -9501,10 +9534,10 @@
         <v>0.67</v>
       </c>
       <c r="AS45">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT45">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU45">
         <v>1.25</v>
@@ -9605,7 +9638,7 @@
         <v>79</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9692,10 +9725,10 @@
         <v>0.6</v>
       </c>
       <c r="AS46">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT46">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU46">
         <v>2.22</v>
@@ -9796,7 +9829,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -9883,10 +9916,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
+        <v>1.78</v>
+      </c>
+      <c r="AT47">
         <v>1.63</v>
-      </c>
-      <c r="AT47">
-        <v>1.86</v>
       </c>
       <c r="AU47">
         <v>1.68</v>
@@ -10074,10 +10107,10 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT48">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU48">
         <v>2.11</v>
@@ -10178,7 +10211,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10265,10 +10298,10 @@
         <v>0.67</v>
       </c>
       <c r="AS49">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT49">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU49">
         <v>2.33</v>
@@ -10369,7 +10402,7 @@
         <v>79</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10456,7 +10489,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT50">
         <v>1.33</v>
@@ -10647,10 +10680,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT51">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU51">
         <v>1.89</v>
@@ -10751,7 +10784,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10841,7 +10874,7 @@
         <v>1.11</v>
       </c>
       <c r="AT52">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU52">
         <v>2.24</v>
@@ -11029,10 +11062,10 @@
         <v>0.25</v>
       </c>
       <c r="AS53">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT53">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU53">
         <v>2.06</v>
@@ -11220,10 +11253,10 @@
         <v>0.33</v>
       </c>
       <c r="AS54">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT54">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU54">
         <v>1.51</v>
@@ -11324,7 +11357,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11414,7 +11447,7 @@
         <v>1.25</v>
       </c>
       <c r="AT55">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU55">
         <v>1.49</v>
@@ -11515,7 +11548,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11605,7 +11638,7 @@
         <v>1.25</v>
       </c>
       <c r="AT56">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU56">
         <v>1.4</v>
@@ -11706,7 +11739,7 @@
         <v>94</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11793,10 +11826,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT57">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU57">
         <v>1.58</v>
@@ -11984,10 +12017,10 @@
         <v>0.75</v>
       </c>
       <c r="AS58">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT58">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU58">
         <v>1.23</v>
@@ -12088,7 +12121,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12175,10 +12208,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT59">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU59">
         <v>2.22</v>
@@ -12369,7 +12402,7 @@
         <v>1.11</v>
       </c>
       <c r="AT60">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU60">
         <v>2.08</v>
@@ -12470,7 +12503,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12557,10 +12590,10 @@
         <v>0.25</v>
       </c>
       <c r="AS61">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT61">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU61">
         <v>1.64</v>
@@ -12661,7 +12694,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -12748,10 +12781,10 @@
         <v>0.2</v>
       </c>
       <c r="AS62">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT62">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU62">
         <v>1.92</v>
@@ -12939,10 +12972,10 @@
         <v>0.8</v>
       </c>
       <c r="AS63">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT63">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU63">
         <v>1.96</v>
@@ -13130,10 +13163,10 @@
         <v>2.25</v>
       </c>
       <c r="AS64">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT64">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU64">
         <v>2.22</v>
@@ -13324,7 +13357,7 @@
         <v>1.25</v>
       </c>
       <c r="AT65">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU65">
         <v>1.41</v>
@@ -13515,7 +13548,7 @@
         <v>1.11</v>
       </c>
       <c r="AT66">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU66">
         <v>1.86</v>
@@ -13703,10 +13736,10 @@
         <v>0.8</v>
       </c>
       <c r="AS67">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT67">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU67">
         <v>1.69</v>
@@ -13807,7 +13840,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>11</v>
@@ -13894,10 +13927,10 @@
         <v>0.67</v>
       </c>
       <c r="AS68">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT68">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU68">
         <v>1.66</v>
@@ -13998,7 +14031,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>14</v>
@@ -14085,7 +14118,7 @@
         <v>1.8</v>
       </c>
       <c r="AS69">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT69">
         <v>1.33</v>
@@ -14189,7 +14222,7 @@
         <v>79</v>
       </c>
       <c r="P70" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14276,10 +14309,10 @@
         <v>1.75</v>
       </c>
       <c r="AS70">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT70">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU70">
         <v>1.78</v>
@@ -14380,7 +14413,7 @@
         <v>79</v>
       </c>
       <c r="P71" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14467,10 +14500,10 @@
         <v>1.8</v>
       </c>
       <c r="AS71">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT71">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -14571,7 +14604,7 @@
         <v>127</v>
       </c>
       <c r="P72" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14658,10 +14691,10 @@
         <v>0.2</v>
       </c>
       <c r="AS72">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT72">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU72">
         <v>1.67</v>
@@ -14762,7 +14795,7 @@
         <v>79</v>
       </c>
       <c r="P73" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -14852,7 +14885,7 @@
         <v>1.11</v>
       </c>
       <c r="AT73">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU73">
         <v>1.91</v>
@@ -14953,7 +14986,7 @@
         <v>79</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15040,7 +15073,7 @@
         <v>0.2</v>
       </c>
       <c r="AS74">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT74">
         <v>1</v>
@@ -15144,7 +15177,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15231,10 +15264,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT75">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU75">
         <v>2.04</v>
@@ -15422,10 +15455,10 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT76">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU76">
         <v>2.06</v>
@@ -15613,7 +15646,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT77">
         <v>1.33</v>
@@ -15717,7 +15750,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15804,10 +15837,10 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT78">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU78">
         <v>1.63</v>
@@ -15866,7 +15899,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>3168536</v>
+        <v>3168534</v>
       </c>
       <c r="C79" t="s">
         <v>63</v>
@@ -15881,175 +15914,175 @@
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H79" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M79">
         <v>1</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O79" t="s">
         <v>132</v>
       </c>
       <c r="P79" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="Q79">
+        <v>7</v>
+      </c>
+      <c r="R79">
+        <v>11</v>
+      </c>
+      <c r="S79">
+        <v>18</v>
+      </c>
+      <c r="T79">
+        <v>2.3</v>
+      </c>
+      <c r="U79">
+        <v>2.1</v>
+      </c>
+      <c r="V79">
+        <v>4.75</v>
+      </c>
+      <c r="W79">
+        <v>1.43</v>
+      </c>
+      <c r="X79">
+        <v>2.65</v>
+      </c>
+      <c r="Y79">
+        <v>2.75</v>
+      </c>
+      <c r="Z79">
+        <v>1.4</v>
+      </c>
+      <c r="AA79">
+        <v>7.5</v>
+      </c>
+      <c r="AB79">
+        <v>1.07</v>
+      </c>
+      <c r="AC79">
+        <v>1.87</v>
+      </c>
+      <c r="AD79">
+        <v>3.62</v>
+      </c>
+      <c r="AE79">
+        <v>3.95</v>
+      </c>
+      <c r="AF79">
+        <v>1.02</v>
+      </c>
+      <c r="AG79">
+        <v>8.9</v>
+      </c>
+      <c r="AH79">
+        <v>1.28</v>
+      </c>
+      <c r="AI79">
+        <v>3.2</v>
+      </c>
+      <c r="AJ79">
+        <v>2.03</v>
+      </c>
+      <c r="AK79">
+        <v>1.78</v>
+      </c>
+      <c r="AL79">
+        <v>1.95</v>
+      </c>
+      <c r="AM79">
+        <v>1.8</v>
+      </c>
+      <c r="AN79">
+        <v>1.12</v>
+      </c>
+      <c r="AO79">
+        <v>1.22</v>
+      </c>
+      <c r="AP79">
+        <v>2.1</v>
+      </c>
+      <c r="AQ79">
+        <v>1.67</v>
+      </c>
+      <c r="AR79">
+        <v>0.5</v>
+      </c>
+      <c r="AS79">
+        <v>1.56</v>
+      </c>
+      <c r="AT79">
+        <v>0.67</v>
+      </c>
+      <c r="AU79">
+        <v>2.03</v>
+      </c>
+      <c r="AV79">
+        <v>1.36</v>
+      </c>
+      <c r="AW79">
+        <v>3.39</v>
+      </c>
+      <c r="AX79">
+        <v>1.37</v>
+      </c>
+      <c r="AY79">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ79">
+        <v>3.82</v>
+      </c>
+      <c r="BA79">
+        <v>1.17</v>
+      </c>
+      <c r="BB79">
+        <v>1.32</v>
+      </c>
+      <c r="BC79">
+        <v>1.58</v>
+      </c>
+      <c r="BD79">
+        <v>1.95</v>
+      </c>
+      <c r="BE79">
+        <v>2.72</v>
+      </c>
+      <c r="BF79">
+        <v>5</v>
+      </c>
+      <c r="BG79">
+        <v>3</v>
+      </c>
+      <c r="BH79">
+        <v>5</v>
+      </c>
+      <c r="BI79">
+        <v>2</v>
+      </c>
+      <c r="BJ79">
         <v>10</v>
       </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>10</v>
-      </c>
-      <c r="T79">
-        <v>3.4</v>
-      </c>
-      <c r="U79">
-        <v>2.15</v>
-      </c>
-      <c r="V79">
-        <v>2.75</v>
-      </c>
-      <c r="W79">
-        <v>1.33</v>
-      </c>
-      <c r="X79">
-        <v>3.25</v>
-      </c>
-      <c r="Y79">
-        <v>2.5</v>
-      </c>
-      <c r="Z79">
-        <v>1.5</v>
-      </c>
-      <c r="AA79">
-        <v>6</v>
-      </c>
-      <c r="AB79">
-        <v>1.11</v>
-      </c>
-      <c r="AC79">
-        <v>2.66</v>
-      </c>
-      <c r="AD79">
-        <v>3.63</v>
-      </c>
-      <c r="AE79">
-        <v>2.42</v>
-      </c>
-      <c r="AF79">
-        <v>1.04</v>
-      </c>
-      <c r="AG79">
-        <v>14</v>
-      </c>
-      <c r="AH79">
-        <v>1.22</v>
-      </c>
-      <c r="AI79">
-        <v>4</v>
-      </c>
-      <c r="AJ79">
-        <v>1.73</v>
-      </c>
-      <c r="AK79">
-        <v>1.81</v>
-      </c>
-      <c r="AL79">
-        <v>1.62</v>
-      </c>
-      <c r="AM79">
-        <v>2.2</v>
-      </c>
-      <c r="AN79">
-        <v>1.6</v>
-      </c>
-      <c r="AO79">
-        <v>1.29</v>
-      </c>
-      <c r="AP79">
-        <v>1.36</v>
-      </c>
-      <c r="AQ79">
-        <v>1.17</v>
-      </c>
-      <c r="AR79">
-        <v>0.83</v>
-      </c>
-      <c r="AS79">
-        <v>1.11</v>
-      </c>
-      <c r="AT79">
-        <v>0.63</v>
-      </c>
-      <c r="AU79">
-        <v>1.76</v>
-      </c>
-      <c r="AV79">
-        <v>1.78</v>
-      </c>
-      <c r="AW79">
-        <v>3.54</v>
-      </c>
-      <c r="AX79">
-        <v>2.21</v>
-      </c>
-      <c r="AY79">
-        <v>7.6</v>
-      </c>
-      <c r="AZ79">
-        <v>1.92</v>
-      </c>
-      <c r="BA79">
-        <v>1.19</v>
-      </c>
-      <c r="BB79">
-        <v>1.36</v>
-      </c>
-      <c r="BC79">
-        <v>1.6</v>
-      </c>
-      <c r="BD79">
-        <v>2.07</v>
-      </c>
-      <c r="BE79">
-        <v>2.6</v>
-      </c>
-      <c r="BF79">
-        <v>10</v>
-      </c>
-      <c r="BG79">
-        <v>4</v>
-      </c>
-      <c r="BH79">
-        <v>7</v>
-      </c>
-      <c r="BI79">
-        <v>2</v>
-      </c>
-      <c r="BJ79">
-        <v>17</v>
-      </c>
       <c r="BK79">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:63">
@@ -16057,7 +16090,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>3168534</v>
+        <v>3168535</v>
       </c>
       <c r="C80" t="s">
         <v>63</v>
@@ -16072,175 +16105,175 @@
         <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H80" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M80">
         <v>1</v>
       </c>
       <c r="N80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O80" t="s">
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>3</v>
+      </c>
+      <c r="T80">
+        <v>2.05</v>
+      </c>
+      <c r="U80">
+        <v>2.25</v>
+      </c>
+      <c r="V80">
+        <v>5.5</v>
+      </c>
+      <c r="W80">
+        <v>1.33</v>
+      </c>
+      <c r="X80">
+        <v>3.25</v>
+      </c>
+      <c r="Y80">
+        <v>2.65</v>
+      </c>
+      <c r="Z80">
+        <v>1.43</v>
+      </c>
+      <c r="AA80">
+        <v>6</v>
+      </c>
+      <c r="AB80">
+        <v>1.11</v>
+      </c>
+      <c r="AC80">
+        <v>1.72</v>
+      </c>
+      <c r="AD80">
+        <v>3.69</v>
+      </c>
+      <c r="AE80">
+        <v>4.71</v>
+      </c>
+      <c r="AF80">
+        <v>1.01</v>
+      </c>
+      <c r="AG80">
+        <v>9.9</v>
+      </c>
+      <c r="AH80">
+        <v>1.23</v>
+      </c>
+      <c r="AI80">
+        <v>3.56</v>
+      </c>
+      <c r="AJ80">
+        <v>1.95</v>
+      </c>
+      <c r="AK80">
+        <v>1.87</v>
+      </c>
+      <c r="AL80">
+        <v>1.9</v>
+      </c>
+      <c r="AM80">
+        <v>1.85</v>
+      </c>
+      <c r="AN80">
+        <v>1.08</v>
+      </c>
+      <c r="AO80">
+        <v>1.18</v>
+      </c>
+      <c r="AP80">
+        <v>2.45</v>
+      </c>
+      <c r="AQ80">
+        <v>1.33</v>
+      </c>
+      <c r="AR80">
+        <v>0.67</v>
+      </c>
+      <c r="AS80">
+        <v>1.25</v>
+      </c>
+      <c r="AT80">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU80">
+        <v>1.49</v>
+      </c>
+      <c r="AV80">
+        <v>1.49</v>
+      </c>
+      <c r="AW80">
+        <v>2.98</v>
+      </c>
+      <c r="AX80">
+        <v>1.3</v>
+      </c>
+      <c r="AY80">
+        <v>9</v>
+      </c>
+      <c r="AZ80">
+        <v>4.45</v>
+      </c>
+      <c r="BA80">
+        <v>1.27</v>
+      </c>
+      <c r="BB80">
+        <v>1.44</v>
+      </c>
+      <c r="BC80">
+        <v>1.88</v>
+      </c>
+      <c r="BD80">
+        <v>2.46</v>
+      </c>
+      <c r="BE80">
+        <v>3</v>
+      </c>
+      <c r="BF80">
+        <v>3</v>
+      </c>
+      <c r="BG80">
+        <v>2</v>
+      </c>
+      <c r="BH80">
         <v>7</v>
       </c>
-      <c r="R80">
-        <v>11</v>
-      </c>
-      <c r="S80">
-        <v>18</v>
-      </c>
-      <c r="T80">
-        <v>2.3</v>
-      </c>
-      <c r="U80">
-        <v>2.1</v>
-      </c>
-      <c r="V80">
-        <v>4.75</v>
-      </c>
-      <c r="W80">
-        <v>1.43</v>
-      </c>
-      <c r="X80">
-        <v>2.65</v>
-      </c>
-      <c r="Y80">
-        <v>2.75</v>
-      </c>
-      <c r="Z80">
-        <v>1.4</v>
-      </c>
-      <c r="AA80">
-        <v>7.5</v>
-      </c>
-      <c r="AB80">
-        <v>1.07</v>
-      </c>
-      <c r="AC80">
-        <v>1.87</v>
-      </c>
-      <c r="AD80">
-        <v>3.62</v>
-      </c>
-      <c r="AE80">
-        <v>3.95</v>
-      </c>
-      <c r="AF80">
-        <v>1.02</v>
-      </c>
-      <c r="AG80">
-        <v>8.9</v>
-      </c>
-      <c r="AH80">
-        <v>1.28</v>
-      </c>
-      <c r="AI80">
-        <v>3.2</v>
-      </c>
-      <c r="AJ80">
-        <v>2.03</v>
-      </c>
-      <c r="AK80">
-        <v>1.78</v>
-      </c>
-      <c r="AL80">
-        <v>1.95</v>
-      </c>
-      <c r="AM80">
-        <v>1.8</v>
-      </c>
-      <c r="AN80">
-        <v>1.12</v>
-      </c>
-      <c r="AO80">
-        <v>1.22</v>
-      </c>
-      <c r="AP80">
-        <v>2.1</v>
-      </c>
-      <c r="AQ80">
-        <v>1.67</v>
-      </c>
-      <c r="AR80">
-        <v>0.5</v>
-      </c>
-      <c r="AS80">
-        <v>1.75</v>
-      </c>
-      <c r="AT80">
-        <v>0.75</v>
-      </c>
-      <c r="AU80">
-        <v>2.03</v>
-      </c>
-      <c r="AV80">
-        <v>1.36</v>
-      </c>
-      <c r="AW80">
-        <v>3.39</v>
-      </c>
-      <c r="AX80">
-        <v>1.37</v>
-      </c>
-      <c r="AY80">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ80">
-        <v>3.82</v>
-      </c>
-      <c r="BA80">
-        <v>1.17</v>
-      </c>
-      <c r="BB80">
-        <v>1.32</v>
-      </c>
-      <c r="BC80">
-        <v>1.58</v>
-      </c>
-      <c r="BD80">
-        <v>1.95</v>
-      </c>
-      <c r="BE80">
-        <v>2.72</v>
-      </c>
-      <c r="BF80">
-        <v>5</v>
-      </c>
-      <c r="BG80">
-        <v>3</v>
-      </c>
-      <c r="BH80">
-        <v>5</v>
-      </c>
       <c r="BI80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ80">
         <v>10</v>
       </c>
       <c r="BK80">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:63">
@@ -16248,7 +16281,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3168535</v>
+        <v>3168536</v>
       </c>
       <c r="C81" t="s">
         <v>63</v>
@@ -16263,52 +16296,52 @@
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H81" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M81">
         <v>1</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O81" t="s">
         <v>134</v>
       </c>
       <c r="P81" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="Q81">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T81">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="U81">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="V81">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="W81">
         <v>1.33</v>
@@ -16317,10 +16350,10 @@
         <v>3.25</v>
       </c>
       <c r="Y81">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="Z81">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AA81">
         <v>6</v>
@@ -16329,109 +16362,109 @@
         <v>1.11</v>
       </c>
       <c r="AC81">
-        <v>1.72</v>
+        <v>2.66</v>
       </c>
       <c r="AD81">
-        <v>3.69</v>
+        <v>3.63</v>
       </c>
       <c r="AE81">
-        <v>4.71</v>
+        <v>2.42</v>
       </c>
       <c r="AF81">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AG81">
-        <v>9.9</v>
+        <v>14</v>
       </c>
       <c r="AH81">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AI81">
-        <v>3.56</v>
+        <v>4</v>
       </c>
       <c r="AJ81">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="AK81">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AL81">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="AM81">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="AN81">
-        <v>1.08</v>
+        <v>1.6</v>
       </c>
       <c r="AO81">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AP81">
-        <v>2.45</v>
+        <v>1.36</v>
       </c>
       <c r="AQ81">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR81">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AS81">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT81">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU81">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="AV81">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="AW81">
-        <v>2.98</v>
+        <v>3.54</v>
       </c>
       <c r="AX81">
-        <v>1.3</v>
+        <v>2.21</v>
       </c>
       <c r="AY81">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AZ81">
-        <v>4.45</v>
+        <v>1.92</v>
       </c>
       <c r="BA81">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="BB81">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="BC81">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="BD81">
-        <v>2.46</v>
+        <v>2.07</v>
       </c>
       <c r="BE81">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="BF81">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BG81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH81">
         <v>7</v>
       </c>
       <c r="BI81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ81">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BK81">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:63">
@@ -16481,7 +16514,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16568,10 +16601,10 @@
         <v>2.17</v>
       </c>
       <c r="AS82">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT82">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU82">
         <v>1.84</v>
@@ -16672,7 +16705,7 @@
         <v>79</v>
       </c>
       <c r="P83" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16759,10 +16792,10 @@
         <v>1.67</v>
       </c>
       <c r="AS83">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT83">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -16863,7 +16896,7 @@
         <v>136</v>
       </c>
       <c r="P84" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -16950,10 +16983,10 @@
         <v>1.86</v>
       </c>
       <c r="AS84">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT84">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU84">
         <v>1.36</v>
@@ -17012,7 +17045,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>3168538</v>
+        <v>3168543</v>
       </c>
       <c r="C85" t="s">
         <v>63</v>
@@ -17027,10 +17060,10 @@
         <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H85" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -17042,10 +17075,10 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <v>2</v>
@@ -17054,25 +17087,25 @@
         <v>137</v>
       </c>
       <c r="P85" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="Q85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R85">
         <v>6</v>
       </c>
       <c r="S85">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>2.35</v>
       </c>
       <c r="U85">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="V85">
-        <v>2.95</v>
+        <v>4.4</v>
       </c>
       <c r="W85">
         <v>1.38</v>
@@ -17081,121 +17114,121 @@
         <v>2.8</v>
       </c>
       <c r="Y85">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Z85">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AA85">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="AB85">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AC85">
-        <v>2.66</v>
+        <v>1.81</v>
       </c>
       <c r="AD85">
-        <v>3.4</v>
+        <v>3.64</v>
       </c>
       <c r="AE85">
-        <v>2.43</v>
+        <v>4.04</v>
       </c>
       <c r="AF85">
         <v>1.01</v>
       </c>
       <c r="AG85">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AH85">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AI85">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="AJ85">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AK85">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AL85">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="AM85">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AN85">
-        <v>1.53</v>
+        <v>1.21</v>
       </c>
       <c r="AO85">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AP85">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AR85">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AS85">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AT85">
-        <v>0.63</v>
+        <v>1.22</v>
       </c>
       <c r="AU85">
+        <v>1.47</v>
+      </c>
+      <c r="AV85">
+        <v>1.48</v>
+      </c>
+      <c r="AW85">
+        <v>2.95</v>
+      </c>
+      <c r="AX85">
+        <v>1.46</v>
+      </c>
+      <c r="AY85">
+        <v>8</v>
+      </c>
+      <c r="AZ85">
+        <v>3.38</v>
+      </c>
+      <c r="BA85">
+        <v>1.31</v>
+      </c>
+      <c r="BB85">
         <v>1.57</v>
       </c>
-      <c r="AV85">
-        <v>1.52</v>
-      </c>
-      <c r="AW85">
-        <v>3.09</v>
-      </c>
-      <c r="AX85">
-        <v>2.07</v>
-      </c>
-      <c r="AY85">
-        <v>7.6</v>
-      </c>
-      <c r="AZ85">
-        <v>2.04</v>
-      </c>
-      <c r="BA85">
-        <v>1.19</v>
-      </c>
-      <c r="BB85">
-        <v>1.36</v>
-      </c>
       <c r="BC85">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BD85">
-        <v>2</v>
+        <v>2.47</v>
       </c>
       <c r="BE85">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="BF85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG85">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI85">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BJ85">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BK85">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:63">
@@ -17203,7 +17236,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>3168543</v>
+        <v>3168542</v>
       </c>
       <c r="C86" t="s">
         <v>63</v>
@@ -17218,91 +17251,91 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H86" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O86" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R86">
+        <v>3</v>
+      </c>
+      <c r="S86">
         <v>6</v>
       </c>
-      <c r="S86">
-        <v>8</v>
-      </c>
       <c r="T86">
-        <v>2.35</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="V86">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="W86">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X86">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Y86">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="Z86">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AA86">
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="AB86">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC86">
-        <v>1.81</v>
+        <v>3.36</v>
       </c>
       <c r="AD86">
-        <v>3.64</v>
+        <v>3.4</v>
       </c>
       <c r="AE86">
-        <v>4.04</v>
+        <v>2.06</v>
       </c>
       <c r="AF86">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AG86">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="AH86">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AI86">
-        <v>3.42</v>
+        <v>3.2</v>
       </c>
       <c r="AJ86">
         <v>1.85</v>
@@ -17311,79 +17344,79 @@
         <v>1.85</v>
       </c>
       <c r="AL86">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AM86">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AN86">
+        <v>1.73</v>
+      </c>
+      <c r="AO86">
+        <v>1.27</v>
+      </c>
+      <c r="AP86">
+        <v>1.31</v>
+      </c>
+      <c r="AQ86">
+        <v>2</v>
+      </c>
+      <c r="AR86">
+        <v>1.86</v>
+      </c>
+      <c r="AS86">
+        <v>1.89</v>
+      </c>
+      <c r="AT86">
+        <v>1.78</v>
+      </c>
+      <c r="AU86">
+        <v>1.69</v>
+      </c>
+      <c r="AV86">
+        <v>1.9</v>
+      </c>
+      <c r="AW86">
+        <v>3.59</v>
+      </c>
+      <c r="AX86">
+        <v>2.8</v>
+      </c>
+      <c r="AY86">
+        <v>7.9</v>
+      </c>
+      <c r="AZ86">
+        <v>1.61</v>
+      </c>
+      <c r="BA86">
         <v>1.21</v>
       </c>
-      <c r="AO86">
-        <v>1.26</v>
-      </c>
-      <c r="AP86">
-        <v>2</v>
-      </c>
-      <c r="AQ86">
-        <v>1.29</v>
-      </c>
-      <c r="AR86">
-        <v>1.29</v>
-      </c>
-      <c r="AS86">
-        <v>1.25</v>
-      </c>
-      <c r="AT86">
-        <v>1.25</v>
-      </c>
-      <c r="AU86">
-        <v>1.47</v>
-      </c>
-      <c r="AV86">
-        <v>1.48</v>
-      </c>
-      <c r="AW86">
-        <v>2.95</v>
-      </c>
-      <c r="AX86">
-        <v>1.46</v>
-      </c>
-      <c r="AY86">
-        <v>8</v>
-      </c>
-      <c r="AZ86">
-        <v>3.38</v>
-      </c>
-      <c r="BA86">
-        <v>1.31</v>
-      </c>
       <c r="BB86">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="BC86">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="BD86">
-        <v>2.47</v>
+        <v>2.09</v>
       </c>
       <c r="BE86">
-        <v>3.3</v>
+        <v>2.71</v>
       </c>
       <c r="BF86">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG86">
         <v>4</v>
       </c>
       <c r="BH86">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BI86">
         <v>8</v>
       </c>
       <c r="BJ86">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BK86">
         <v>12</v>
@@ -17394,7 +17427,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>3168540</v>
+        <v>3168538</v>
       </c>
       <c r="C87" t="s">
         <v>63</v>
@@ -17409,10 +17442,10 @@
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H87" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -17424,160 +17457,160 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>138</v>
+      </c>
+      <c r="P87" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q87">
         <v>3</v>
       </c>
-      <c r="O87" t="s">
-        <v>120</v>
-      </c>
-      <c r="P87" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q87">
+      <c r="R87">
         <v>6</v>
       </c>
-      <c r="R87">
-        <v>1</v>
-      </c>
       <c r="S87">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T87">
+        <v>3.25</v>
+      </c>
+      <c r="U87">
+        <v>2.1</v>
+      </c>
+      <c r="V87">
+        <v>2.95</v>
+      </c>
+      <c r="W87">
+        <v>1.38</v>
+      </c>
+      <c r="X87">
         <v>2.8</v>
       </c>
-      <c r="U87">
-        <v>2.05</v>
-      </c>
-      <c r="V87">
-        <v>3.7</v>
-      </c>
-      <c r="W87">
-        <v>1.42</v>
-      </c>
-      <c r="X87">
-        <v>2.6</v>
-      </c>
       <c r="Y87">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="Z87">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AA87">
-        <v>7.75</v>
+        <v>6.75</v>
       </c>
       <c r="AB87">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AC87">
-        <v>2.15</v>
+        <v>2.66</v>
       </c>
       <c r="AD87">
-        <v>3.36</v>
+        <v>3.4</v>
       </c>
       <c r="AE87">
-        <v>3.2</v>
+        <v>2.43</v>
       </c>
       <c r="AF87">
         <v>1.01</v>
       </c>
       <c r="AG87">
-        <v>9.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AH87">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AI87">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="AJ87">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AK87">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AL87">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AM87">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AN87">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AO87">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AP87">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AQ87">
-        <v>0.43</v>
+        <v>1.43</v>
       </c>
       <c r="AR87">
+        <v>0.71</v>
+      </c>
+      <c r="AS87">
+        <v>1.78</v>
+      </c>
+      <c r="AT87">
         <v>0.67</v>
       </c>
-      <c r="AS87">
-        <v>0.38</v>
-      </c>
-      <c r="AT87">
-        <v>1</v>
-      </c>
       <c r="AU87">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AV87">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AW87">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="AX87">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="AY87">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AZ87">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="BA87">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="BB87">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="BC87">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="BD87">
         <v>2</v>
       </c>
       <c r="BE87">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="BF87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH87">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI87">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BJ87">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BK87">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:63">
@@ -17585,7 +17618,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>3168542</v>
+        <v>3168540</v>
       </c>
       <c r="C88" t="s">
         <v>63</v>
@@ -17600,19 +17633,19 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H88" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -17624,34 +17657,34 @@
         <v>3</v>
       </c>
       <c r="O88" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="P88" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q88">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T88">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="U88">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V88">
+        <v>3.7</v>
+      </c>
+      <c r="W88">
+        <v>1.42</v>
+      </c>
+      <c r="X88">
         <v>2.6</v>
-      </c>
-      <c r="W88">
-        <v>1.4</v>
-      </c>
-      <c r="X88">
-        <v>2.7</v>
       </c>
       <c r="Y88">
         <v>2.95</v>
@@ -17666,94 +17699,94 @@
         <v>1.07</v>
       </c>
       <c r="AC88">
+        <v>2.15</v>
+      </c>
+      <c r="AD88">
         <v>3.36</v>
       </c>
-      <c r="AD88">
-        <v>3.4</v>
-      </c>
       <c r="AE88">
-        <v>2.06</v>
+        <v>3.2</v>
       </c>
       <c r="AF88">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AG88">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="AH88">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AI88">
-        <v>3.2</v>
+        <v>3.42</v>
       </c>
       <c r="AJ88">
         <v>1.85</v>
       </c>
       <c r="AK88">
+        <v>1.88</v>
+      </c>
+      <c r="AL88">
+        <v>1.8</v>
+      </c>
+      <c r="AM88">
+        <v>1.88</v>
+      </c>
+      <c r="AN88">
+        <v>1.33</v>
+      </c>
+      <c r="AO88">
+        <v>1.31</v>
+      </c>
+      <c r="AP88">
+        <v>1.65</v>
+      </c>
+      <c r="AQ88">
+        <v>0.43</v>
+      </c>
+      <c r="AR88">
+        <v>0.67</v>
+      </c>
+      <c r="AS88">
+        <v>0.44</v>
+      </c>
+      <c r="AT88">
+        <v>1</v>
+      </c>
+      <c r="AU88">
+        <v>1.58</v>
+      </c>
+      <c r="AV88">
+        <v>1.46</v>
+      </c>
+      <c r="AW88">
+        <v>3.04</v>
+      </c>
+      <c r="AX88">
         <v>1.85</v>
       </c>
-      <c r="AL88">
-        <v>1.82</v>
-      </c>
-      <c r="AM88">
-        <v>1.87</v>
-      </c>
-      <c r="AN88">
-        <v>1.73</v>
-      </c>
-      <c r="AO88">
+      <c r="AY88">
+        <v>7.5</v>
+      </c>
+      <c r="AZ88">
+        <v>2.32</v>
+      </c>
+      <c r="BA88">
         <v>1.27</v>
       </c>
-      <c r="AP88">
-        <v>1.31</v>
-      </c>
-      <c r="AQ88">
-        <v>2</v>
-      </c>
-      <c r="AR88">
-        <v>1.86</v>
-      </c>
-      <c r="AS88">
-        <v>1.75</v>
-      </c>
-      <c r="AT88">
-        <v>2</v>
-      </c>
-      <c r="AU88">
-        <v>1.69</v>
-      </c>
-      <c r="AV88">
-        <v>1.9</v>
-      </c>
-      <c r="AW88">
-        <v>3.59</v>
-      </c>
-      <c r="AX88">
-        <v>2.8</v>
-      </c>
-      <c r="AY88">
-        <v>7.9</v>
-      </c>
-      <c r="AZ88">
-        <v>1.61</v>
-      </c>
-      <c r="BA88">
-        <v>1.21</v>
-      </c>
       <c r="BB88">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="BC88">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="BD88">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="BE88">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="BF88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG88">
         <v>4</v>
@@ -17765,7 +17798,7 @@
         <v>8</v>
       </c>
       <c r="BJ88">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK88">
         <v>12</v>
@@ -17818,7 +17851,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -17905,7 +17938,7 @@
         <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT89">
         <v>1.33</v>
@@ -18096,10 +18129,10 @@
         <v>0.71</v>
       </c>
       <c r="AS90">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT90">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU90">
         <v>1.65</v>
@@ -18200,7 +18233,7 @@
         <v>79</v>
       </c>
       <c r="P91" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18287,10 +18320,10 @@
         <v>0.43</v>
       </c>
       <c r="AS91">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT91">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU91">
         <v>1.83</v>
@@ -18478,10 +18511,10 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT92">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU92">
         <v>1.93</v>
@@ -18579,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="O93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P93" t="s">
         <v>79</v>
@@ -18669,10 +18702,10 @@
         <v>0.71</v>
       </c>
       <c r="AS93">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT93">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU93">
         <v>2.43</v>
@@ -18773,7 +18806,7 @@
         <v>141</v>
       </c>
       <c r="P94" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -18863,7 +18896,7 @@
         <v>1.11</v>
       </c>
       <c r="AT94">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU94">
         <v>1.86</v>
@@ -18964,7 +18997,7 @@
         <v>79</v>
       </c>
       <c r="P95" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19106,6 +19139,1916 @@
       </c>
       <c r="BK95">
         <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>3168549</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44870.45833333334</v>
+      </c>
+      <c r="F96">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" t="s">
+        <v>67</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>142</v>
+      </c>
+      <c r="P96" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q96">
+        <v>9</v>
+      </c>
+      <c r="R96">
+        <v>5</v>
+      </c>
+      <c r="S96">
+        <v>14</v>
+      </c>
+      <c r="T96">
+        <v>3.4</v>
+      </c>
+      <c r="U96">
+        <v>2.1</v>
+      </c>
+      <c r="V96">
+        <v>2.8</v>
+      </c>
+      <c r="W96">
+        <v>1.37</v>
+      </c>
+      <c r="X96">
+        <v>2.85</v>
+      </c>
+      <c r="Y96">
+        <v>2.65</v>
+      </c>
+      <c r="Z96">
+        <v>1.41</v>
+      </c>
+      <c r="AA96">
+        <v>6.75</v>
+      </c>
+      <c r="AB96">
+        <v>1.09</v>
+      </c>
+      <c r="AC96">
+        <v>2.75</v>
+      </c>
+      <c r="AD96">
+        <v>3.25</v>
+      </c>
+      <c r="AE96">
+        <v>2.26</v>
+      </c>
+      <c r="AF96">
+        <v>1.05</v>
+      </c>
+      <c r="AG96">
+        <v>9</v>
+      </c>
+      <c r="AH96">
+        <v>1.25</v>
+      </c>
+      <c r="AI96">
+        <v>3.6</v>
+      </c>
+      <c r="AJ96">
+        <v>1.78</v>
+      </c>
+      <c r="AK96">
+        <v>2.03</v>
+      </c>
+      <c r="AL96">
+        <v>1.65</v>
+      </c>
+      <c r="AM96">
+        <v>2.1</v>
+      </c>
+      <c r="AN96">
+        <v>1.61</v>
+      </c>
+      <c r="AO96">
+        <v>1.29</v>
+      </c>
+      <c r="AP96">
+        <v>1.38</v>
+      </c>
+      <c r="AQ96">
+        <v>0.38</v>
+      </c>
+      <c r="AR96">
+        <v>0.63</v>
+      </c>
+      <c r="AS96">
+        <v>0.44</v>
+      </c>
+      <c r="AT96">
+        <v>0.67</v>
+      </c>
+      <c r="AU96">
+        <v>1.57</v>
+      </c>
+      <c r="AV96">
+        <v>1.61</v>
+      </c>
+      <c r="AW96">
+        <v>3.18</v>
+      </c>
+      <c r="AX96">
+        <v>2.05</v>
+      </c>
+      <c r="AY96">
+        <v>7.6</v>
+      </c>
+      <c r="AZ96">
+        <v>2.06</v>
+      </c>
+      <c r="BA96">
+        <v>1.19</v>
+      </c>
+      <c r="BB96">
+        <v>1.31</v>
+      </c>
+      <c r="BC96">
+        <v>1.64</v>
+      </c>
+      <c r="BD96">
+        <v>1.98</v>
+      </c>
+      <c r="BE96">
+        <v>2.6</v>
+      </c>
+      <c r="BF96">
+        <v>4</v>
+      </c>
+      <c r="BG96">
+        <v>3</v>
+      </c>
+      <c r="BH96">
+        <v>5</v>
+      </c>
+      <c r="BI96">
+        <v>6</v>
+      </c>
+      <c r="BJ96">
+        <v>9</v>
+      </c>
+      <c r="BK96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>3168550</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44870.45833333334</v>
+      </c>
+      <c r="F97">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>70</v>
+      </c>
+      <c r="H97" t="s">
+        <v>65</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" t="s">
+        <v>79</v>
+      </c>
+      <c r="P97" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q97">
+        <v>8</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+      <c r="S97">
+        <v>11</v>
+      </c>
+      <c r="T97">
+        <v>2.65</v>
+      </c>
+      <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
+        <v>4</v>
+      </c>
+      <c r="W97">
+        <v>1.43</v>
+      </c>
+      <c r="X97">
+        <v>2.6</v>
+      </c>
+      <c r="Y97">
+        <v>2.95</v>
+      </c>
+      <c r="Z97">
+        <v>1.34</v>
+      </c>
+      <c r="AA97">
+        <v>8</v>
+      </c>
+      <c r="AB97">
+        <v>1.07</v>
+      </c>
+      <c r="AC97">
+        <v>2.14</v>
+      </c>
+      <c r="AD97">
+        <v>3.3</v>
+      </c>
+      <c r="AE97">
+        <v>2.95</v>
+      </c>
+      <c r="AF97">
+        <v>1.06</v>
+      </c>
+      <c r="AG97">
+        <v>8</v>
+      </c>
+      <c r="AH97">
+        <v>1.33</v>
+      </c>
+      <c r="AI97">
+        <v>3.1</v>
+      </c>
+      <c r="AJ97">
+        <v>2.08</v>
+      </c>
+      <c r="AK97">
+        <v>1.73</v>
+      </c>
+      <c r="AL97">
+        <v>1.85</v>
+      </c>
+      <c r="AM97">
+        <v>1.83</v>
+      </c>
+      <c r="AN97">
+        <v>1.27</v>
+      </c>
+      <c r="AO97">
+        <v>1.31</v>
+      </c>
+      <c r="AP97">
+        <v>1.73</v>
+      </c>
+      <c r="AQ97">
+        <v>1.13</v>
+      </c>
+      <c r="AR97">
+        <v>0.57</v>
+      </c>
+      <c r="AS97">
+        <v>1.11</v>
+      </c>
+      <c r="AT97">
+        <v>0.63</v>
+      </c>
+      <c r="AU97">
+        <v>1.45</v>
+      </c>
+      <c r="AV97">
+        <v>1.21</v>
+      </c>
+      <c r="AW97">
+        <v>2.66</v>
+      </c>
+      <c r="AX97">
+        <v>1.62</v>
+      </c>
+      <c r="AY97">
+        <v>7.8</v>
+      </c>
+      <c r="AZ97">
+        <v>2.78</v>
+      </c>
+      <c r="BA97">
+        <v>1.28</v>
+      </c>
+      <c r="BB97">
+        <v>1.5</v>
+      </c>
+      <c r="BC97">
+        <v>1.85</v>
+      </c>
+      <c r="BD97">
+        <v>2.3</v>
+      </c>
+      <c r="BE97">
+        <v>3.1</v>
+      </c>
+      <c r="BF97">
+        <v>2</v>
+      </c>
+      <c r="BG97">
+        <v>2</v>
+      </c>
+      <c r="BH97">
+        <v>8</v>
+      </c>
+      <c r="BI97">
+        <v>5</v>
+      </c>
+      <c r="BJ97">
+        <v>10</v>
+      </c>
+      <c r="BK97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>3168553</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44870.45833333334</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>69</v>
+      </c>
+      <c r="H98" t="s">
+        <v>66</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>143</v>
+      </c>
+      <c r="P98" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>5</v>
+      </c>
+      <c r="S98">
+        <v>6</v>
+      </c>
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
+        <v>2.05</v>
+      </c>
+      <c r="V98">
+        <v>3.3</v>
+      </c>
+      <c r="W98">
+        <v>1.4</v>
+      </c>
+      <c r="X98">
+        <v>2.7</v>
+      </c>
+      <c r="Y98">
+        <v>2.85</v>
+      </c>
+      <c r="Z98">
+        <v>1.37</v>
+      </c>
+      <c r="AA98">
+        <v>7.5</v>
+      </c>
+      <c r="AB98">
+        <v>1.08</v>
+      </c>
+      <c r="AC98">
+        <v>2.21</v>
+      </c>
+      <c r="AD98">
+        <v>3.25</v>
+      </c>
+      <c r="AE98">
+        <v>2.85</v>
+      </c>
+      <c r="AF98">
+        <v>1.06</v>
+      </c>
+      <c r="AG98">
+        <v>8</v>
+      </c>
+      <c r="AH98">
+        <v>1.3</v>
+      </c>
+      <c r="AI98">
+        <v>3.3</v>
+      </c>
+      <c r="AJ98">
+        <v>2</v>
+      </c>
+      <c r="AK98">
+        <v>1.8</v>
+      </c>
+      <c r="AL98">
+        <v>1.75</v>
+      </c>
+      <c r="AM98">
+        <v>1.95</v>
+      </c>
+      <c r="AN98">
+        <v>1.42</v>
+      </c>
+      <c r="AO98">
+        <v>1.31</v>
+      </c>
+      <c r="AP98">
+        <v>1.53</v>
+      </c>
+      <c r="AQ98">
+        <v>2.57</v>
+      </c>
+      <c r="AR98">
+        <v>2</v>
+      </c>
+      <c r="AS98">
+        <v>2.63</v>
+      </c>
+      <c r="AT98">
+        <v>1.78</v>
+      </c>
+      <c r="AU98">
+        <v>2.23</v>
+      </c>
+      <c r="AV98">
+        <v>1.84</v>
+      </c>
+      <c r="AW98">
+        <v>4.07</v>
+      </c>
+      <c r="AX98">
+        <v>1.98</v>
+      </c>
+      <c r="AY98">
+        <v>7.4</v>
+      </c>
+      <c r="AZ98">
+        <v>2.15</v>
+      </c>
+      <c r="BA98">
+        <v>1.27</v>
+      </c>
+      <c r="BB98">
+        <v>1.52</v>
+      </c>
+      <c r="BC98">
+        <v>1.88</v>
+      </c>
+      <c r="BD98">
+        <v>2.35</v>
+      </c>
+      <c r="BE98">
+        <v>3.2</v>
+      </c>
+      <c r="BF98">
+        <v>6</v>
+      </c>
+      <c r="BG98">
+        <v>5</v>
+      </c>
+      <c r="BH98">
+        <v>6</v>
+      </c>
+      <c r="BI98">
+        <v>5</v>
+      </c>
+      <c r="BJ98">
+        <v>12</v>
+      </c>
+      <c r="BK98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>3168552</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44871.5625</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>74</v>
+      </c>
+      <c r="H99" t="s">
+        <v>73</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>5</v>
+      </c>
+      <c r="O99" t="s">
+        <v>144</v>
+      </c>
+      <c r="P99" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q99">
+        <v>6</v>
+      </c>
+      <c r="R99">
+        <v>8</v>
+      </c>
+      <c r="S99">
+        <v>14</v>
+      </c>
+      <c r="T99">
+        <v>4</v>
+      </c>
+      <c r="U99">
+        <v>2.3</v>
+      </c>
+      <c r="V99">
+        <v>2.4</v>
+      </c>
+      <c r="W99">
+        <v>1.33</v>
+      </c>
+      <c r="X99">
+        <v>3.25</v>
+      </c>
+      <c r="Y99">
+        <v>2.5</v>
+      </c>
+      <c r="Z99">
+        <v>1.5</v>
+      </c>
+      <c r="AA99">
+        <v>6</v>
+      </c>
+      <c r="AB99">
+        <v>1.13</v>
+      </c>
+      <c r="AC99">
+        <v>3.6</v>
+      </c>
+      <c r="AD99">
+        <v>3.7</v>
+      </c>
+      <c r="AE99">
+        <v>1.75</v>
+      </c>
+      <c r="AF99">
+        <v>1.03</v>
+      </c>
+      <c r="AG99">
+        <v>11</v>
+      </c>
+      <c r="AH99">
+        <v>1.2</v>
+      </c>
+      <c r="AI99">
+        <v>4.33</v>
+      </c>
+      <c r="AJ99">
+        <v>1.55</v>
+      </c>
+      <c r="AK99">
+        <v>2.45</v>
+      </c>
+      <c r="AL99">
+        <v>1.62</v>
+      </c>
+      <c r="AM99">
+        <v>2.2</v>
+      </c>
+      <c r="AN99">
+        <v>1.87</v>
+      </c>
+      <c r="AO99">
+        <v>1.27</v>
+      </c>
+      <c r="AP99">
+        <v>1.26</v>
+      </c>
+      <c r="AQ99">
+        <v>1.75</v>
+      </c>
+      <c r="AR99">
+        <v>2</v>
+      </c>
+      <c r="AS99">
+        <v>1.89</v>
+      </c>
+      <c r="AT99">
+        <v>1.78</v>
+      </c>
+      <c r="AU99">
+        <v>1.67</v>
+      </c>
+      <c r="AV99">
+        <v>2.07</v>
+      </c>
+      <c r="AW99">
+        <v>3.74</v>
+      </c>
+      <c r="AX99">
+        <v>3.7</v>
+      </c>
+      <c r="AY99">
+        <v>8.6</v>
+      </c>
+      <c r="AZ99">
+        <v>1.39</v>
+      </c>
+      <c r="BA99">
+        <v>1.19</v>
+      </c>
+      <c r="BB99">
+        <v>1.36</v>
+      </c>
+      <c r="BC99">
+        <v>1.64</v>
+      </c>
+      <c r="BD99">
+        <v>2</v>
+      </c>
+      <c r="BE99">
+        <v>2.55</v>
+      </c>
+      <c r="BF99">
+        <v>9</v>
+      </c>
+      <c r="BG99">
+        <v>6</v>
+      </c>
+      <c r="BH99">
+        <v>4</v>
+      </c>
+      <c r="BI99">
+        <v>3</v>
+      </c>
+      <c r="BJ99">
+        <v>13</v>
+      </c>
+      <c r="BK99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>3168555</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44876.5625</v>
+      </c>
+      <c r="F100">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s">
+        <v>66</v>
+      </c>
+      <c r="H100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>145</v>
+      </c>
+      <c r="P100" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q100">
+        <v>5</v>
+      </c>
+      <c r="R100">
+        <v>3</v>
+      </c>
+      <c r="S100">
+        <v>8</v>
+      </c>
+      <c r="T100">
+        <v>1.8</v>
+      </c>
+      <c r="U100">
+        <v>2.45</v>
+      </c>
+      <c r="V100">
+        <v>6.5</v>
+      </c>
+      <c r="W100">
+        <v>1.31</v>
+      </c>
+      <c r="X100">
+        <v>3.1</v>
+      </c>
+      <c r="Y100">
+        <v>2.45</v>
+      </c>
+      <c r="Z100">
+        <v>1.47</v>
+      </c>
+      <c r="AA100">
+        <v>6</v>
+      </c>
+      <c r="AB100">
+        <v>1.11</v>
+      </c>
+      <c r="AC100">
+        <v>1.35</v>
+      </c>
+      <c r="AD100">
+        <v>4.3</v>
+      </c>
+      <c r="AE100">
+        <v>6.3</v>
+      </c>
+      <c r="AF100">
+        <v>1.04</v>
+      </c>
+      <c r="AG100">
+        <v>10</v>
+      </c>
+      <c r="AH100">
+        <v>1.2</v>
+      </c>
+      <c r="AI100">
+        <v>4.2</v>
+      </c>
+      <c r="AJ100">
+        <v>1.75</v>
+      </c>
+      <c r="AK100">
+        <v>2.01</v>
+      </c>
+      <c r="AL100">
+        <v>2.05</v>
+      </c>
+      <c r="AM100">
+        <v>1.68</v>
+      </c>
+      <c r="AN100">
+        <v>1.08</v>
+      </c>
+      <c r="AO100">
+        <v>1.16</v>
+      </c>
+      <c r="AP100">
+        <v>3.1</v>
+      </c>
+      <c r="AQ100">
+        <v>1.71</v>
+      </c>
+      <c r="AR100">
+        <v>0.75</v>
+      </c>
+      <c r="AS100">
+        <v>1.88</v>
+      </c>
+      <c r="AT100">
+        <v>0.67</v>
+      </c>
+      <c r="AU100">
+        <v>2.11</v>
+      </c>
+      <c r="AV100">
+        <v>1.26</v>
+      </c>
+      <c r="AW100">
+        <v>3.37</v>
+      </c>
+      <c r="AX100">
+        <v>1.31</v>
+      </c>
+      <c r="AY100">
+        <v>11</v>
+      </c>
+      <c r="AZ100">
+        <v>4.42</v>
+      </c>
+      <c r="BA100">
+        <v>1.23</v>
+      </c>
+      <c r="BB100">
+        <v>1.37</v>
+      </c>
+      <c r="BC100">
+        <v>1.67</v>
+      </c>
+      <c r="BD100">
+        <v>2.1</v>
+      </c>
+      <c r="BE100">
+        <v>2.77</v>
+      </c>
+      <c r="BF100">
+        <v>5</v>
+      </c>
+      <c r="BG100">
+        <v>2</v>
+      </c>
+      <c r="BH100">
+        <v>5</v>
+      </c>
+      <c r="BI100">
+        <v>3</v>
+      </c>
+      <c r="BJ100">
+        <v>10</v>
+      </c>
+      <c r="BK100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>3168559</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>44877.45833333334</v>
+      </c>
+      <c r="F101">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>92</v>
+      </c>
+      <c r="P101" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q101">
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <v>7</v>
+      </c>
+      <c r="S101">
+        <v>10</v>
+      </c>
+      <c r="T101">
+        <v>2.3</v>
+      </c>
+      <c r="U101">
+        <v>2.25</v>
+      </c>
+      <c r="V101">
+        <v>4.5</v>
+      </c>
+      <c r="W101">
+        <v>1.36</v>
+      </c>
+      <c r="X101">
+        <v>3</v>
+      </c>
+      <c r="Y101">
+        <v>2.63</v>
+      </c>
+      <c r="Z101">
+        <v>1.44</v>
+      </c>
+      <c r="AA101">
+        <v>7</v>
+      </c>
+      <c r="AB101">
+        <v>1.1</v>
+      </c>
+      <c r="AC101">
+        <v>1.65</v>
+      </c>
+      <c r="AD101">
+        <v>3.8</v>
+      </c>
+      <c r="AE101">
+        <v>4.86</v>
+      </c>
+      <c r="AF101">
+        <v>1.01</v>
+      </c>
+      <c r="AG101">
+        <v>11</v>
+      </c>
+      <c r="AH101">
+        <v>1.25</v>
+      </c>
+      <c r="AI101">
+        <v>3.6</v>
+      </c>
+      <c r="AJ101">
+        <v>1.89</v>
+      </c>
+      <c r="AK101">
+        <v>1.91</v>
+      </c>
+      <c r="AL101">
+        <v>1.8</v>
+      </c>
+      <c r="AM101">
+        <v>1.91</v>
+      </c>
+      <c r="AN101">
+        <v>1.14</v>
+      </c>
+      <c r="AO101">
+        <v>1.2</v>
+      </c>
+      <c r="AP101">
+        <v>2.15</v>
+      </c>
+      <c r="AQ101">
+        <v>1.75</v>
+      </c>
+      <c r="AR101">
+        <v>0.63</v>
+      </c>
+      <c r="AS101">
+        <v>1.89</v>
+      </c>
+      <c r="AT101">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU101">
+        <v>1.92</v>
+      </c>
+      <c r="AV101">
+        <v>1.42</v>
+      </c>
+      <c r="AW101">
+        <v>3.34</v>
+      </c>
+      <c r="AX101">
+        <v>1.49</v>
+      </c>
+      <c r="AY101">
+        <v>8.6</v>
+      </c>
+      <c r="AZ101">
+        <v>3.15</v>
+      </c>
+      <c r="BA101">
+        <v>1.19</v>
+      </c>
+      <c r="BB101">
+        <v>1.36</v>
+      </c>
+      <c r="BC101">
+        <v>1.56</v>
+      </c>
+      <c r="BD101">
+        <v>1.93</v>
+      </c>
+      <c r="BE101">
+        <v>2.48</v>
+      </c>
+      <c r="BF101">
+        <v>7</v>
+      </c>
+      <c r="BG101">
+        <v>8</v>
+      </c>
+      <c r="BH101">
+        <v>5</v>
+      </c>
+      <c r="BI101">
+        <v>5</v>
+      </c>
+      <c r="BJ101">
+        <v>12</v>
+      </c>
+      <c r="BK101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>3168556</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>44877.45833333334</v>
+      </c>
+      <c r="F102">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s">
+        <v>71</v>
+      </c>
+      <c r="H102" t="s">
+        <v>76</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>4</v>
+      </c>
+      <c r="M102">
+        <v>4</v>
+      </c>
+      <c r="N102">
+        <v>8</v>
+      </c>
+      <c r="O102" t="s">
+        <v>146</v>
+      </c>
+      <c r="P102" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q102">
+        <v>6</v>
+      </c>
+      <c r="R102">
+        <v>5</v>
+      </c>
+      <c r="S102">
+        <v>11</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
+        <v>2.2</v>
+      </c>
+      <c r="V102">
+        <v>4</v>
+      </c>
+      <c r="W102">
+        <v>1.36</v>
+      </c>
+      <c r="X102">
+        <v>3</v>
+      </c>
+      <c r="Y102">
+        <v>2.63</v>
+      </c>
+      <c r="Z102">
+        <v>1.44</v>
+      </c>
+      <c r="AA102">
+        <v>7</v>
+      </c>
+      <c r="AB102">
+        <v>1.1</v>
+      </c>
+      <c r="AC102">
+        <v>2.12</v>
+      </c>
+      <c r="AD102">
+        <v>3.46</v>
+      </c>
+      <c r="AE102">
+        <v>3.18</v>
+      </c>
+      <c r="AF102">
+        <v>1.04</v>
+      </c>
+      <c r="AG102">
+        <v>8.5</v>
+      </c>
+      <c r="AH102">
+        <v>1.22</v>
+      </c>
+      <c r="AI102">
+        <v>3.7</v>
+      </c>
+      <c r="AJ102">
+        <v>1.84</v>
+      </c>
+      <c r="AK102">
+        <v>1.97</v>
+      </c>
+      <c r="AL102">
+        <v>1.73</v>
+      </c>
+      <c r="AM102">
+        <v>2</v>
+      </c>
+      <c r="AN102">
+        <v>1.28</v>
+      </c>
+      <c r="AO102">
+        <v>1.28</v>
+      </c>
+      <c r="AP102">
+        <v>1.83</v>
+      </c>
+      <c r="AQ102">
+        <v>1.25</v>
+      </c>
+      <c r="AR102">
+        <v>1.25</v>
+      </c>
+      <c r="AS102">
+        <v>1.22</v>
+      </c>
+      <c r="AT102">
+        <v>1.22</v>
+      </c>
+      <c r="AU102">
+        <v>1.68</v>
+      </c>
+      <c r="AV102">
+        <v>1.5</v>
+      </c>
+      <c r="AW102">
+        <v>3.18</v>
+      </c>
+      <c r="AX102">
+        <v>1.61</v>
+      </c>
+      <c r="AY102">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ102">
+        <v>2.76</v>
+      </c>
+      <c r="BA102">
+        <v>1.19</v>
+      </c>
+      <c r="BB102">
+        <v>1.36</v>
+      </c>
+      <c r="BC102">
+        <v>1.68</v>
+      </c>
+      <c r="BD102">
+        <v>1.83</v>
+      </c>
+      <c r="BE102">
+        <v>2.51</v>
+      </c>
+      <c r="BF102">
+        <v>9</v>
+      </c>
+      <c r="BG102">
+        <v>7</v>
+      </c>
+      <c r="BH102">
+        <v>8</v>
+      </c>
+      <c r="BI102">
+        <v>2</v>
+      </c>
+      <c r="BJ102">
+        <v>17</v>
+      </c>
+      <c r="BK102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>3168558</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44877.45833333334</v>
+      </c>
+      <c r="F103">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s">
+        <v>67</v>
+      </c>
+      <c r="H103" t="s">
+        <v>69</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>79</v>
+      </c>
+      <c r="P103" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q103">
+        <v>5</v>
+      </c>
+      <c r="R103">
+        <v>3</v>
+      </c>
+      <c r="S103">
+        <v>8</v>
+      </c>
+      <c r="T103">
+        <v>3.1</v>
+      </c>
+      <c r="U103">
+        <v>2.2</v>
+      </c>
+      <c r="V103">
+        <v>3.1</v>
+      </c>
+      <c r="W103">
+        <v>1.36</v>
+      </c>
+      <c r="X103">
+        <v>3</v>
+      </c>
+      <c r="Y103">
+        <v>2.63</v>
+      </c>
+      <c r="Z103">
+        <v>1.44</v>
+      </c>
+      <c r="AA103">
+        <v>7</v>
+      </c>
+      <c r="AB103">
+        <v>1.1</v>
+      </c>
+      <c r="AC103">
+        <v>2.61</v>
+      </c>
+      <c r="AD103">
+        <v>3.38</v>
+      </c>
+      <c r="AE103">
+        <v>2.49</v>
+      </c>
+      <c r="AF103">
+        <v>1.01</v>
+      </c>
+      <c r="AG103">
+        <v>10</v>
+      </c>
+      <c r="AH103">
+        <v>1.22</v>
+      </c>
+      <c r="AI103">
+        <v>3.64</v>
+      </c>
+      <c r="AJ103">
+        <v>1.9</v>
+      </c>
+      <c r="AK103">
+        <v>1.9</v>
+      </c>
+      <c r="AL103">
+        <v>1.67</v>
+      </c>
+      <c r="AM103">
+        <v>2.1</v>
+      </c>
+      <c r="AN103">
+        <v>1.49</v>
+      </c>
+      <c r="AO103">
+        <v>1.3</v>
+      </c>
+      <c r="AP103">
+        <v>1.49</v>
+      </c>
+      <c r="AQ103">
+        <v>1.75</v>
+      </c>
+      <c r="AR103">
+        <v>1.38</v>
+      </c>
+      <c r="AS103">
+        <v>1.56</v>
+      </c>
+      <c r="AT103">
+        <v>1.56</v>
+      </c>
+      <c r="AU103">
+        <v>1.87</v>
+      </c>
+      <c r="AV103">
+        <v>1.67</v>
+      </c>
+      <c r="AW103">
+        <v>3.54</v>
+      </c>
+      <c r="AX103">
+        <v>2.07</v>
+      </c>
+      <c r="AY103">
+        <v>7.1</v>
+      </c>
+      <c r="AZ103">
+        <v>2.08</v>
+      </c>
+      <c r="BA103">
+        <v>1.17</v>
+      </c>
+      <c r="BB103">
+        <v>1.32</v>
+      </c>
+      <c r="BC103">
+        <v>1.53</v>
+      </c>
+      <c r="BD103">
+        <v>1.98</v>
+      </c>
+      <c r="BE103">
+        <v>2.45</v>
+      </c>
+      <c r="BF103">
+        <v>0</v>
+      </c>
+      <c r="BG103">
+        <v>7</v>
+      </c>
+      <c r="BH103">
+        <v>13</v>
+      </c>
+      <c r="BI103">
+        <v>8</v>
+      </c>
+      <c r="BJ103">
+        <v>13</v>
+      </c>
+      <c r="BK103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>3168560</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44877.45833333334</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>65</v>
+      </c>
+      <c r="H104" t="s">
+        <v>74</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>5</v>
+      </c>
+      <c r="O104" t="s">
+        <v>147</v>
+      </c>
+      <c r="P104" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q104">
+        <v>10</v>
+      </c>
+      <c r="R104">
+        <v>5</v>
+      </c>
+      <c r="S104">
+        <v>15</v>
+      </c>
+      <c r="T104">
+        <v>3.1</v>
+      </c>
+      <c r="U104">
+        <v>2.2</v>
+      </c>
+      <c r="V104">
+        <v>3</v>
+      </c>
+      <c r="W104">
+        <v>1.33</v>
+      </c>
+      <c r="X104">
+        <v>3.25</v>
+      </c>
+      <c r="Y104">
+        <v>2.63</v>
+      </c>
+      <c r="Z104">
+        <v>1.44</v>
+      </c>
+      <c r="AA104">
+        <v>6.5</v>
+      </c>
+      <c r="AB104">
+        <v>1.11</v>
+      </c>
+      <c r="AC104">
+        <v>2.66</v>
+      </c>
+      <c r="AD104">
+        <v>3.46</v>
+      </c>
+      <c r="AE104">
+        <v>2.4</v>
+      </c>
+      <c r="AF104">
+        <v>1.04</v>
+      </c>
+      <c r="AG104">
+        <v>10</v>
+      </c>
+      <c r="AH104">
+        <v>1.24</v>
+      </c>
+      <c r="AI104">
+        <v>3.7</v>
+      </c>
+      <c r="AJ104">
+        <v>1.79</v>
+      </c>
+      <c r="AK104">
+        <v>2.03</v>
+      </c>
+      <c r="AL104">
+        <v>1.62</v>
+      </c>
+      <c r="AM104">
+        <v>2.2</v>
+      </c>
+      <c r="AN104">
+        <v>1.51</v>
+      </c>
+      <c r="AO104">
+        <v>1.3</v>
+      </c>
+      <c r="AP104">
+        <v>1.44</v>
+      </c>
+      <c r="AQ104">
+        <v>1.63</v>
+      </c>
+      <c r="AR104">
+        <v>0.63</v>
+      </c>
+      <c r="AS104">
+        <v>1.78</v>
+      </c>
+      <c r="AT104">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU104">
+        <v>1.61</v>
+      </c>
+      <c r="AV104">
+        <v>1.73</v>
+      </c>
+      <c r="AW104">
+        <v>3.34</v>
+      </c>
+      <c r="AX104">
+        <v>2.2</v>
+      </c>
+      <c r="AY104">
+        <v>7.1</v>
+      </c>
+      <c r="AZ104">
+        <v>1.96</v>
+      </c>
+      <c r="BA104">
+        <v>1.17</v>
+      </c>
+      <c r="BB104">
+        <v>1.32</v>
+      </c>
+      <c r="BC104">
+        <v>1.52</v>
+      </c>
+      <c r="BD104">
+        <v>2</v>
+      </c>
+      <c r="BE104">
+        <v>2.42</v>
+      </c>
+      <c r="BF104">
+        <v>6</v>
+      </c>
+      <c r="BG104">
+        <v>4</v>
+      </c>
+      <c r="BH104">
+        <v>5</v>
+      </c>
+      <c r="BI104">
+        <v>9</v>
+      </c>
+      <c r="BJ104">
+        <v>11</v>
+      </c>
+      <c r="BK104">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>3168557</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44878.5625</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>73</v>
+      </c>
+      <c r="H105" t="s">
+        <v>75</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>148</v>
+      </c>
+      <c r="P105" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q105">
+        <v>10</v>
+      </c>
+      <c r="R105">
+        <v>4</v>
+      </c>
+      <c r="S105">
+        <v>14</v>
+      </c>
+      <c r="T105">
+        <v>1.83</v>
+      </c>
+      <c r="U105">
+        <v>2.5</v>
+      </c>
+      <c r="V105">
+        <v>6</v>
+      </c>
+      <c r="W105">
+        <v>1.29</v>
+      </c>
+      <c r="X105">
+        <v>3.5</v>
+      </c>
+      <c r="Y105">
+        <v>2.38</v>
+      </c>
+      <c r="Z105">
+        <v>1.53</v>
+      </c>
+      <c r="AA105">
+        <v>5.5</v>
+      </c>
+      <c r="AB105">
+        <v>1.14</v>
+      </c>
+      <c r="AC105">
+        <v>1.33</v>
+      </c>
+      <c r="AD105">
+        <v>5.1</v>
+      </c>
+      <c r="AE105">
+        <v>7.8</v>
+      </c>
+      <c r="AF105">
+        <v>1.03</v>
+      </c>
+      <c r="AG105">
+        <v>11</v>
+      </c>
+      <c r="AH105">
+        <v>1.2</v>
+      </c>
+      <c r="AI105">
+        <v>4.33</v>
+      </c>
+      <c r="AJ105">
+        <v>1.58</v>
+      </c>
+      <c r="AK105">
+        <v>2.25</v>
+      </c>
+      <c r="AL105">
+        <v>1.83</v>
+      </c>
+      <c r="AM105">
+        <v>1.83</v>
+      </c>
+      <c r="AN105">
+        <v>1.06</v>
+      </c>
+      <c r="AO105">
+        <v>1.14</v>
+      </c>
+      <c r="AP105">
+        <v>2.94</v>
+      </c>
+      <c r="AQ105">
+        <v>2.71</v>
+      </c>
+      <c r="AR105">
+        <v>1.86</v>
+      </c>
+      <c r="AS105">
+        <v>2.75</v>
+      </c>
+      <c r="AT105">
+        <v>1.63</v>
+      </c>
+      <c r="AU105">
+        <v>2.29</v>
+      </c>
+      <c r="AV105">
+        <v>1.72</v>
+      </c>
+      <c r="AW105">
+        <v>4.01</v>
+      </c>
+      <c r="AX105">
+        <v>1.3</v>
+      </c>
+      <c r="AY105">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ105">
+        <v>4.4</v>
+      </c>
+      <c r="BA105">
+        <v>1.27</v>
+      </c>
+      <c r="BB105">
+        <v>1.44</v>
+      </c>
+      <c r="BC105">
+        <v>1.88</v>
+      </c>
+      <c r="BD105">
+        <v>2.23</v>
+      </c>
+      <c r="BE105">
+        <v>3</v>
+      </c>
+      <c r="BF105">
+        <v>7</v>
+      </c>
+      <c r="BG105">
+        <v>4</v>
+      </c>
+      <c r="BH105">
+        <v>17</v>
+      </c>
+      <c r="BI105">
+        <v>10</v>
+      </c>
+      <c r="BJ105">
+        <v>24</v>
+      </c>
+      <c r="BK105">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>['44', '53']</t>
+  </si>
+  <si>
+    <t>['2', '7', '57']</t>
   </si>
   <si>
     <t>['84']</t>
@@ -1005,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK109"/>
+  <dimension ref="A1:BK110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1822,7 +1825,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2013,7 +2016,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2204,7 +2207,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2395,7 +2398,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2586,7 +2589,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2867,7 +2870,7 @@
         <v>2.78</v>
       </c>
       <c r="AT10">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2968,7 +2971,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3159,7 +3162,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3350,7 +3353,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3541,7 +3544,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -3822,7 +3825,7 @@
         <v>1.11</v>
       </c>
       <c r="AT15">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU15">
         <v>0.78</v>
@@ -3923,7 +3926,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>12</v>
@@ -4305,7 +4308,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4687,7 +4690,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4878,7 +4881,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5069,7 +5072,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5156,7 +5159,7 @@
         <v>2</v>
       </c>
       <c r="AS22">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT22">
         <v>1.44</v>
@@ -5642,7 +5645,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5833,7 +5836,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6305,7 +6308,7 @@
         <v>1.22</v>
       </c>
       <c r="AT28">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU28">
         <v>2.08</v>
@@ -6406,7 +6409,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6597,7 +6600,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -7170,7 +7173,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7361,7 +7364,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7552,7 +7555,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7743,7 +7746,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8316,7 +8319,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8507,7 +8510,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8594,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT40">
         <v>0.89</v>
@@ -8698,7 +8701,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8788,7 +8791,7 @@
         <v>2.67</v>
       </c>
       <c r="AT41">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU41">
         <v>2.28</v>
@@ -8889,7 +8892,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9080,7 +9083,7 @@
         <v>79</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9653,7 +9656,7 @@
         <v>79</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9844,7 +9847,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10226,7 +10229,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10417,7 +10420,7 @@
         <v>79</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10698,7 +10701,7 @@
         <v>1.22</v>
       </c>
       <c r="AT51">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU51">
         <v>1.89</v>
@@ -10799,7 +10802,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10886,7 +10889,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT52">
         <v>1.78</v>
@@ -11372,7 +11375,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11563,7 +11566,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11754,7 +11757,7 @@
         <v>94</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12136,7 +12139,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12414,7 +12417,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT60">
         <v>0.67</v>
@@ -12518,7 +12521,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12709,7 +12712,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -12990,7 +12993,7 @@
         <v>1.89</v>
       </c>
       <c r="AT63">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU63">
         <v>1.96</v>
@@ -13560,7 +13563,7 @@
         <v>0.67</v>
       </c>
       <c r="AS66">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT66">
         <v>0.5600000000000001</v>
@@ -13855,7 +13858,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>11</v>
@@ -13945,7 +13948,7 @@
         <v>1.89</v>
       </c>
       <c r="AT68">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU68">
         <v>1.66</v>
@@ -14046,7 +14049,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>14</v>
@@ -14237,7 +14240,7 @@
         <v>79</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14428,7 +14431,7 @@
         <v>79</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14619,7 +14622,7 @@
         <v>127</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14810,7 +14813,7 @@
         <v>79</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -14897,7 +14900,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT73">
         <v>1.78</v>
@@ -15001,7 +15004,7 @@
         <v>79</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15192,7 +15195,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15765,7 +15768,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16147,7 +16150,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16425,7 +16428,7 @@
         <v>0.83</v>
       </c>
       <c r="AS81">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT81">
         <v>0.5600000000000001</v>
@@ -16529,7 +16532,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16720,7 +16723,7 @@
         <v>79</v>
       </c>
       <c r="P83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16911,7 +16914,7 @@
         <v>136</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17102,7 +17105,7 @@
         <v>137</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17293,7 +17296,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17574,7 +17577,7 @@
         <v>1.78</v>
       </c>
       <c r="AT87">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU87">
         <v>1.57</v>
@@ -17675,7 +17678,7 @@
         <v>120</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17866,7 +17869,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18248,7 +18251,7 @@
         <v>79</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18821,7 +18824,7 @@
         <v>141</v>
       </c>
       <c r="P94" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -18908,7 +18911,7 @@
         <v>1.14</v>
       </c>
       <c r="AS94">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT94">
         <v>1.56</v>
@@ -19012,7 +19015,7 @@
         <v>79</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19099,7 +19102,7 @@
         <v>1.13</v>
       </c>
       <c r="AS95">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT95">
         <v>1.33</v>
@@ -19293,7 +19296,7 @@
         <v>0.44</v>
       </c>
       <c r="AT96">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU96">
         <v>1.57</v>
@@ -19967,7 +19970,7 @@
         <v>145</v>
       </c>
       <c r="P100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20349,7 +20352,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20540,7 +20543,7 @@
         <v>79</v>
       </c>
       <c r="P103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20731,7 +20734,7 @@
         <v>147</v>
       </c>
       <c r="P104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21304,7 +21307,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21686,7 +21689,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -21828,6 +21831,197 @@
       </c>
       <c r="BK109">
         <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>3168564</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44967.5625</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s">
+        <v>67</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>153</v>
+      </c>
+      <c r="P110" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q110">
+        <v>2</v>
+      </c>
+      <c r="R110">
+        <v>4</v>
+      </c>
+      <c r="S110">
+        <v>6</v>
+      </c>
+      <c r="T110">
+        <v>3.1</v>
+      </c>
+      <c r="U110">
+        <v>2.2</v>
+      </c>
+      <c r="V110">
+        <v>3.1</v>
+      </c>
+      <c r="W110">
+        <v>1.36</v>
+      </c>
+      <c r="X110">
+        <v>3</v>
+      </c>
+      <c r="Y110">
+        <v>2.75</v>
+      </c>
+      <c r="Z110">
+        <v>1.4</v>
+      </c>
+      <c r="AA110">
+        <v>7</v>
+      </c>
+      <c r="AB110">
+        <v>1.1</v>
+      </c>
+      <c r="AC110">
+        <v>2.7</v>
+      </c>
+      <c r="AD110">
+        <v>3.25</v>
+      </c>
+      <c r="AE110">
+        <v>2.35</v>
+      </c>
+      <c r="AF110">
+        <v>1.05</v>
+      </c>
+      <c r="AG110">
+        <v>9</v>
+      </c>
+      <c r="AH110">
+        <v>1.22</v>
+      </c>
+      <c r="AI110">
+        <v>4</v>
+      </c>
+      <c r="AJ110">
+        <v>1.78</v>
+      </c>
+      <c r="AK110">
+        <v>1.76</v>
+      </c>
+      <c r="AL110">
+        <v>1.67</v>
+      </c>
+      <c r="AM110">
+        <v>2.1</v>
+      </c>
+      <c r="AN110">
+        <v>1.44</v>
+      </c>
+      <c r="AO110">
+        <v>1.22</v>
+      </c>
+      <c r="AP110">
+        <v>1.42</v>
+      </c>
+      <c r="AQ110">
+        <v>1.11</v>
+      </c>
+      <c r="AR110">
+        <v>0.67</v>
+      </c>
+      <c r="AS110">
+        <v>1.3</v>
+      </c>
+      <c r="AT110">
+        <v>0.6</v>
+      </c>
+      <c r="AU110">
+        <v>1.89</v>
+      </c>
+      <c r="AV110">
+        <v>1.59</v>
+      </c>
+      <c r="AW110">
+        <v>3.48</v>
+      </c>
+      <c r="AX110">
+        <v>1.98</v>
+      </c>
+      <c r="AY110">
+        <v>7.6</v>
+      </c>
+      <c r="AZ110">
+        <v>2.13</v>
+      </c>
+      <c r="BA110">
+        <v>1.17</v>
+      </c>
+      <c r="BB110">
+        <v>1.33</v>
+      </c>
+      <c r="BC110">
+        <v>1.54</v>
+      </c>
+      <c r="BD110">
+        <v>1.93</v>
+      </c>
+      <c r="BE110">
+        <v>2.5</v>
+      </c>
+      <c r="BF110">
+        <v>9</v>
+      </c>
+      <c r="BG110">
+        <v>4</v>
+      </c>
+      <c r="BH110">
+        <v>1</v>
+      </c>
+      <c r="BI110">
+        <v>6</v>
+      </c>
+      <c r="BJ110">
+        <v>10</v>
+      </c>
+      <c r="BK110">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,9 @@
     <t>['2', '7', '57']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['84']</t>
   </si>
   <si>
@@ -647,6 +650,12 @@
   </si>
   <si>
     <t>['51', '90+1']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['11', '87']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK110"/>
+  <dimension ref="A1:BK115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1825,7 +1834,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1915,7 +1924,7 @@
         <v>1.89</v>
       </c>
       <c r="AT5">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2016,7 +2025,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2103,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT6">
         <v>0.5600000000000001</v>
@@ -2207,7 +2216,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2398,7 +2407,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2485,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2589,7 +2598,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2676,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT9">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2971,7 +2980,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3058,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>1.56</v>
@@ -3162,7 +3171,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3249,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3353,7 +3362,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3544,7 +3553,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -3631,7 +3640,7 @@
         <v>1.5</v>
       </c>
       <c r="AS14">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT14">
         <v>1.22</v>
@@ -3926,7 +3935,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>12</v>
@@ -4016,7 +4025,7 @@
         <v>2.78</v>
       </c>
       <c r="AT16">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU16">
         <v>2.8</v>
@@ -4204,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT17">
         <v>0.89</v>
@@ -4308,7 +4317,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4398,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="AT18">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU18">
         <v>2.03</v>
@@ -4586,7 +4595,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT19">
         <v>1.44</v>
@@ -4690,7 +4699,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4780,7 +4789,7 @@
         <v>1.56</v>
       </c>
       <c r="AT20">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU20">
         <v>2.25</v>
@@ -4881,7 +4890,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4968,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT21">
         <v>0.5600000000000001</v>
@@ -5072,7 +5081,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5353,7 +5362,7 @@
         <v>2.78</v>
       </c>
       <c r="AT23">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU23">
         <v>2.8</v>
@@ -5645,7 +5654,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5836,7 +5845,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5926,7 +5935,7 @@
         <v>1.11</v>
       </c>
       <c r="AT26">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU26">
         <v>1.09</v>
@@ -6114,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>0.89</v>
@@ -6305,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT28">
         <v>0.6</v>
@@ -6409,7 +6418,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6499,7 +6508,7 @@
         <v>1.78</v>
       </c>
       <c r="AT29">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU29">
         <v>2.54</v>
@@ -6600,7 +6609,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6687,10 +6696,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT30">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU30">
         <v>1.48</v>
@@ -6878,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT31">
         <v>1.22</v>
@@ -7173,7 +7182,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7364,7 +7373,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7454,7 +7463,7 @@
         <v>1.78</v>
       </c>
       <c r="AT34">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU34">
         <v>2.05</v>
@@ -7555,7 +7564,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7642,7 +7651,7 @@
         <v>2.33</v>
       </c>
       <c r="AS35">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT35">
         <v>1.44</v>
@@ -7746,7 +7755,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8215,10 +8224,10 @@
         <v>0.33</v>
       </c>
       <c r="AS38">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT38">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU38">
         <v>1.73</v>
@@ -8319,7 +8328,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8406,10 +8415,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT39">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU39">
         <v>1.51</v>
@@ -8510,7 +8519,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8701,7 +8710,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8788,7 +8797,7 @@
         <v>0.33</v>
       </c>
       <c r="AS41">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT41">
         <v>0.6</v>
@@ -8892,7 +8901,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8982,7 +8991,7 @@
         <v>1.11</v>
       </c>
       <c r="AT42">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU42">
         <v>1.31</v>
@@ -9083,7 +9092,7 @@
         <v>79</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9170,10 +9179,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT43">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU43">
         <v>1.54</v>
@@ -9656,7 +9665,7 @@
         <v>79</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9847,7 +9856,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10229,7 +10238,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10420,7 +10429,7 @@
         <v>79</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10507,10 +10516,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT50">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU50">
         <v>1.67</v>
@@ -10698,7 +10707,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT51">
         <v>0.6</v>
@@ -10802,7 +10811,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10892,7 +10901,7 @@
         <v>1.3</v>
       </c>
       <c r="AT52">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU52">
         <v>2.24</v>
@@ -11080,10 +11089,10 @@
         <v>0.25</v>
       </c>
       <c r="AS53">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT53">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU53">
         <v>2.06</v>
@@ -11271,10 +11280,10 @@
         <v>0.33</v>
       </c>
       <c r="AS54">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT54">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU54">
         <v>1.51</v>
@@ -11375,7 +11384,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11462,10 +11471,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT55">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU55">
         <v>1.49</v>
@@ -11566,7 +11575,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11653,7 +11662,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT56">
         <v>0.5600000000000001</v>
@@ -11757,7 +11766,7 @@
         <v>94</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11844,7 +11853,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT57">
         <v>1.22</v>
@@ -12139,7 +12148,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12229,7 +12238,7 @@
         <v>1.56</v>
       </c>
       <c r="AT59">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU59">
         <v>2.22</v>
@@ -12420,7 +12429,7 @@
         <v>1.3</v>
       </c>
       <c r="AT60">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU60">
         <v>2.08</v>
@@ -12521,7 +12530,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12608,7 +12617,7 @@
         <v>0.25</v>
       </c>
       <c r="AS61">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT61">
         <v>0.5600000000000001</v>
@@ -12712,7 +12721,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -12799,10 +12808,10 @@
         <v>0.2</v>
       </c>
       <c r="AS62">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT62">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU62">
         <v>1.92</v>
@@ -13184,7 +13193,7 @@
         <v>2</v>
       </c>
       <c r="AT64">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU64">
         <v>2.22</v>
@@ -13372,10 +13381,10 @@
         <v>0.6</v>
       </c>
       <c r="AS65">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT65">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU65">
         <v>1.41</v>
@@ -13566,7 +13575,7 @@
         <v>1.3</v>
       </c>
       <c r="AT66">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU66">
         <v>1.86</v>
@@ -13754,7 +13763,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT67">
         <v>1.56</v>
@@ -13858,7 +13867,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>11</v>
@@ -13945,7 +13954,7 @@
         <v>0.67</v>
       </c>
       <c r="AS68">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT68">
         <v>0.6</v>
@@ -14049,7 +14058,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>14</v>
@@ -14139,7 +14148,7 @@
         <v>2.78</v>
       </c>
       <c r="AT69">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU69">
         <v>2.42</v>
@@ -14240,7 +14249,7 @@
         <v>79</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14327,10 +14336,10 @@
         <v>1.75</v>
       </c>
       <c r="AS70">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT70">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU70">
         <v>1.78</v>
@@ -14431,7 +14440,7 @@
         <v>79</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14622,7 +14631,7 @@
         <v>127</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14813,7 +14822,7 @@
         <v>79</v>
       </c>
       <c r="P73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -14903,7 +14912,7 @@
         <v>1.3</v>
       </c>
       <c r="AT73">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU73">
         <v>1.91</v>
@@ -15004,7 +15013,7 @@
         <v>79</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15195,7 +15204,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15282,7 +15291,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT75">
         <v>0.5600000000000001</v>
@@ -15476,7 +15485,7 @@
         <v>1.56</v>
       </c>
       <c r="AT76">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU76">
         <v>2.06</v>
@@ -15667,7 +15676,7 @@
         <v>1.78</v>
       </c>
       <c r="AT77">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU77">
         <v>1.63</v>
@@ -15768,7 +15777,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15855,7 +15864,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT78">
         <v>1.56</v>
@@ -16049,7 +16058,7 @@
         <v>1.56</v>
       </c>
       <c r="AT79">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU79">
         <v>2.03</v>
@@ -16150,7 +16159,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16237,7 +16246,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT80">
         <v>0.5600000000000001</v>
@@ -16532,7 +16541,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16622,7 +16631,7 @@
         <v>1.89</v>
       </c>
       <c r="AT82">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU82">
         <v>1.84</v>
@@ -16723,7 +16732,7 @@
         <v>79</v>
       </c>
       <c r="P83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16813,7 +16822,7 @@
         <v>1.78</v>
       </c>
       <c r="AT83">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -16914,7 +16923,7 @@
         <v>136</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17004,7 +17013,7 @@
         <v>1.11</v>
       </c>
       <c r="AT84">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU84">
         <v>1.36</v>
@@ -17105,7 +17114,7 @@
         <v>137</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17192,7 +17201,7 @@
         <v>1.29</v>
       </c>
       <c r="AS85">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT85">
         <v>1.22</v>
@@ -17296,7 +17305,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17383,10 +17392,10 @@
         <v>1.86</v>
       </c>
       <c r="AS86">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT86">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU86">
         <v>1.69</v>
@@ -17678,7 +17687,7 @@
         <v>120</v>
       </c>
       <c r="P88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17765,7 +17774,7 @@
         <v>0.67</v>
       </c>
       <c r="AS88">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT88">
         <v>0.89</v>
@@ -17869,7 +17878,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -17956,10 +17965,10 @@
         <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT89">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU89">
         <v>2.29</v>
@@ -18147,7 +18156,7 @@
         <v>0.71</v>
       </c>
       <c r="AS90">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT90">
         <v>0.5600000000000001</v>
@@ -18251,7 +18260,7 @@
         <v>79</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18341,7 +18350,7 @@
         <v>1.89</v>
       </c>
       <c r="AT91">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU91">
         <v>1.83</v>
@@ -18824,7 +18833,7 @@
         <v>141</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19015,7 +19024,7 @@
         <v>79</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19105,7 +19114,7 @@
         <v>1.3</v>
       </c>
       <c r="AT95">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU95">
         <v>1.89</v>
@@ -19293,7 +19302,7 @@
         <v>0.63</v>
       </c>
       <c r="AS96">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AT96">
         <v>0.6</v>
@@ -19487,7 +19496,7 @@
         <v>1.11</v>
       </c>
       <c r="AT97">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU97">
         <v>1.45</v>
@@ -19675,10 +19684,10 @@
         <v>2</v>
       </c>
       <c r="AS98">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT98">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU98">
         <v>2.23</v>
@@ -19866,10 +19875,10 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT99">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU99">
         <v>1.67</v>
@@ -19970,7 +19979,7 @@
         <v>145</v>
       </c>
       <c r="P100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20060,7 +20069,7 @@
         <v>2</v>
       </c>
       <c r="AT100">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU100">
         <v>2.11</v>
@@ -20352,7 +20361,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20439,7 +20448,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT102">
         <v>1.22</v>
@@ -20543,7 +20552,7 @@
         <v>79</v>
       </c>
       <c r="P103" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20734,7 +20743,7 @@
         <v>147</v>
       </c>
       <c r="P104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21203,7 +21212,7 @@
         <v>1.63</v>
       </c>
       <c r="AS106">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT106">
         <v>1.44</v>
@@ -21307,7 +21316,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21588,7 +21597,7 @@
         <v>2</v>
       </c>
       <c r="AT108">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU108">
         <v>2.06</v>
@@ -21689,7 +21698,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -21776,7 +21785,7 @@
         <v>0.88</v>
       </c>
       <c r="AS109">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT109">
         <v>0.89</v>
@@ -22022,6 +22031,961 @@
       </c>
       <c r="BK110">
         <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>3168563</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44968.45833333334</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>71</v>
+      </c>
+      <c r="H111" t="s">
+        <v>68</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>116</v>
+      </c>
+      <c r="P111" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q111">
+        <v>8</v>
+      </c>
+      <c r="R111">
+        <v>7</v>
+      </c>
+      <c r="S111">
+        <v>15</v>
+      </c>
+      <c r="T111">
+        <v>3.5</v>
+      </c>
+      <c r="U111">
+        <v>2.1</v>
+      </c>
+      <c r="V111">
+        <v>2.75</v>
+      </c>
+      <c r="W111">
+        <v>1.4</v>
+      </c>
+      <c r="X111">
+        <v>2.75</v>
+      </c>
+      <c r="Y111">
+        <v>2.75</v>
+      </c>
+      <c r="Z111">
+        <v>1.4</v>
+      </c>
+      <c r="AA111">
+        <v>8</v>
+      </c>
+      <c r="AB111">
+        <v>1.08</v>
+      </c>
+      <c r="AC111">
+        <v>3</v>
+      </c>
+      <c r="AD111">
+        <v>3.5</v>
+      </c>
+      <c r="AE111">
+        <v>2.2</v>
+      </c>
+      <c r="AF111">
+        <v>1.06</v>
+      </c>
+      <c r="AG111">
+        <v>8</v>
+      </c>
+      <c r="AH111">
+        <v>1.28</v>
+      </c>
+      <c r="AI111">
+        <v>3.5</v>
+      </c>
+      <c r="AJ111">
+        <v>1.85</v>
+      </c>
+      <c r="AK111">
+        <v>1.91</v>
+      </c>
+      <c r="AL111">
+        <v>1.73</v>
+      </c>
+      <c r="AM111">
+        <v>2</v>
+      </c>
+      <c r="AN111">
+        <v>1.52</v>
+      </c>
+      <c r="AO111">
+        <v>1.22</v>
+      </c>
+      <c r="AP111">
+        <v>1.35</v>
+      </c>
+      <c r="AQ111">
+        <v>1.22</v>
+      </c>
+      <c r="AR111">
+        <v>1.33</v>
+      </c>
+      <c r="AS111">
+        <v>1.2</v>
+      </c>
+      <c r="AT111">
+        <v>1.3</v>
+      </c>
+      <c r="AU111">
+        <v>1.75</v>
+      </c>
+      <c r="AV111">
+        <v>1.58</v>
+      </c>
+      <c r="AW111">
+        <v>3.33</v>
+      </c>
+      <c r="AX111">
+        <v>2.02</v>
+      </c>
+      <c r="AY111">
+        <v>7.6</v>
+      </c>
+      <c r="AZ111">
+        <v>2.09</v>
+      </c>
+      <c r="BA111">
+        <v>1.18</v>
+      </c>
+      <c r="BB111">
+        <v>1.34</v>
+      </c>
+      <c r="BC111">
+        <v>1.62</v>
+      </c>
+      <c r="BD111">
+        <v>1.93</v>
+      </c>
+      <c r="BE111">
+        <v>2.48</v>
+      </c>
+      <c r="BF111">
+        <v>5</v>
+      </c>
+      <c r="BG111">
+        <v>5</v>
+      </c>
+      <c r="BH111">
+        <v>5</v>
+      </c>
+      <c r="BI111">
+        <v>3</v>
+      </c>
+      <c r="BJ111">
+        <v>10</v>
+      </c>
+      <c r="BK111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>3168565</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44968.45833333334</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>72</v>
+      </c>
+      <c r="H112" t="s">
+        <v>66</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>154</v>
+      </c>
+      <c r="P112" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q112">
+        <v>7</v>
+      </c>
+      <c r="R112">
+        <v>6</v>
+      </c>
+      <c r="S112">
+        <v>13</v>
+      </c>
+      <c r="T112">
+        <v>4.5</v>
+      </c>
+      <c r="U112">
+        <v>2.2</v>
+      </c>
+      <c r="V112">
+        <v>2.38</v>
+      </c>
+      <c r="W112">
+        <v>1.4</v>
+      </c>
+      <c r="X112">
+        <v>2.75</v>
+      </c>
+      <c r="Y112">
+        <v>2.75</v>
+      </c>
+      <c r="Z112">
+        <v>1.4</v>
+      </c>
+      <c r="AA112">
+        <v>8</v>
+      </c>
+      <c r="AB112">
+        <v>1.08</v>
+      </c>
+      <c r="AC112">
+        <v>4</v>
+      </c>
+      <c r="AD112">
+        <v>3.6</v>
+      </c>
+      <c r="AE112">
+        <v>1.83</v>
+      </c>
+      <c r="AF112">
+        <v>1.05</v>
+      </c>
+      <c r="AG112">
+        <v>9</v>
+      </c>
+      <c r="AH112">
+        <v>1.3</v>
+      </c>
+      <c r="AI112">
+        <v>3.3</v>
+      </c>
+      <c r="AJ112">
+        <v>1.92</v>
+      </c>
+      <c r="AK112">
+        <v>1.84</v>
+      </c>
+      <c r="AL112">
+        <v>1.83</v>
+      </c>
+      <c r="AM112">
+        <v>1.83</v>
+      </c>
+      <c r="AN112">
+        <v>1.95</v>
+      </c>
+      <c r="AO112">
+        <v>1.26</v>
+      </c>
+      <c r="AP112">
+        <v>1.23</v>
+      </c>
+      <c r="AQ112">
+        <v>0.44</v>
+      </c>
+      <c r="AR112">
+        <v>1.78</v>
+      </c>
+      <c r="AS112">
+        <v>0.4</v>
+      </c>
+      <c r="AT112">
+        <v>1.9</v>
+      </c>
+      <c r="AU112">
+        <v>1.57</v>
+      </c>
+      <c r="AV112">
+        <v>1.8</v>
+      </c>
+      <c r="AW112">
+        <v>3.37</v>
+      </c>
+      <c r="AX112">
+        <v>3.18</v>
+      </c>
+      <c r="AY112">
+        <v>8</v>
+      </c>
+      <c r="AZ112">
+        <v>1.5</v>
+      </c>
+      <c r="BA112">
+        <v>1.3</v>
+      </c>
+      <c r="BB112">
+        <v>1.53</v>
+      </c>
+      <c r="BC112">
+        <v>1.88</v>
+      </c>
+      <c r="BD112">
+        <v>2.34</v>
+      </c>
+      <c r="BE112">
+        <v>3.3</v>
+      </c>
+      <c r="BF112">
+        <v>3</v>
+      </c>
+      <c r="BG112">
+        <v>7</v>
+      </c>
+      <c r="BH112">
+        <v>3</v>
+      </c>
+      <c r="BI112">
+        <v>6</v>
+      </c>
+      <c r="BJ112">
+        <v>6</v>
+      </c>
+      <c r="BK112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>3168566</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44968.45833333334</v>
+      </c>
+      <c r="F113">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>75</v>
+      </c>
+      <c r="H113" t="s">
+        <v>65</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>141</v>
+      </c>
+      <c r="P113" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q113">
+        <v>7</v>
+      </c>
+      <c r="R113">
+        <v>6</v>
+      </c>
+      <c r="S113">
+        <v>13</v>
+      </c>
+      <c r="T113">
+        <v>2.4</v>
+      </c>
+      <c r="U113">
+        <v>2.2</v>
+      </c>
+      <c r="V113">
+        <v>4.33</v>
+      </c>
+      <c r="W113">
+        <v>1.4</v>
+      </c>
+      <c r="X113">
+        <v>2.75</v>
+      </c>
+      <c r="Y113">
+        <v>2.75</v>
+      </c>
+      <c r="Z113">
+        <v>1.4</v>
+      </c>
+      <c r="AA113">
+        <v>8</v>
+      </c>
+      <c r="AB113">
+        <v>1.08</v>
+      </c>
+      <c r="AC113">
+        <v>1.87</v>
+      </c>
+      <c r="AD113">
+        <v>3.5</v>
+      </c>
+      <c r="AE113">
+        <v>3.9</v>
+      </c>
+      <c r="AF113">
+        <v>1.06</v>
+      </c>
+      <c r="AG113">
+        <v>8</v>
+      </c>
+      <c r="AH113">
+        <v>1.28</v>
+      </c>
+      <c r="AI113">
+        <v>3.5</v>
+      </c>
+      <c r="AJ113">
+        <v>1.91</v>
+      </c>
+      <c r="AK113">
+        <v>1.9</v>
+      </c>
+      <c r="AL113">
+        <v>1.83</v>
+      </c>
+      <c r="AM113">
+        <v>1.83</v>
+      </c>
+      <c r="AN113">
+        <v>1.24</v>
+      </c>
+      <c r="AO113">
+        <v>1.28</v>
+      </c>
+      <c r="AP113">
+        <v>1.85</v>
+      </c>
+      <c r="AQ113">
+        <v>1.22</v>
+      </c>
+      <c r="AR113">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS113">
+        <v>1.4</v>
+      </c>
+      <c r="AT113">
+        <v>0.5</v>
+      </c>
+      <c r="AU113">
+        <v>1.6</v>
+      </c>
+      <c r="AV113">
+        <v>1.17</v>
+      </c>
+      <c r="AW113">
+        <v>2.77</v>
+      </c>
+      <c r="AX113">
+        <v>1.43</v>
+      </c>
+      <c r="AY113">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ113">
+        <v>3.52</v>
+      </c>
+      <c r="BA113">
+        <v>1.26</v>
+      </c>
+      <c r="BB113">
+        <v>1.51</v>
+      </c>
+      <c r="BC113">
+        <v>1.9</v>
+      </c>
+      <c r="BD113">
+        <v>2.3</v>
+      </c>
+      <c r="BE113">
+        <v>3</v>
+      </c>
+      <c r="BF113">
+        <v>5</v>
+      </c>
+      <c r="BG113">
+        <v>3</v>
+      </c>
+      <c r="BH113">
+        <v>9</v>
+      </c>
+      <c r="BI113">
+        <v>3</v>
+      </c>
+      <c r="BJ113">
+        <v>14</v>
+      </c>
+      <c r="BK113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>3168567</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44968.45833333334</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>74</v>
+      </c>
+      <c r="H114" t="s">
+        <v>70</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114" t="s">
+        <v>143</v>
+      </c>
+      <c r="P114" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q114">
+        <v>6</v>
+      </c>
+      <c r="R114">
+        <v>3</v>
+      </c>
+      <c r="S114">
+        <v>9</v>
+      </c>
+      <c r="T114">
+        <v>2.25</v>
+      </c>
+      <c r="U114">
+        <v>2.1</v>
+      </c>
+      <c r="V114">
+        <v>5.5</v>
+      </c>
+      <c r="W114">
+        <v>1.44</v>
+      </c>
+      <c r="X114">
+        <v>2.63</v>
+      </c>
+      <c r="Y114">
+        <v>3.25</v>
+      </c>
+      <c r="Z114">
+        <v>1.33</v>
+      </c>
+      <c r="AA114">
+        <v>9</v>
+      </c>
+      <c r="AB114">
+        <v>1.07</v>
+      </c>
+      <c r="AC114">
+        <v>1.67</v>
+      </c>
+      <c r="AD114">
+        <v>3.9</v>
+      </c>
+      <c r="AE114">
+        <v>4.6</v>
+      </c>
+      <c r="AF114">
+        <v>1.07</v>
+      </c>
+      <c r="AG114">
+        <v>7.5</v>
+      </c>
+      <c r="AH114">
+        <v>1.33</v>
+      </c>
+      <c r="AI114">
+        <v>3.1</v>
+      </c>
+      <c r="AJ114">
+        <v>1.83</v>
+      </c>
+      <c r="AK114">
+        <v>2</v>
+      </c>
+      <c r="AL114">
+        <v>2.1</v>
+      </c>
+      <c r="AM114">
+        <v>1.67</v>
+      </c>
+      <c r="AN114">
+        <v>1.17</v>
+      </c>
+      <c r="AO114">
+        <v>1.26</v>
+      </c>
+      <c r="AP114">
+        <v>2.1</v>
+      </c>
+      <c r="AQ114">
+        <v>1.89</v>
+      </c>
+      <c r="AR114">
+        <v>0.67</v>
+      </c>
+      <c r="AS114">
+        <v>2</v>
+      </c>
+      <c r="AT114">
+        <v>0.6</v>
+      </c>
+      <c r="AU114">
+        <v>1.7</v>
+      </c>
+      <c r="AV114">
+        <v>1.22</v>
+      </c>
+      <c r="AW114">
+        <v>2.92</v>
+      </c>
+      <c r="AX114">
+        <v>1.36</v>
+      </c>
+      <c r="AY114">
+        <v>8.9</v>
+      </c>
+      <c r="AZ114">
+        <v>3.85</v>
+      </c>
+      <c r="BA114">
+        <v>1.19</v>
+      </c>
+      <c r="BB114">
+        <v>1.36</v>
+      </c>
+      <c r="BC114">
+        <v>1.64</v>
+      </c>
+      <c r="BD114">
+        <v>1.93</v>
+      </c>
+      <c r="BE114">
+        <v>2.45</v>
+      </c>
+      <c r="BF114">
+        <v>6</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>2</v>
+      </c>
+      <c r="BI114">
+        <v>3</v>
+      </c>
+      <c r="BJ114">
+        <v>8</v>
+      </c>
+      <c r="BK114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>3168568</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44969.5625</v>
+      </c>
+      <c r="F115">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s">
+        <v>69</v>
+      </c>
+      <c r="H115" t="s">
+        <v>73</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>92</v>
+      </c>
+      <c r="P115" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q115">
+        <v>2</v>
+      </c>
+      <c r="R115">
+        <v>10</v>
+      </c>
+      <c r="S115">
+        <v>12</v>
+      </c>
+      <c r="T115">
+        <v>3.6</v>
+      </c>
+      <c r="U115">
+        <v>2.1</v>
+      </c>
+      <c r="V115">
+        <v>2.88</v>
+      </c>
+      <c r="W115">
+        <v>1.4</v>
+      </c>
+      <c r="X115">
+        <v>2.75</v>
+      </c>
+      <c r="Y115">
+        <v>3</v>
+      </c>
+      <c r="Z115">
+        <v>1.36</v>
+      </c>
+      <c r="AA115">
+        <v>8</v>
+      </c>
+      <c r="AB115">
+        <v>1.08</v>
+      </c>
+      <c r="AC115">
+        <v>3.1</v>
+      </c>
+      <c r="AD115">
+        <v>3.38</v>
+      </c>
+      <c r="AE115">
+        <v>2.19</v>
+      </c>
+      <c r="AF115">
+        <v>1.06</v>
+      </c>
+      <c r="AG115">
+        <v>8</v>
+      </c>
+      <c r="AH115">
+        <v>1.3</v>
+      </c>
+      <c r="AI115">
+        <v>3.3</v>
+      </c>
+      <c r="AJ115">
+        <v>1.93</v>
+      </c>
+      <c r="AK115">
+        <v>1.87</v>
+      </c>
+      <c r="AL115">
+        <v>1.8</v>
+      </c>
+      <c r="AM115">
+        <v>1.91</v>
+      </c>
+      <c r="AN115">
+        <v>1.57</v>
+      </c>
+      <c r="AO115">
+        <v>1.25</v>
+      </c>
+      <c r="AP115">
+        <v>1.3</v>
+      </c>
+      <c r="AQ115">
+        <v>2.67</v>
+      </c>
+      <c r="AR115">
+        <v>1.78</v>
+      </c>
+      <c r="AS115">
+        <v>2.5</v>
+      </c>
+      <c r="AT115">
+        <v>1.7</v>
+      </c>
+      <c r="AU115">
+        <v>2.1</v>
+      </c>
+      <c r="AV115">
+        <v>2.02</v>
+      </c>
+      <c r="AW115">
+        <v>4.12</v>
+      </c>
+      <c r="AX115">
+        <v>2.33</v>
+      </c>
+      <c r="AY115">
+        <v>7.7</v>
+      </c>
+      <c r="AZ115">
+        <v>1.83</v>
+      </c>
+      <c r="BA115">
+        <v>1.19</v>
+      </c>
+      <c r="BB115">
+        <v>1.36</v>
+      </c>
+      <c r="BC115">
+        <v>1.67</v>
+      </c>
+      <c r="BD115">
+        <v>2.06</v>
+      </c>
+      <c r="BE115">
+        <v>2.64</v>
+      </c>
+      <c r="BF115">
+        <v>3</v>
+      </c>
+      <c r="BG115">
+        <v>7</v>
+      </c>
+      <c r="BH115">
+        <v>1</v>
+      </c>
+      <c r="BI115">
+        <v>16</v>
+      </c>
+      <c r="BJ115">
+        <v>4</v>
+      </c>
+      <c r="BK115">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -22973,19 +22973,19 @@
         <v>3</v>
       </c>
       <c r="BG115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI115">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BJ115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK115">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -657,6 +657,9 @@
   <si>
     <t>['11', '87']</t>
   </si>
+  <si>
+    <t>['55', '80']</t>
+  </si>
 </sst>
 </file>
 
@@ -1017,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK115"/>
+  <dimension ref="A1:BK116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1539,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT3">
         <v>0.89</v>
@@ -2306,7 +2309,7 @@
         <v>1.11</v>
       </c>
       <c r="AT7">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3449,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT13">
         <v>1.22</v>
@@ -4404,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT18">
         <v>1.3</v>
@@ -4598,7 +4601,7 @@
         <v>0.4</v>
       </c>
       <c r="AT19">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU19">
         <v>1.43</v>
@@ -5171,7 +5174,7 @@
         <v>1.3</v>
       </c>
       <c r="AT22">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5741,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT25">
         <v>0.5600000000000001</v>
@@ -7654,7 +7657,7 @@
         <v>1.2</v>
       </c>
       <c r="AT35">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU35">
         <v>1.71</v>
@@ -7842,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT36">
         <v>1.56</v>
@@ -9946,7 +9949,7 @@
         <v>1.78</v>
       </c>
       <c r="AT47">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU47">
         <v>1.68</v>
@@ -10134,7 +10137,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT48">
         <v>0.5600000000000001</v>
@@ -13190,7 +13193,7 @@
         <v>2.25</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT64">
         <v>1.7</v>
@@ -14530,7 +14533,7 @@
         <v>1.89</v>
       </c>
       <c r="AT71">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -18541,7 +18544,7 @@
         <v>1.56</v>
       </c>
       <c r="AT92">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU92">
         <v>1.93</v>
@@ -20066,7 +20069,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT100">
         <v>0.6</v>
@@ -21024,7 +21027,7 @@
         <v>2.78</v>
       </c>
       <c r="AT105">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU105">
         <v>2.29</v>
@@ -21215,7 +21218,7 @@
         <v>2.5</v>
       </c>
       <c r="AT106">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU106">
         <v>2.14</v>
@@ -21594,7 +21597,7 @@
         <v>0.63</v>
       </c>
       <c r="AS108">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT108">
         <v>0.5</v>
@@ -22986,6 +22989,197 @@
       </c>
       <c r="BK115">
         <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>3168572</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44974.5625</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>66</v>
+      </c>
+      <c r="H116" t="s">
+        <v>75</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>79</v>
+      </c>
+      <c r="P116" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q116">
+        <v>10</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>11</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
+        <v>2.1</v>
+      </c>
+      <c r="V116">
+        <v>5</v>
+      </c>
+      <c r="W116">
+        <v>1.46</v>
+      </c>
+      <c r="X116">
+        <v>2.55</v>
+      </c>
+      <c r="Y116">
+        <v>3</v>
+      </c>
+      <c r="Z116">
+        <v>1.36</v>
+      </c>
+      <c r="AA116">
+        <v>7.5</v>
+      </c>
+      <c r="AB116">
+        <v>1.07</v>
+      </c>
+      <c r="AC116">
+        <v>1.76</v>
+      </c>
+      <c r="AD116">
+        <v>3.72</v>
+      </c>
+      <c r="AE116">
+        <v>4.52</v>
+      </c>
+      <c r="AF116">
+        <v>1.08</v>
+      </c>
+      <c r="AG116">
+        <v>7</v>
+      </c>
+      <c r="AH116">
+        <v>1.38</v>
+      </c>
+      <c r="AI116">
+        <v>2.9</v>
+      </c>
+      <c r="AJ116">
+        <v>2.15</v>
+      </c>
+      <c r="AK116">
+        <v>1.61</v>
+      </c>
+      <c r="AL116">
+        <v>2.1</v>
+      </c>
+      <c r="AM116">
+        <v>1.68</v>
+      </c>
+      <c r="AN116">
+        <v>1.11</v>
+      </c>
+      <c r="AO116">
+        <v>1.2</v>
+      </c>
+      <c r="AP116">
+        <v>2.15</v>
+      </c>
+      <c r="AQ116">
+        <v>2</v>
+      </c>
+      <c r="AR116">
+        <v>1.44</v>
+      </c>
+      <c r="AS116">
+        <v>1.8</v>
+      </c>
+      <c r="AT116">
+        <v>1.6</v>
+      </c>
+      <c r="AU116">
+        <v>2.05</v>
+      </c>
+      <c r="AV116">
+        <v>1.73</v>
+      </c>
+      <c r="AW116">
+        <v>3.78</v>
+      </c>
+      <c r="AX116">
+        <v>1.44</v>
+      </c>
+      <c r="AY116">
+        <v>9.5</v>
+      </c>
+      <c r="AZ116">
+        <v>3.66</v>
+      </c>
+      <c r="BA116">
+        <v>1.3</v>
+      </c>
+      <c r="BB116">
+        <v>1.5</v>
+      </c>
+      <c r="BC116">
+        <v>1.98</v>
+      </c>
+      <c r="BD116">
+        <v>2.47</v>
+      </c>
+      <c r="BE116">
+        <v>3.1</v>
+      </c>
+      <c r="BF116">
+        <v>8</v>
+      </c>
+      <c r="BG116">
+        <v>4</v>
+      </c>
+      <c r="BH116">
+        <v>7</v>
+      </c>
+      <c r="BI116">
+        <v>2</v>
+      </c>
+      <c r="BJ116">
+        <v>15</v>
+      </c>
+      <c r="BK116">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,18 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['75', '90']</t>
+  </si>
+  <si>
+    <t>['36', '69', '79']</t>
+  </si>
+  <si>
+    <t>['39', '79', '90+3']</t>
+  </si>
+  <si>
     <t>['84']</t>
   </si>
   <si>
@@ -659,6 +671,15 @@
   </si>
   <si>
     <t>['55', '80']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['31', '90+1']</t>
+  </si>
+  <si>
+    <t>['21', '38']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK116"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT2">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1545,7 +1566,7 @@
         <v>1.8</v>
       </c>
       <c r="AT3">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1733,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1837,7 +1858,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1924,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT5">
         <v>1.7</v>
@@ -2028,7 +2049,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2118,7 +2139,7 @@
         <v>2.5</v>
       </c>
       <c r="AT6">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2219,7 +2240,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2306,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT7">
         <v>1.6</v>
@@ -2410,7 +2431,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2601,7 +2622,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2879,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT10">
         <v>0.6</v>
@@ -2983,7 +3004,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3073,7 +3094,7 @@
         <v>2</v>
       </c>
       <c r="AT11">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3174,7 +3195,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3365,7 +3386,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3455,7 +3476,7 @@
         <v>1.8</v>
       </c>
       <c r="AT13">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU13">
         <v>1.4</v>
@@ -3556,7 +3577,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -3646,7 +3667,7 @@
         <v>2</v>
       </c>
       <c r="AT14">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU14">
         <v>1.29</v>
@@ -3834,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT15">
         <v>0.6</v>
@@ -3938,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>12</v>
@@ -4025,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT16">
         <v>0.5</v>
@@ -4219,7 +4240,7 @@
         <v>2.5</v>
       </c>
       <c r="AT17">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU17">
         <v>2.1</v>
@@ -4320,7 +4341,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4702,7 +4723,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4789,7 +4810,7 @@
         <v>0.5</v>
       </c>
       <c r="AS20">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT20">
         <v>0.5</v>
@@ -4893,7 +4914,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4983,7 +5004,7 @@
         <v>1.2</v>
       </c>
       <c r="AT21">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU21">
         <v>1.65</v>
@@ -5084,7 +5105,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5362,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT23">
         <v>0.6</v>
@@ -5553,10 +5574,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT24">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU24">
         <v>1.72</v>
@@ -5657,7 +5678,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5747,7 +5768,7 @@
         <v>1.8</v>
       </c>
       <c r="AT25">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU25">
         <v>2.05</v>
@@ -5848,7 +5869,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5935,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT26">
         <v>1.3</v>
@@ -6129,7 +6150,7 @@
         <v>2</v>
       </c>
       <c r="AT27">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU27">
         <v>1.28</v>
@@ -6421,7 +6442,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6508,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT29">
         <v>1.9</v>
@@ -6612,7 +6633,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6893,7 +6914,7 @@
         <v>2.5</v>
       </c>
       <c r="AT31">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU31">
         <v>2.14</v>
@@ -7081,10 +7102,10 @@
         <v>0.75</v>
       </c>
       <c r="AS32">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT32">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU32">
         <v>2.05</v>
@@ -7185,7 +7206,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7272,10 +7293,10 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT33">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU33">
         <v>2.72</v>
@@ -7376,7 +7397,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7463,7 +7484,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT34">
         <v>0.6</v>
@@ -7567,7 +7588,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7758,7 +7779,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7848,7 +7869,7 @@
         <v>1.8</v>
       </c>
       <c r="AT36">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU36">
         <v>2.25</v>
@@ -8036,10 +8057,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT37">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU37">
         <v>2.56</v>
@@ -8331,7 +8352,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8522,7 +8543,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8612,7 +8633,7 @@
         <v>1.3</v>
       </c>
       <c r="AT40">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU40">
         <v>2.21</v>
@@ -8713,7 +8734,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8904,7 +8925,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8991,7 +9012,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT42">
         <v>1.9</v>
@@ -9095,7 +9116,7 @@
         <v>79</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9373,10 +9394,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT44">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU44">
         <v>2.04</v>
@@ -9564,10 +9585,10 @@
         <v>0.67</v>
       </c>
       <c r="AS45">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT45">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU45">
         <v>1.25</v>
@@ -9668,7 +9689,7 @@
         <v>79</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9755,10 +9776,10 @@
         <v>0.6</v>
       </c>
       <c r="AS46">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT46">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU46">
         <v>2.22</v>
@@ -9859,7 +9880,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -9946,7 +9967,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT47">
         <v>1.6</v>
@@ -10140,7 +10161,7 @@
         <v>1.8</v>
       </c>
       <c r="AT48">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU48">
         <v>2.11</v>
@@ -10241,7 +10262,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10328,10 +10349,10 @@
         <v>0.67</v>
       </c>
       <c r="AS49">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT49">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU49">
         <v>2.33</v>
@@ -10432,7 +10453,7 @@
         <v>79</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10814,7 +10835,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11387,7 +11408,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11578,7 +11599,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11668,7 +11689,7 @@
         <v>1.4</v>
       </c>
       <c r="AT56">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU56">
         <v>1.4</v>
@@ -11769,7 +11790,7 @@
         <v>94</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11859,7 +11880,7 @@
         <v>0.4</v>
       </c>
       <c r="AT57">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU57">
         <v>1.58</v>
@@ -12047,10 +12068,10 @@
         <v>0.75</v>
       </c>
       <c r="AS58">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT58">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU58">
         <v>1.23</v>
@@ -12151,7 +12172,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12238,7 +12259,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
         <v>1.9</v>
@@ -12533,7 +12554,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12623,7 +12644,7 @@
         <v>2</v>
       </c>
       <c r="AT61">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU61">
         <v>1.64</v>
@@ -12724,7 +12745,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13002,7 +13023,7 @@
         <v>0.8</v>
       </c>
       <c r="AS63">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT63">
         <v>0.6</v>
@@ -13769,7 +13790,7 @@
         <v>0.4</v>
       </c>
       <c r="AT67">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU67">
         <v>1.69</v>
@@ -13870,7 +13891,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>11</v>
@@ -14061,7 +14082,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>14</v>
@@ -14148,7 +14169,7 @@
         <v>1.8</v>
       </c>
       <c r="AS69">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT69">
         <v>1.3</v>
@@ -14252,7 +14273,7 @@
         <v>79</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14443,7 +14464,7 @@
         <v>79</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14530,7 +14551,7 @@
         <v>1.8</v>
       </c>
       <c r="AS71">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT71">
         <v>1.6</v>
@@ -14634,7 +14655,7 @@
         <v>127</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14721,10 +14742,10 @@
         <v>0.2</v>
       </c>
       <c r="AS72">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT72">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU72">
         <v>1.67</v>
@@ -14825,7 +14846,7 @@
         <v>79</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15016,7 +15037,7 @@
         <v>79</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15103,10 +15124,10 @@
         <v>0.2</v>
       </c>
       <c r="AS74">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT74">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU74">
         <v>1.28</v>
@@ -15207,7 +15228,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15297,7 +15318,7 @@
         <v>2.5</v>
       </c>
       <c r="AT75">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU75">
         <v>2.04</v>
@@ -15485,7 +15506,7 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT76">
         <v>1.7</v>
@@ -15676,7 +15697,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT77">
         <v>1.3</v>
@@ -15780,7 +15801,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15870,7 +15891,7 @@
         <v>1.2</v>
       </c>
       <c r="AT78">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU78">
         <v>1.63</v>
@@ -16058,7 +16079,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT79">
         <v>0.6</v>
@@ -16162,7 +16183,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16252,7 +16273,7 @@
         <v>1.4</v>
       </c>
       <c r="AT80">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU80">
         <v>1.49</v>
@@ -16443,7 +16464,7 @@
         <v>1.3</v>
       </c>
       <c r="AT81">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU81">
         <v>1.76</v>
@@ -16544,7 +16565,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16631,7 +16652,7 @@
         <v>2.17</v>
       </c>
       <c r="AS82">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT82">
         <v>1.9</v>
@@ -16735,7 +16756,7 @@
         <v>79</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16822,7 +16843,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT83">
         <v>1.7</v>
@@ -16926,7 +16947,7 @@
         <v>136</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17013,7 +17034,7 @@
         <v>1.86</v>
       </c>
       <c r="AS84">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT84">
         <v>1.7</v>
@@ -17117,7 +17138,7 @@
         <v>137</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17207,7 +17228,7 @@
         <v>1.4</v>
       </c>
       <c r="AT85">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU85">
         <v>1.47</v>
@@ -17308,7 +17329,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17586,7 +17607,7 @@
         <v>0.71</v>
       </c>
       <c r="AS87">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT87">
         <v>0.6</v>
@@ -17690,7 +17711,7 @@
         <v>120</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17780,7 +17801,7 @@
         <v>0.4</v>
       </c>
       <c r="AT88">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU88">
         <v>1.58</v>
@@ -17881,7 +17902,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18162,7 +18183,7 @@
         <v>1.2</v>
       </c>
       <c r="AT90">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU90">
         <v>1.65</v>
@@ -18263,7 +18284,7 @@
         <v>79</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18350,7 +18371,7 @@
         <v>0.43</v>
       </c>
       <c r="AS91">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT91">
         <v>0.6</v>
@@ -18541,7 +18562,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT92">
         <v>1.6</v>
@@ -18732,10 +18753,10 @@
         <v>0.71</v>
       </c>
       <c r="AS93">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT93">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU93">
         <v>2.43</v>
@@ -18836,7 +18857,7 @@
         <v>141</v>
       </c>
       <c r="P94" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -18926,7 +18947,7 @@
         <v>1.3</v>
       </c>
       <c r="AT94">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU94">
         <v>1.86</v>
@@ -19027,7 +19048,7 @@
         <v>79</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19496,7 +19517,7 @@
         <v>0.57</v>
       </c>
       <c r="AS97">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT97">
         <v>0.5</v>
@@ -19982,7 +20003,7 @@
         <v>145</v>
       </c>
       <c r="P100" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20260,10 +20281,10 @@
         <v>0.63</v>
       </c>
       <c r="AS101">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT101">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU101">
         <v>1.92</v>
@@ -20364,7 +20385,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20454,7 +20475,7 @@
         <v>1.2</v>
       </c>
       <c r="AT102">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU102">
         <v>1.68</v>
@@ -20555,7 +20576,7 @@
         <v>79</v>
       </c>
       <c r="P103" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20642,10 +20663,10 @@
         <v>1.38</v>
       </c>
       <c r="AS103">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT103">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU103">
         <v>1.87</v>
@@ -20746,7 +20767,7 @@
         <v>147</v>
       </c>
       <c r="P104" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -20833,10 +20854,10 @@
         <v>0.63</v>
       </c>
       <c r="AS104">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT104">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU104">
         <v>1.61</v>
@@ -21024,7 +21045,7 @@
         <v>1.86</v>
       </c>
       <c r="AS105">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT105">
         <v>1.6</v>
@@ -21319,7 +21340,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21406,10 +21427,10 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT107">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU107">
         <v>2.33</v>
@@ -21701,7 +21722,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -21791,7 +21812,7 @@
         <v>1.4</v>
       </c>
       <c r="AT109">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU109">
         <v>1.53</v>
@@ -22083,7 +22104,7 @@
         <v>116</v>
       </c>
       <c r="P111" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22274,7 +22295,7 @@
         <v>154</v>
       </c>
       <c r="P112" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -23038,7 +23059,7 @@
         <v>79</v>
       </c>
       <c r="P116" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q116">
         <v>10</v>
@@ -23180,6 +23201,961 @@
       </c>
       <c r="BK116">
         <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>3168570</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44975.45833333334</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H117" t="s">
+        <v>71</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>155</v>
+      </c>
+      <c r="P117" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q117">
+        <v>10</v>
+      </c>
+      <c r="R117">
+        <v>4</v>
+      </c>
+      <c r="S117">
+        <v>14</v>
+      </c>
+      <c r="T117">
+        <v>2.2</v>
+      </c>
+      <c r="U117">
+        <v>2.25</v>
+      </c>
+      <c r="V117">
+        <v>4.75</v>
+      </c>
+      <c r="W117">
+        <v>1.36</v>
+      </c>
+      <c r="X117">
+        <v>3</v>
+      </c>
+      <c r="Y117">
+        <v>2.63</v>
+      </c>
+      <c r="Z117">
+        <v>1.44</v>
+      </c>
+      <c r="AA117">
+        <v>7</v>
+      </c>
+      <c r="AB117">
+        <v>1.1</v>
+      </c>
+      <c r="AC117">
+        <v>1.65</v>
+      </c>
+      <c r="AD117">
+        <v>3.5</v>
+      </c>
+      <c r="AE117">
+        <v>4.2</v>
+      </c>
+      <c r="AF117">
+        <v>1.01</v>
+      </c>
+      <c r="AG117">
+        <v>9.9</v>
+      </c>
+      <c r="AH117">
+        <v>1.25</v>
+      </c>
+      <c r="AI117">
+        <v>3.75</v>
+      </c>
+      <c r="AJ117">
+        <v>1.82</v>
+      </c>
+      <c r="AK117">
+        <v>1.89</v>
+      </c>
+      <c r="AL117">
+        <v>1.83</v>
+      </c>
+      <c r="AM117">
+        <v>1.83</v>
+      </c>
+      <c r="AN117">
+        <v>1.15</v>
+      </c>
+      <c r="AO117">
+        <v>1.2</v>
+      </c>
+      <c r="AP117">
+        <v>2.1</v>
+      </c>
+      <c r="AQ117">
+        <v>1.56</v>
+      </c>
+      <c r="AR117">
+        <v>0.89</v>
+      </c>
+      <c r="AS117">
+        <v>1.5</v>
+      </c>
+      <c r="AT117">
+        <v>0.9</v>
+      </c>
+      <c r="AU117">
+        <v>1.8</v>
+      </c>
+      <c r="AV117">
+        <v>1.39</v>
+      </c>
+      <c r="AW117">
+        <v>3.19</v>
+      </c>
+      <c r="AX117">
+        <v>1.33</v>
+      </c>
+      <c r="AY117">
+        <v>9.4</v>
+      </c>
+      <c r="AZ117">
+        <v>4.05</v>
+      </c>
+      <c r="BA117">
+        <v>1.13</v>
+      </c>
+      <c r="BB117">
+        <v>1.26</v>
+      </c>
+      <c r="BC117">
+        <v>1.53</v>
+      </c>
+      <c r="BD117">
+        <v>1.88</v>
+      </c>
+      <c r="BE117">
+        <v>2.3</v>
+      </c>
+      <c r="BF117">
+        <v>5</v>
+      </c>
+      <c r="BG117">
+        <v>3</v>
+      </c>
+      <c r="BH117">
+        <v>10</v>
+      </c>
+      <c r="BI117">
+        <v>5</v>
+      </c>
+      <c r="BJ117">
+        <v>15</v>
+      </c>
+      <c r="BK117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>3168571</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44975.45833333334</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>65</v>
+      </c>
+      <c r="H118" t="s">
+        <v>69</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>79</v>
+      </c>
+      <c r="P118" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q118">
+        <v>5</v>
+      </c>
+      <c r="R118">
+        <v>5</v>
+      </c>
+      <c r="S118">
+        <v>10</v>
+      </c>
+      <c r="T118">
+        <v>4.33</v>
+      </c>
+      <c r="U118">
+        <v>2.1</v>
+      </c>
+      <c r="V118">
+        <v>2.5</v>
+      </c>
+      <c r="W118">
+        <v>1.4</v>
+      </c>
+      <c r="X118">
+        <v>2.75</v>
+      </c>
+      <c r="Y118">
+        <v>2.75</v>
+      </c>
+      <c r="Z118">
+        <v>1.4</v>
+      </c>
+      <c r="AA118">
+        <v>8</v>
+      </c>
+      <c r="AB118">
+        <v>1.08</v>
+      </c>
+      <c r="AC118">
+        <v>3.35</v>
+      </c>
+      <c r="AD118">
+        <v>3.25</v>
+      </c>
+      <c r="AE118">
+        <v>1.92</v>
+      </c>
+      <c r="AF118">
+        <v>1.02</v>
+      </c>
+      <c r="AG118">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH118">
+        <v>1.28</v>
+      </c>
+      <c r="AI118">
+        <v>3.5</v>
+      </c>
+      <c r="AJ118">
+        <v>1.95</v>
+      </c>
+      <c r="AK118">
+        <v>1.77</v>
+      </c>
+      <c r="AL118">
+        <v>1.8</v>
+      </c>
+      <c r="AM118">
+        <v>1.91</v>
+      </c>
+      <c r="AN118">
+        <v>1.87</v>
+      </c>
+      <c r="AO118">
+        <v>1.22</v>
+      </c>
+      <c r="AP118">
+        <v>1.2</v>
+      </c>
+      <c r="AQ118">
+        <v>1.78</v>
+      </c>
+      <c r="AR118">
+        <v>1.56</v>
+      </c>
+      <c r="AS118">
+        <v>1.6</v>
+      </c>
+      <c r="AT118">
+        <v>1.7</v>
+      </c>
+      <c r="AU118">
+        <v>1.62</v>
+      </c>
+      <c r="AV118">
+        <v>1.69</v>
+      </c>
+      <c r="AW118">
+        <v>3.31</v>
+      </c>
+      <c r="AX118">
+        <v>2.69</v>
+      </c>
+      <c r="AY118">
+        <v>8.1</v>
+      </c>
+      <c r="AZ118">
+        <v>1.64</v>
+      </c>
+      <c r="BA118">
+        <v>1.17</v>
+      </c>
+      <c r="BB118">
+        <v>1.32</v>
+      </c>
+      <c r="BC118">
+        <v>1.68</v>
+      </c>
+      <c r="BD118">
+        <v>2.08</v>
+      </c>
+      <c r="BE118">
+        <v>2.67</v>
+      </c>
+      <c r="BF118">
+        <v>2</v>
+      </c>
+      <c r="BG118">
+        <v>11</v>
+      </c>
+      <c r="BH118">
+        <v>6</v>
+      </c>
+      <c r="BI118">
+        <v>4</v>
+      </c>
+      <c r="BJ118">
+        <v>8</v>
+      </c>
+      <c r="BK118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>3168573</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44975.45833333334</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>73</v>
+      </c>
+      <c r="H119" t="s">
+        <v>76</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>2</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119" t="s">
+        <v>156</v>
+      </c>
+      <c r="P119" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q119">
+        <v>11</v>
+      </c>
+      <c r="R119">
+        <v>3</v>
+      </c>
+      <c r="S119">
+        <v>14</v>
+      </c>
+      <c r="T119">
+        <v>1.67</v>
+      </c>
+      <c r="U119">
+        <v>2.75</v>
+      </c>
+      <c r="V119">
+        <v>7.5</v>
+      </c>
+      <c r="W119">
+        <v>1.25</v>
+      </c>
+      <c r="X119">
+        <v>3.75</v>
+      </c>
+      <c r="Y119">
+        <v>2.1</v>
+      </c>
+      <c r="Z119">
+        <v>1.67</v>
+      </c>
+      <c r="AA119">
+        <v>4.5</v>
+      </c>
+      <c r="AB119">
+        <v>1.18</v>
+      </c>
+      <c r="AC119">
+        <v>1.2</v>
+      </c>
+      <c r="AD119">
+        <v>5.5</v>
+      </c>
+      <c r="AE119">
+        <v>8.5</v>
+      </c>
+      <c r="AF119">
+        <v>1.02</v>
+      </c>
+      <c r="AG119">
+        <v>17</v>
+      </c>
+      <c r="AH119">
+        <v>1.11</v>
+      </c>
+      <c r="AI119">
+        <v>5.2</v>
+      </c>
+      <c r="AJ119">
+        <v>1.42</v>
+      </c>
+      <c r="AK119">
+        <v>2.65</v>
+      </c>
+      <c r="AL119">
+        <v>1.91</v>
+      </c>
+      <c r="AM119">
+        <v>1.8</v>
+      </c>
+      <c r="AN119">
+        <v>1.01</v>
+      </c>
+      <c r="AO119">
+        <v>1.08</v>
+      </c>
+      <c r="AP119">
+        <v>3.4</v>
+      </c>
+      <c r="AQ119">
+        <v>2.78</v>
+      </c>
+      <c r="AR119">
+        <v>1.22</v>
+      </c>
+      <c r="AS119">
+        <v>2.6</v>
+      </c>
+      <c r="AT119">
+        <v>1.2</v>
+      </c>
+      <c r="AU119">
+        <v>2.39</v>
+      </c>
+      <c r="AV119">
+        <v>1.49</v>
+      </c>
+      <c r="AW119">
+        <v>3.88</v>
+      </c>
+      <c r="AX119">
+        <v>1.11</v>
+      </c>
+      <c r="AY119">
+        <v>12.5</v>
+      </c>
+      <c r="AZ119">
+        <v>8</v>
+      </c>
+      <c r="BA119">
+        <v>1.17</v>
+      </c>
+      <c r="BB119">
+        <v>1.3</v>
+      </c>
+      <c r="BC119">
+        <v>1.54</v>
+      </c>
+      <c r="BD119">
+        <v>1.89</v>
+      </c>
+      <c r="BE119">
+        <v>2.34</v>
+      </c>
+      <c r="BF119">
+        <v>11</v>
+      </c>
+      <c r="BG119">
+        <v>5</v>
+      </c>
+      <c r="BH119">
+        <v>6</v>
+      </c>
+      <c r="BI119">
+        <v>2</v>
+      </c>
+      <c r="BJ119">
+        <v>17</v>
+      </c>
+      <c r="BK119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>3168569</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>70</v>
+      </c>
+      <c r="H120" t="s">
+        <v>72</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>157</v>
+      </c>
+      <c r="P120" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q120">
+        <v>8</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+      <c r="S120">
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <v>2.6</v>
+      </c>
+      <c r="U120">
+        <v>2.1</v>
+      </c>
+      <c r="V120">
+        <v>4</v>
+      </c>
+      <c r="W120">
+        <v>1.4</v>
+      </c>
+      <c r="X120">
+        <v>2.75</v>
+      </c>
+      <c r="Y120">
+        <v>2.75</v>
+      </c>
+      <c r="Z120">
+        <v>1.4</v>
+      </c>
+      <c r="AA120">
+        <v>8</v>
+      </c>
+      <c r="AB120">
+        <v>1.08</v>
+      </c>
+      <c r="AC120">
+        <v>2.08</v>
+      </c>
+      <c r="AD120">
+        <v>3.24</v>
+      </c>
+      <c r="AE120">
+        <v>3.72</v>
+      </c>
+      <c r="AF120">
+        <v>1.04</v>
+      </c>
+      <c r="AG120">
+        <v>7.4</v>
+      </c>
+      <c r="AH120">
+        <v>1.3</v>
+      </c>
+      <c r="AI120">
+        <v>3.3</v>
+      </c>
+      <c r="AJ120">
+        <v>1.87</v>
+      </c>
+      <c r="AK120">
+        <v>1.75</v>
+      </c>
+      <c r="AL120">
+        <v>1.8</v>
+      </c>
+      <c r="AM120">
+        <v>1.91</v>
+      </c>
+      <c r="AN120">
+        <v>1.28</v>
+      </c>
+      <c r="AO120">
+        <v>1.25</v>
+      </c>
+      <c r="AP120">
+        <v>1.6</v>
+      </c>
+      <c r="AQ120">
+        <v>1.11</v>
+      </c>
+      <c r="AR120">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS120">
+        <v>1.3</v>
+      </c>
+      <c r="AT120">
+        <v>0.5</v>
+      </c>
+      <c r="AU120">
+        <v>1.44</v>
+      </c>
+      <c r="AV120">
+        <v>1.47</v>
+      </c>
+      <c r="AW120">
+        <v>2.91</v>
+      </c>
+      <c r="AX120">
+        <v>1.62</v>
+      </c>
+      <c r="AY120">
+        <v>8.1</v>
+      </c>
+      <c r="AZ120">
+        <v>2.76</v>
+      </c>
+      <c r="BA120">
+        <v>1.23</v>
+      </c>
+      <c r="BB120">
+        <v>1.39</v>
+      </c>
+      <c r="BC120">
+        <v>1.74</v>
+      </c>
+      <c r="BD120">
+        <v>2</v>
+      </c>
+      <c r="BE120">
+        <v>2.75</v>
+      </c>
+      <c r="BF120">
+        <v>10</v>
+      </c>
+      <c r="BG120">
+        <v>2</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>0</v>
+      </c>
+      <c r="BJ120">
+        <v>10</v>
+      </c>
+      <c r="BK120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>3168574</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44976.5625</v>
+      </c>
+      <c r="F121">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" t="s">
+        <v>74</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>158</v>
+      </c>
+      <c r="P121" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q121">
+        <v>8</v>
+      </c>
+      <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
+        <v>10</v>
+      </c>
+      <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>2.2</v>
+      </c>
+      <c r="V121">
+        <v>3.4</v>
+      </c>
+      <c r="W121">
+        <v>1.33</v>
+      </c>
+      <c r="X121">
+        <v>3.25</v>
+      </c>
+      <c r="Y121">
+        <v>2.63</v>
+      </c>
+      <c r="Z121">
+        <v>1.44</v>
+      </c>
+      <c r="AA121">
+        <v>6.5</v>
+      </c>
+      <c r="AB121">
+        <v>1.11</v>
+      </c>
+      <c r="AC121">
+        <v>2.06</v>
+      </c>
+      <c r="AD121">
+        <v>3.4</v>
+      </c>
+      <c r="AE121">
+        <v>2.94</v>
+      </c>
+      <c r="AF121">
+        <v>1</v>
+      </c>
+      <c r="AG121">
+        <v>10.5</v>
+      </c>
+      <c r="AH121">
+        <v>1.25</v>
+      </c>
+      <c r="AI121">
+        <v>3.75</v>
+      </c>
+      <c r="AJ121">
+        <v>1.73</v>
+      </c>
+      <c r="AK121">
+        <v>2</v>
+      </c>
+      <c r="AL121">
+        <v>1.62</v>
+      </c>
+      <c r="AM121">
+        <v>2.2</v>
+      </c>
+      <c r="AN121">
+        <v>1.3</v>
+      </c>
+      <c r="AO121">
+        <v>1.22</v>
+      </c>
+      <c r="AP121">
+        <v>1.57</v>
+      </c>
+      <c r="AQ121">
+        <v>1.89</v>
+      </c>
+      <c r="AR121">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS121">
+        <v>2</v>
+      </c>
+      <c r="AT121">
+        <v>0.5</v>
+      </c>
+      <c r="AU121">
+        <v>1.9</v>
+      </c>
+      <c r="AV121">
+        <v>1.72</v>
+      </c>
+      <c r="AW121">
+        <v>3.62</v>
+      </c>
+      <c r="AX121">
+        <v>1.61</v>
+      </c>
+      <c r="AY121">
+        <v>8.4</v>
+      </c>
+      <c r="AZ121">
+        <v>2.74</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>1.56</v>
+      </c>
+      <c r="BD121">
+        <v>1.93</v>
+      </c>
+      <c r="BE121">
+        <v>2.36</v>
+      </c>
+      <c r="BF121">
+        <v>7</v>
+      </c>
+      <c r="BG121">
+        <v>3</v>
+      </c>
+      <c r="BH121">
+        <v>1</v>
+      </c>
+      <c r="BI121">
+        <v>2</v>
+      </c>
+      <c r="BJ121">
+        <v>8</v>
+      </c>
+      <c r="BK121">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,9 @@
     <t>['39', '79', '90+3']</t>
   </si>
   <si>
+    <t>['25', '80']</t>
+  </si>
+  <si>
     <t>['84']</t>
   </si>
   <si>
@@ -680,6 +683,9 @@
   </si>
   <si>
     <t>['21', '38']</t>
+  </si>
+  <si>
+    <t>['16', '32']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1858,7 +1864,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1945,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT5">
         <v>1.7</v>
@@ -2049,7 +2055,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2240,7 +2246,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2431,7 +2437,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2622,7 +2628,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2712,7 +2718,7 @@
         <v>0.4</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3004,7 +3010,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3195,7 +3201,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3386,7 +3392,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3577,7 +3583,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -3959,7 +3965,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>12</v>
@@ -4049,7 +4055,7 @@
         <v>2.6</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU16">
         <v>2.8</v>
@@ -4341,7 +4347,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4723,7 +4729,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4813,7 +4819,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU20">
         <v>2.25</v>
@@ -4914,7 +4920,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5105,7 +5111,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5574,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT24">
         <v>1.7</v>
@@ -5678,7 +5684,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5869,7 +5875,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6442,7 +6448,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6633,7 +6639,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -7102,7 +7108,7 @@
         <v>0.75</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT32">
         <v>1.2</v>
@@ -7206,7 +7212,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7397,7 +7403,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7588,7 +7594,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7779,7 +7785,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8251,7 +8257,7 @@
         <v>2</v>
       </c>
       <c r="AT38">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU38">
         <v>1.73</v>
@@ -8352,7 +8358,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8543,7 +8549,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8734,7 +8740,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8925,7 +8931,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9116,7 +9122,7 @@
         <v>79</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9394,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT44">
         <v>0.9</v>
@@ -9689,7 +9695,7 @@
         <v>79</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9880,7 +9886,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10262,7 +10268,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10453,7 +10459,7 @@
         <v>79</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10835,7 +10841,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11116,7 +11122,7 @@
         <v>2.5</v>
       </c>
       <c r="AT53">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU53">
         <v>2.06</v>
@@ -11408,7 +11414,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11599,7 +11605,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11790,7 +11796,7 @@
         <v>94</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12172,7 +12178,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12554,7 +12560,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12745,7 +12751,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -12835,7 +12841,7 @@
         <v>1.2</v>
       </c>
       <c r="AT62">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU62">
         <v>1.92</v>
@@ -13023,7 +13029,7 @@
         <v>0.8</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT63">
         <v>0.6</v>
@@ -13599,7 +13605,7 @@
         <v>1.3</v>
       </c>
       <c r="AT66">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU66">
         <v>1.86</v>
@@ -13891,7 +13897,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>11</v>
@@ -14082,7 +14088,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>14</v>
@@ -14273,7 +14279,7 @@
         <v>79</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14464,7 +14470,7 @@
         <v>79</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14551,7 +14557,7 @@
         <v>1.8</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT71">
         <v>1.6</v>
@@ -14655,7 +14661,7 @@
         <v>127</v>
       </c>
       <c r="P72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14846,7 +14852,7 @@
         <v>79</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15037,7 +15043,7 @@
         <v>79</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15228,7 +15234,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15801,7 +15807,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16183,7 +16189,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16565,7 +16571,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16652,7 +16658,7 @@
         <v>2.17</v>
       </c>
       <c r="AS82">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT82">
         <v>1.9</v>
@@ -16756,7 +16762,7 @@
         <v>79</v>
       </c>
       <c r="P83" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16947,7 +16953,7 @@
         <v>136</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17138,7 +17144,7 @@
         <v>137</v>
       </c>
       <c r="P85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17329,7 +17335,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17711,7 +17717,7 @@
         <v>120</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17902,7 +17908,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18284,7 +18290,7 @@
         <v>79</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18371,7 +18377,7 @@
         <v>0.43</v>
       </c>
       <c r="AS91">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT91">
         <v>0.6</v>
@@ -18857,7 +18863,7 @@
         <v>141</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19048,7 +19054,7 @@
         <v>79</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19520,7 +19526,7 @@
         <v>1.3</v>
       </c>
       <c r="AT97">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU97">
         <v>1.45</v>
@@ -20003,7 +20009,7 @@
         <v>145</v>
       </c>
       <c r="P100" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20281,7 +20287,7 @@
         <v>0.63</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT101">
         <v>0.5</v>
@@ -20385,7 +20391,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20576,7 +20582,7 @@
         <v>79</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20767,7 +20773,7 @@
         <v>147</v>
       </c>
       <c r="P104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21340,7 +21346,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21621,7 +21627,7 @@
         <v>1.8</v>
       </c>
       <c r="AT108">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU108">
         <v>2.06</v>
@@ -21722,7 +21728,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22104,7 +22110,7 @@
         <v>116</v>
       </c>
       <c r="P111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22295,7 +22301,7 @@
         <v>154</v>
       </c>
       <c r="P112" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22576,7 +22582,7 @@
         <v>1.4</v>
       </c>
       <c r="AT113">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU113">
         <v>1.6</v>
@@ -23059,7 +23065,7 @@
         <v>79</v>
       </c>
       <c r="P116" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q116">
         <v>10</v>
@@ -23250,7 +23256,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q117">
         <v>10</v>
@@ -23441,7 +23447,7 @@
         <v>79</v>
       </c>
       <c r="P118" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23632,7 +23638,7 @@
         <v>156</v>
       </c>
       <c r="P119" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q119">
         <v>11</v>
@@ -24014,7 +24020,7 @@
         <v>158</v>
       </c>
       <c r="P121" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24101,7 +24107,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT121">
         <v>0.5</v>
@@ -24156,6 +24162,197 @@
       </c>
       <c r="BK121">
         <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>3168575</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44981.5625</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>68</v>
+      </c>
+      <c r="H122" t="s">
+        <v>65</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>159</v>
+      </c>
+      <c r="P122" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q122">
+        <v>8</v>
+      </c>
+      <c r="R122">
+        <v>5</v>
+      </c>
+      <c r="S122">
+        <v>13</v>
+      </c>
+      <c r="T122">
+        <v>2.35</v>
+      </c>
+      <c r="U122">
+        <v>2.1</v>
+      </c>
+      <c r="V122">
+        <v>4.5</v>
+      </c>
+      <c r="W122">
+        <v>1.4</v>
+      </c>
+      <c r="X122">
+        <v>2.75</v>
+      </c>
+      <c r="Y122">
+        <v>2.8</v>
+      </c>
+      <c r="Z122">
+        <v>1.39</v>
+      </c>
+      <c r="AA122">
+        <v>7</v>
+      </c>
+      <c r="AB122">
+        <v>1.08</v>
+      </c>
+      <c r="AC122">
+        <v>1.75</v>
+      </c>
+      <c r="AD122">
+        <v>3.45</v>
+      </c>
+      <c r="AE122">
+        <v>3.85</v>
+      </c>
+      <c r="AF122">
+        <v>1.06</v>
+      </c>
+      <c r="AG122">
+        <v>8</v>
+      </c>
+      <c r="AH122">
+        <v>1.3</v>
+      </c>
+      <c r="AI122">
+        <v>3.3</v>
+      </c>
+      <c r="AJ122">
+        <v>1.94</v>
+      </c>
+      <c r="AK122">
+        <v>1.82</v>
+      </c>
+      <c r="AL122">
+        <v>1.87</v>
+      </c>
+      <c r="AM122">
+        <v>1.87</v>
+      </c>
+      <c r="AN122">
+        <v>1.16</v>
+      </c>
+      <c r="AO122">
+        <v>1.22</v>
+      </c>
+      <c r="AP122">
+        <v>2</v>
+      </c>
+      <c r="AQ122">
+        <v>2</v>
+      </c>
+      <c r="AR122">
+        <v>0.5</v>
+      </c>
+      <c r="AS122">
+        <v>1.91</v>
+      </c>
+      <c r="AT122">
+        <v>0.55</v>
+      </c>
+      <c r="AU122">
+        <v>1.86</v>
+      </c>
+      <c r="AV122">
+        <v>1.15</v>
+      </c>
+      <c r="AW122">
+        <v>3.01</v>
+      </c>
+      <c r="AX122">
+        <v>1.41</v>
+      </c>
+      <c r="AY122">
+        <v>10</v>
+      </c>
+      <c r="AZ122">
+        <v>3.76</v>
+      </c>
+      <c r="BA122">
+        <v>1.15</v>
+      </c>
+      <c r="BB122">
+        <v>1.3</v>
+      </c>
+      <c r="BC122">
+        <v>1.53</v>
+      </c>
+      <c r="BD122">
+        <v>2</v>
+      </c>
+      <c r="BE122">
+        <v>2.5</v>
+      </c>
+      <c r="BF122">
+        <v>8</v>
+      </c>
+      <c r="BG122">
+        <v>5</v>
+      </c>
+      <c r="BH122">
+        <v>8</v>
+      </c>
+      <c r="BI122">
+        <v>1</v>
+      </c>
+      <c r="BJ122">
+        <v>16</v>
+      </c>
+      <c r="BK122">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,18 @@
     <t>['25', '80']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['20', '51']</t>
+  </si>
+  <si>
+    <t>['66', '84']</t>
+  </si>
+  <si>
+    <t>['3', '6', '40']</t>
+  </si>
+  <si>
     <t>['84']</t>
   </si>
   <si>
@@ -551,9 +563,6 @@
   </si>
   <si>
     <t>['7', '68']</t>
-  </si>
-  <si>
-    <t>['53']</t>
   </si>
   <si>
     <t>['7', '23', '61', '73', '90']</t>
@@ -686,6 +695,15 @@
   </si>
   <si>
     <t>['16', '32']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['60', '63']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK122"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1569,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT3">
         <v>0.9</v>
@@ -1864,7 +1882,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1954,7 +1972,7 @@
         <v>1.91</v>
       </c>
       <c r="AT5">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2055,7 +2073,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2142,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2246,7 +2264,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2437,7 +2455,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2524,10 +2542,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT8">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2628,7 +2646,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2909,7 +2927,7 @@
         <v>2.6</v>
       </c>
       <c r="AT10">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3010,7 +3028,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3201,7 +3219,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3392,7 +3410,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3479,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT13">
         <v>1.2</v>
@@ -3583,7 +3601,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -3864,7 +3882,7 @@
         <v>1.3</v>
       </c>
       <c r="AT15">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU15">
         <v>0.78</v>
@@ -3965,7 +3983,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q16">
         <v>12</v>
@@ -4243,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT17">
         <v>0.9</v>
@@ -4347,7 +4365,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4434,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT18">
         <v>1.3</v>
@@ -4729,7 +4747,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4920,7 +4938,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5007,10 +5025,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU21">
         <v>1.65</v>
@@ -5111,7 +5129,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5198,7 +5216,7 @@
         <v>2</v>
       </c>
       <c r="AS22">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT22">
         <v>1.6</v>
@@ -5392,7 +5410,7 @@
         <v>2.6</v>
       </c>
       <c r="AT23">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU23">
         <v>2.8</v>
@@ -5684,7 +5702,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5771,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT25">
         <v>0.5</v>
@@ -5875,7 +5893,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6347,7 +6365,7 @@
         <v>1.4</v>
       </c>
       <c r="AT28">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU28">
         <v>2.08</v>
@@ -6448,7 +6466,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6639,7 +6657,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6729,7 +6747,7 @@
         <v>0.4</v>
       </c>
       <c r="AT30">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU30">
         <v>1.48</v>
@@ -6917,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT31">
         <v>1.2</v>
@@ -7212,7 +7230,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7302,7 +7320,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU33">
         <v>2.72</v>
@@ -7403,7 +7421,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7493,7 +7511,7 @@
         <v>1.6</v>
       </c>
       <c r="AT34">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU34">
         <v>2.05</v>
@@ -7594,7 +7612,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7681,7 +7699,7 @@
         <v>2.33</v>
       </c>
       <c r="AS35">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT35">
         <v>1.6</v>
@@ -7785,7 +7803,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7872,7 +7890,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT36">
         <v>1.7</v>
@@ -8358,7 +8376,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8549,7 +8567,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8636,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT40">
         <v>0.9</v>
@@ -8740,7 +8758,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8827,10 +8845,10 @@
         <v>0.33</v>
       </c>
       <c r="AS41">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT41">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU41">
         <v>2.28</v>
@@ -8931,7 +8949,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9122,7 +9140,7 @@
         <v>79</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9212,7 +9230,7 @@
         <v>1.4</v>
       </c>
       <c r="AT43">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU43">
         <v>1.54</v>
@@ -9695,7 +9713,7 @@
         <v>79</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9886,7 +9904,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10164,10 +10182,10 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT48">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU48">
         <v>2.11</v>
@@ -10268,7 +10286,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10459,7 +10477,7 @@
         <v>79</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10737,10 +10755,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT51">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU51">
         <v>1.89</v>
@@ -10841,7 +10859,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10928,10 +10946,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT52">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU52">
         <v>2.24</v>
@@ -11119,7 +11137,7 @@
         <v>0.25</v>
       </c>
       <c r="AS53">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT53">
         <v>0.55</v>
@@ -11313,7 +11331,7 @@
         <v>0.4</v>
       </c>
       <c r="AT54">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU54">
         <v>1.51</v>
@@ -11414,7 +11432,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11605,7 +11623,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11796,7 +11814,7 @@
         <v>94</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12178,7 +12196,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12456,10 +12474,10 @@
         <v>0.5</v>
       </c>
       <c r="AS60">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT60">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU60">
         <v>2.08</v>
@@ -12560,7 +12578,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12650,7 +12668,7 @@
         <v>2</v>
       </c>
       <c r="AT61">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU61">
         <v>1.64</v>
@@ -12751,7 +12769,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -12838,7 +12856,7 @@
         <v>0.2</v>
       </c>
       <c r="AS62">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT62">
         <v>0.55</v>
@@ -13032,7 +13050,7 @@
         <v>1.91</v>
       </c>
       <c r="AT63">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU63">
         <v>1.96</v>
@@ -13220,10 +13238,10 @@
         <v>2.25</v>
       </c>
       <c r="AS64">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT64">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU64">
         <v>2.22</v>
@@ -13414,7 +13432,7 @@
         <v>1.4</v>
       </c>
       <c r="AT65">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU65">
         <v>1.41</v>
@@ -13602,7 +13620,7 @@
         <v>0.67</v>
       </c>
       <c r="AS66">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT66">
         <v>0.55</v>
@@ -13897,7 +13915,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>11</v>
@@ -13987,7 +14005,7 @@
         <v>2</v>
       </c>
       <c r="AT68">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU68">
         <v>1.66</v>
@@ -14088,7 +14106,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>14</v>
@@ -14279,7 +14297,7 @@
         <v>79</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14366,7 +14384,7 @@
         <v>1.75</v>
       </c>
       <c r="AS70">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT70">
         <v>1.9</v>
@@ -14470,7 +14488,7 @@
         <v>79</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14661,7 +14679,7 @@
         <v>127</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14751,7 +14769,7 @@
         <v>1.6</v>
       </c>
       <c r="AT72">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU72">
         <v>1.67</v>
@@ -14852,7 +14870,7 @@
         <v>79</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -14939,7 +14957,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT73">
         <v>1.9</v>
@@ -15043,7 +15061,7 @@
         <v>79</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15234,7 +15252,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15321,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT75">
         <v>0.5</v>
@@ -15515,7 +15533,7 @@
         <v>1.5</v>
       </c>
       <c r="AT76">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU76">
         <v>2.06</v>
@@ -15807,7 +15825,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15894,7 +15912,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT78">
         <v>1.7</v>
@@ -16088,7 +16106,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU79">
         <v>2.03</v>
@@ -16189,7 +16207,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16279,7 +16297,7 @@
         <v>1.4</v>
       </c>
       <c r="AT80">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU80">
         <v>1.49</v>
@@ -16467,7 +16485,7 @@
         <v>0.83</v>
       </c>
       <c r="AS81">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT81">
         <v>0.5</v>
@@ -16571,7 +16589,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16762,7 +16780,7 @@
         <v>79</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16852,7 +16870,7 @@
         <v>1.6</v>
       </c>
       <c r="AT83">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -16953,7 +16971,7 @@
         <v>136</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17043,7 +17061,7 @@
         <v>1.3</v>
       </c>
       <c r="AT84">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU84">
         <v>1.36</v>
@@ -17144,7 +17162,7 @@
         <v>137</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17335,7 +17353,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17616,7 +17634,7 @@
         <v>1.6</v>
       </c>
       <c r="AT87">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU87">
         <v>1.57</v>
@@ -17717,7 +17735,7 @@
         <v>120</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17908,7 +17926,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -17995,7 +18013,7 @@
         <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT89">
         <v>1.3</v>
@@ -18186,7 +18204,7 @@
         <v>0.71</v>
       </c>
       <c r="AS90">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT90">
         <v>0.5</v>
@@ -18290,7 +18308,7 @@
         <v>79</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18380,7 +18398,7 @@
         <v>1.91</v>
       </c>
       <c r="AT91">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU91">
         <v>1.83</v>
@@ -18762,7 +18780,7 @@
         <v>2.6</v>
       </c>
       <c r="AT93">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU93">
         <v>2.43</v>
@@ -18863,7 +18881,7 @@
         <v>141</v>
       </c>
       <c r="P94" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -18950,7 +18968,7 @@
         <v>1.14</v>
       </c>
       <c r="AS94">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT94">
         <v>1.7</v>
@@ -19054,7 +19072,7 @@
         <v>79</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19141,7 +19159,7 @@
         <v>1.13</v>
       </c>
       <c r="AS95">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT95">
         <v>1.3</v>
@@ -19335,7 +19353,7 @@
         <v>0.4</v>
       </c>
       <c r="AT96">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU96">
         <v>1.57</v>
@@ -19714,7 +19732,7 @@
         <v>2</v>
       </c>
       <c r="AS98">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT98">
         <v>1.9</v>
@@ -19908,7 +19926,7 @@
         <v>2</v>
       </c>
       <c r="AT99">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU99">
         <v>1.67</v>
@@ -20009,7 +20027,7 @@
         <v>145</v>
       </c>
       <c r="P100" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20096,10 +20114,10 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT100">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU100">
         <v>2.11</v>
@@ -20290,7 +20308,7 @@
         <v>1.91</v>
       </c>
       <c r="AT101">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU101">
         <v>1.92</v>
@@ -20391,7 +20409,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20478,7 +20496,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT102">
         <v>1.2</v>
@@ -20582,7 +20600,7 @@
         <v>79</v>
       </c>
       <c r="P103" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20773,7 +20791,7 @@
         <v>147</v>
       </c>
       <c r="P104" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21242,7 +21260,7 @@
         <v>1.63</v>
       </c>
       <c r="AS106">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT106">
         <v>1.6</v>
@@ -21346,7 +21364,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21624,7 +21642,7 @@
         <v>0.63</v>
       </c>
       <c r="AS108">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT108">
         <v>0.55</v>
@@ -21728,7 +21746,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22006,10 +22024,10 @@
         <v>0.67</v>
       </c>
       <c r="AS110">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT110">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU110">
         <v>1.89</v>
@@ -22110,7 +22128,7 @@
         <v>116</v>
       </c>
       <c r="P111" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22197,7 +22215,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT111">
         <v>1.3</v>
@@ -22301,7 +22319,7 @@
         <v>154</v>
       </c>
       <c r="P112" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22773,7 +22791,7 @@
         <v>2</v>
       </c>
       <c r="AT114">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU114">
         <v>1.7</v>
@@ -22961,10 +22979,10 @@
         <v>1.78</v>
       </c>
       <c r="AS115">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT115">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU115">
         <v>2.1</v>
@@ -23065,7 +23083,7 @@
         <v>79</v>
       </c>
       <c r="P116" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q116">
         <v>10</v>
@@ -23152,7 +23170,7 @@
         <v>1.44</v>
       </c>
       <c r="AS116">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT116">
         <v>1.6</v>
@@ -23256,7 +23274,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q117">
         <v>10</v>
@@ -23447,7 +23465,7 @@
         <v>79</v>
       </c>
       <c r="P118" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23638,7 +23656,7 @@
         <v>156</v>
       </c>
       <c r="P119" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q119">
         <v>11</v>
@@ -23919,7 +23937,7 @@
         <v>1.3</v>
       </c>
       <c r="AT120">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU120">
         <v>1.44</v>
@@ -24020,7 +24038,7 @@
         <v>158</v>
       </c>
       <c r="P121" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24211,7 +24229,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24353,6 +24371,770 @@
       </c>
       <c r="BK122">
         <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>3168576</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44982.45833333334</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" t="s">
+        <v>73</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>160</v>
+      </c>
+      <c r="P123" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q123">
+        <v>4</v>
+      </c>
+      <c r="R123">
+        <v>3</v>
+      </c>
+      <c r="S123">
+        <v>7</v>
+      </c>
+      <c r="T123">
+        <v>5.25</v>
+      </c>
+      <c r="U123">
+        <v>2.38</v>
+      </c>
+      <c r="V123">
+        <v>2.05</v>
+      </c>
+      <c r="W123">
+        <v>1.33</v>
+      </c>
+      <c r="X123">
+        <v>3</v>
+      </c>
+      <c r="Y123">
+        <v>2.4</v>
+      </c>
+      <c r="Z123">
+        <v>1.5</v>
+      </c>
+      <c r="AA123">
+        <v>5.5</v>
+      </c>
+      <c r="AB123">
+        <v>1.11</v>
+      </c>
+      <c r="AC123">
+        <v>6.5</v>
+      </c>
+      <c r="AD123">
+        <v>4.2</v>
+      </c>
+      <c r="AE123">
+        <v>1.4</v>
+      </c>
+      <c r="AF123">
+        <v>1.04</v>
+      </c>
+      <c r="AG123">
+        <v>10</v>
+      </c>
+      <c r="AH123">
+        <v>1.22</v>
+      </c>
+      <c r="AI123">
+        <v>3.8</v>
+      </c>
+      <c r="AJ123">
+        <v>1.78</v>
+      </c>
+      <c r="AK123">
+        <v>1.95</v>
+      </c>
+      <c r="AL123">
+        <v>1.75</v>
+      </c>
+      <c r="AM123">
+        <v>1.95</v>
+      </c>
+      <c r="AN123">
+        <v>2.5</v>
+      </c>
+      <c r="AO123">
+        <v>1.2</v>
+      </c>
+      <c r="AP123">
+        <v>1.15</v>
+      </c>
+      <c r="AQ123">
+        <v>1.2</v>
+      </c>
+      <c r="AR123">
+        <v>1.7</v>
+      </c>
+      <c r="AS123">
+        <v>1.18</v>
+      </c>
+      <c r="AT123">
+        <v>1.64</v>
+      </c>
+      <c r="AU123">
+        <v>1.73</v>
+      </c>
+      <c r="AV123">
+        <v>2.08</v>
+      </c>
+      <c r="AW123">
+        <v>3.81</v>
+      </c>
+      <c r="AX123">
+        <v>4.56</v>
+      </c>
+      <c r="AY123">
+        <v>12</v>
+      </c>
+      <c r="AZ123">
+        <v>1.31</v>
+      </c>
+      <c r="BA123">
+        <v>1.13</v>
+      </c>
+      <c r="BB123">
+        <v>1.26</v>
+      </c>
+      <c r="BC123">
+        <v>1.56</v>
+      </c>
+      <c r="BD123">
+        <v>1.93</v>
+      </c>
+      <c r="BE123">
+        <v>2.36</v>
+      </c>
+      <c r="BF123">
+        <v>4</v>
+      </c>
+      <c r="BG123">
+        <v>6</v>
+      </c>
+      <c r="BH123">
+        <v>1</v>
+      </c>
+      <c r="BI123">
+        <v>8</v>
+      </c>
+      <c r="BJ123">
+        <v>5</v>
+      </c>
+      <c r="BK123">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>3168577</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44982.45833333334</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H124" t="s">
+        <v>72</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>161</v>
+      </c>
+      <c r="P124" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q124">
+        <v>9</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>11</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>2.15</v>
+      </c>
+      <c r="V124">
+        <v>4.2</v>
+      </c>
+      <c r="W124">
+        <v>1.38</v>
+      </c>
+      <c r="X124">
+        <v>2.8</v>
+      </c>
+      <c r="Y124">
+        <v>2.7</v>
+      </c>
+      <c r="Z124">
+        <v>1.4</v>
+      </c>
+      <c r="AA124">
+        <v>6</v>
+      </c>
+      <c r="AB124">
+        <v>1.09</v>
+      </c>
+      <c r="AC124">
+        <v>1.8</v>
+      </c>
+      <c r="AD124">
+        <v>3.5</v>
+      </c>
+      <c r="AE124">
+        <v>3.5</v>
+      </c>
+      <c r="AF124">
+        <v>1.06</v>
+      </c>
+      <c r="AG124">
+        <v>8</v>
+      </c>
+      <c r="AH124">
+        <v>1.29</v>
+      </c>
+      <c r="AI124">
+        <v>3.3</v>
+      </c>
+      <c r="AJ124">
+        <v>1.81</v>
+      </c>
+      <c r="AK124">
+        <v>1.9</v>
+      </c>
+      <c r="AL124">
+        <v>1.75</v>
+      </c>
+      <c r="AM124">
+        <v>1.95</v>
+      </c>
+      <c r="AN124">
+        <v>1.29</v>
+      </c>
+      <c r="AO124">
+        <v>1.3</v>
+      </c>
+      <c r="AP124">
+        <v>1.83</v>
+      </c>
+      <c r="AQ124">
+        <v>1.3</v>
+      </c>
+      <c r="AR124">
+        <v>0.5</v>
+      </c>
+      <c r="AS124">
+        <v>1.45</v>
+      </c>
+      <c r="AT124">
+        <v>0.45</v>
+      </c>
+      <c r="AU124">
+        <v>1.86</v>
+      </c>
+      <c r="AV124">
+        <v>1.39</v>
+      </c>
+      <c r="AW124">
+        <v>3.25</v>
+      </c>
+      <c r="AX124">
+        <v>1.46</v>
+      </c>
+      <c r="AY124">
+        <v>9.5</v>
+      </c>
+      <c r="AZ124">
+        <v>3.54</v>
+      </c>
+      <c r="BA124">
+        <v>1.17</v>
+      </c>
+      <c r="BB124">
+        <v>1.33</v>
+      </c>
+      <c r="BC124">
+        <v>1.67</v>
+      </c>
+      <c r="BD124">
+        <v>2.05</v>
+      </c>
+      <c r="BE124">
+        <v>2.65</v>
+      </c>
+      <c r="BF124">
+        <v>7</v>
+      </c>
+      <c r="BG124">
+        <v>2</v>
+      </c>
+      <c r="BH124">
+        <v>9</v>
+      </c>
+      <c r="BI124">
+        <v>6</v>
+      </c>
+      <c r="BJ124">
+        <v>16</v>
+      </c>
+      <c r="BK124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>3168578</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44982.45833333334</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>69</v>
+      </c>
+      <c r="H125" t="s">
+        <v>70</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>162</v>
+      </c>
+      <c r="P125" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>4</v>
+      </c>
+      <c r="S125">
+        <v>9</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>2.38</v>
+      </c>
+      <c r="V125">
+        <v>5.5</v>
+      </c>
+      <c r="W125">
+        <v>1.36</v>
+      </c>
+      <c r="X125">
+        <v>2.99</v>
+      </c>
+      <c r="Y125">
+        <v>2.67</v>
+      </c>
+      <c r="Z125">
+        <v>1.44</v>
+      </c>
+      <c r="AA125">
+        <v>6</v>
+      </c>
+      <c r="AB125">
+        <v>1.11</v>
+      </c>
+      <c r="AC125">
+        <v>1.4</v>
+      </c>
+      <c r="AD125">
+        <v>4</v>
+      </c>
+      <c r="AE125">
+        <v>7</v>
+      </c>
+      <c r="AF125">
+        <v>1.05</v>
+      </c>
+      <c r="AG125">
+        <v>9</v>
+      </c>
+      <c r="AH125">
+        <v>1.25</v>
+      </c>
+      <c r="AI125">
+        <v>3.6</v>
+      </c>
+      <c r="AJ125">
+        <v>1.81</v>
+      </c>
+      <c r="AK125">
+        <v>2</v>
+      </c>
+      <c r="AL125">
+        <v>1.91</v>
+      </c>
+      <c r="AM125">
+        <v>1.8</v>
+      </c>
+      <c r="AN125">
+        <v>1.13</v>
+      </c>
+      <c r="AO125">
+        <v>1.25</v>
+      </c>
+      <c r="AP125">
+        <v>2.4</v>
+      </c>
+      <c r="AQ125">
+        <v>2.5</v>
+      </c>
+      <c r="AR125">
+        <v>0.6</v>
+      </c>
+      <c r="AS125">
+        <v>2.55</v>
+      </c>
+      <c r="AT125">
+        <v>0.55</v>
+      </c>
+      <c r="AU125">
+        <v>1.97</v>
+      </c>
+      <c r="AV125">
+        <v>1.16</v>
+      </c>
+      <c r="AW125">
+        <v>3.13</v>
+      </c>
+      <c r="AX125">
+        <v>1.31</v>
+      </c>
+      <c r="AY125">
+        <v>11.5</v>
+      </c>
+      <c r="AZ125">
+        <v>4.58</v>
+      </c>
+      <c r="BA125">
+        <v>1.23</v>
+      </c>
+      <c r="BB125">
+        <v>1.33</v>
+      </c>
+      <c r="BC125">
+        <v>1.69</v>
+      </c>
+      <c r="BD125">
+        <v>2</v>
+      </c>
+      <c r="BE125">
+        <v>2.62</v>
+      </c>
+      <c r="BF125">
+        <v>5</v>
+      </c>
+      <c r="BG125">
+        <v>6</v>
+      </c>
+      <c r="BH125">
+        <v>6</v>
+      </c>
+      <c r="BI125">
+        <v>7</v>
+      </c>
+      <c r="BJ125">
+        <v>11</v>
+      </c>
+      <c r="BK125">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>3168579</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44982.45833333334</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>66</v>
+      </c>
+      <c r="H126" t="s">
+        <v>67</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>5</v>
+      </c>
+      <c r="O126" t="s">
+        <v>163</v>
+      </c>
+      <c r="P126" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q126">
+        <v>2</v>
+      </c>
+      <c r="R126">
+        <v>4</v>
+      </c>
+      <c r="S126">
+        <v>6</v>
+      </c>
+      <c r="T126">
+        <v>2.05</v>
+      </c>
+      <c r="U126">
+        <v>2.2</v>
+      </c>
+      <c r="V126">
+        <v>5.5</v>
+      </c>
+      <c r="W126">
+        <v>1.36</v>
+      </c>
+      <c r="X126">
+        <v>2.88</v>
+      </c>
+      <c r="Y126">
+        <v>2.62</v>
+      </c>
+      <c r="Z126">
+        <v>1.42</v>
+      </c>
+      <c r="AA126">
+        <v>6</v>
+      </c>
+      <c r="AB126">
+        <v>1.09</v>
+      </c>
+      <c r="AC126">
+        <v>1.53</v>
+      </c>
+      <c r="AD126">
+        <v>3.6</v>
+      </c>
+      <c r="AE126">
+        <v>5.5</v>
+      </c>
+      <c r="AF126">
+        <v>1.05</v>
+      </c>
+      <c r="AG126">
+        <v>9</v>
+      </c>
+      <c r="AH126">
+        <v>1.28</v>
+      </c>
+      <c r="AI126">
+        <v>3.5</v>
+      </c>
+      <c r="AJ126">
+        <v>1.9</v>
+      </c>
+      <c r="AK126">
+        <v>1.83</v>
+      </c>
+      <c r="AL126">
+        <v>1.95</v>
+      </c>
+      <c r="AM126">
+        <v>1.78</v>
+      </c>
+      <c r="AN126">
+        <v>1.08</v>
+      </c>
+      <c r="AO126">
+        <v>1.18</v>
+      </c>
+      <c r="AP126">
+        <v>2.45</v>
+      </c>
+      <c r="AQ126">
+        <v>1.8</v>
+      </c>
+      <c r="AR126">
+        <v>0.6</v>
+      </c>
+      <c r="AS126">
+        <v>1.91</v>
+      </c>
+      <c r="AT126">
+        <v>0.55</v>
+      </c>
+      <c r="AU126">
+        <v>2.05</v>
+      </c>
+      <c r="AV126">
+        <v>1.58</v>
+      </c>
+      <c r="AW126">
+        <v>3.63</v>
+      </c>
+      <c r="AX126">
+        <v>1.36</v>
+      </c>
+      <c r="AY126">
+        <v>10.5</v>
+      </c>
+      <c r="AZ126">
+        <v>4.1</v>
+      </c>
+      <c r="BA126">
+        <v>1.2</v>
+      </c>
+      <c r="BB126">
+        <v>1.34</v>
+      </c>
+      <c r="BC126">
+        <v>1.69</v>
+      </c>
+      <c r="BD126">
+        <v>2.09</v>
+      </c>
+      <c r="BE126">
+        <v>2.65</v>
+      </c>
+      <c r="BF126">
+        <v>7</v>
+      </c>
+      <c r="BG126">
+        <v>5</v>
+      </c>
+      <c r="BH126">
+        <v>5</v>
+      </c>
+      <c r="BI126">
+        <v>3</v>
+      </c>
+      <c r="BJ126">
+        <v>12</v>
+      </c>
+      <c r="BK126">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>['3', '6', '40']</t>
+  </si>
+  <si>
+    <t>['9', '86']</t>
   </si>
   <si>
     <t>['84']</t>
@@ -1065,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1882,7 +1885,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2073,7 +2076,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2264,7 +2267,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2354,7 +2357,7 @@
         <v>1.3</v>
       </c>
       <c r="AT7">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2455,7 +2458,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2646,7 +2649,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3028,7 +3031,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3115,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT11">
         <v>1.7</v>
@@ -3219,7 +3222,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3410,7 +3413,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3601,7 +3604,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -3688,7 +3691,7 @@
         <v>1.5</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT14">
         <v>1.2</v>
@@ -3983,7 +3986,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>12</v>
@@ -4365,7 +4368,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4646,7 +4649,7 @@
         <v>0.4</v>
       </c>
       <c r="AT19">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU19">
         <v>1.43</v>
@@ -4747,7 +4750,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4938,7 +4941,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5129,7 +5132,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5219,7 +5222,7 @@
         <v>1.45</v>
       </c>
       <c r="AT22">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5702,7 +5705,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5893,7 +5896,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6171,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT27">
         <v>0.9</v>
@@ -6466,7 +6469,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6657,7 +6660,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -7230,7 +7233,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7421,7 +7424,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7612,7 +7615,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7702,7 +7705,7 @@
         <v>1.18</v>
       </c>
       <c r="AT35">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU35">
         <v>1.71</v>
@@ -8272,7 +8275,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT38">
         <v>0.55</v>
@@ -8376,7 +8379,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8567,7 +8570,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>8</v>
@@ -8758,7 +8761,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8949,7 +8952,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9140,7 +9143,7 @@
         <v>79</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9713,7 +9716,7 @@
         <v>79</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9904,7 +9907,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -9994,7 +9997,7 @@
         <v>1.6</v>
       </c>
       <c r="AT47">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU47">
         <v>1.68</v>
@@ -10286,7 +10289,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10477,7 +10480,7 @@
         <v>79</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10564,7 +10567,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT50">
         <v>1.3</v>
@@ -10859,7 +10862,7 @@
         <v>79</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11432,7 +11435,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11623,7 +11626,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11814,7 +11817,7 @@
         <v>94</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12196,7 +12199,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12578,7 +12581,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12665,7 +12668,7 @@
         <v>0.25</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT61">
         <v>0.45</v>
@@ -12769,7 +12772,7 @@
         <v>79</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13915,7 +13918,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>11</v>
@@ -14002,7 +14005,7 @@
         <v>0.67</v>
       </c>
       <c r="AS68">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT68">
         <v>0.55</v>
@@ -14106,7 +14109,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q69">
         <v>14</v>
@@ -14297,7 +14300,7 @@
         <v>79</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14488,7 +14491,7 @@
         <v>79</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14578,7 +14581,7 @@
         <v>1.91</v>
       </c>
       <c r="AT71">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -14679,7 +14682,7 @@
         <v>127</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14870,7 +14873,7 @@
         <v>79</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15061,7 +15064,7 @@
         <v>79</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15252,7 +15255,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15825,7 +15828,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16207,7 +16210,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16589,7 +16592,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16780,7 +16783,7 @@
         <v>79</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16971,7 +16974,7 @@
         <v>136</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17162,7 +17165,7 @@
         <v>137</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17353,7 +17356,7 @@
         <v>133</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17440,7 +17443,7 @@
         <v>1.86</v>
       </c>
       <c r="AS86">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT86">
         <v>1.9</v>
@@ -17735,7 +17738,7 @@
         <v>120</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17926,7 +17929,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18308,7 +18311,7 @@
         <v>79</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18589,7 +18592,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU92">
         <v>1.93</v>
@@ -18881,7 +18884,7 @@
         <v>141</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19072,7 +19075,7 @@
         <v>79</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19923,7 +19926,7 @@
         <v>2</v>
       </c>
       <c r="AS99">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT99">
         <v>1.64</v>
@@ -20027,7 +20030,7 @@
         <v>145</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20409,7 +20412,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20600,7 +20603,7 @@
         <v>79</v>
       </c>
       <c r="P103" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20791,7 +20794,7 @@
         <v>147</v>
       </c>
       <c r="P104" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21072,7 +21075,7 @@
         <v>2.6</v>
       </c>
       <c r="AT105">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU105">
         <v>2.29</v>
@@ -21263,7 +21266,7 @@
         <v>2.55</v>
       </c>
       <c r="AT106">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU106">
         <v>2.14</v>
@@ -21364,7 +21367,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21746,7 +21749,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22128,7 +22131,7 @@
         <v>116</v>
       </c>
       <c r="P111" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22319,7 +22322,7 @@
         <v>154</v>
       </c>
       <c r="P112" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22788,7 +22791,7 @@
         <v>0.67</v>
       </c>
       <c r="AS114">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT114">
         <v>0.55</v>
@@ -23083,7 +23086,7 @@
         <v>79</v>
       </c>
       <c r="P116" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q116">
         <v>10</v>
@@ -23173,7 +23176,7 @@
         <v>1.91</v>
       </c>
       <c r="AT116">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU116">
         <v>2.05</v>
@@ -23274,7 +23277,7 @@
         <v>155</v>
       </c>
       <c r="P117" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>10</v>
@@ -23465,7 +23468,7 @@
         <v>79</v>
       </c>
       <c r="P118" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23656,7 +23659,7 @@
         <v>156</v>
       </c>
       <c r="P119" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q119">
         <v>11</v>
@@ -24038,7 +24041,7 @@
         <v>158</v>
       </c>
       <c r="P121" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24229,7 +24232,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24420,7 +24423,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24802,7 +24805,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -24993,7 +24996,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q126">
         <v>2</v>
@@ -25135,6 +25138,197 @@
       </c>
       <c r="BK126">
         <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>3168580</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44983.5625</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>74</v>
+      </c>
+      <c r="H127" t="s">
+        <v>75</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>164</v>
+      </c>
+      <c r="P127" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>8</v>
+      </c>
+      <c r="S127">
+        <v>11</v>
+      </c>
+      <c r="T127">
+        <v>2.88</v>
+      </c>
+      <c r="U127">
+        <v>2.1</v>
+      </c>
+      <c r="V127">
+        <v>3.5</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>2.75</v>
+      </c>
+      <c r="Y127">
+        <v>2.75</v>
+      </c>
+      <c r="Z127">
+        <v>1.4</v>
+      </c>
+      <c r="AA127">
+        <v>8</v>
+      </c>
+      <c r="AB127">
+        <v>1.08</v>
+      </c>
+      <c r="AC127">
+        <v>2.2</v>
+      </c>
+      <c r="AD127">
+        <v>3.3</v>
+      </c>
+      <c r="AE127">
+        <v>3.25</v>
+      </c>
+      <c r="AF127">
+        <v>1.06</v>
+      </c>
+      <c r="AG127">
+        <v>8</v>
+      </c>
+      <c r="AH127">
+        <v>1.22</v>
+      </c>
+      <c r="AI127">
+        <v>4</v>
+      </c>
+      <c r="AJ127">
+        <v>1.88</v>
+      </c>
+      <c r="AK127">
+        <v>1.93</v>
+      </c>
+      <c r="AL127">
+        <v>1.73</v>
+      </c>
+      <c r="AM127">
+        <v>2</v>
+      </c>
+      <c r="AN127">
+        <v>1.35</v>
+      </c>
+      <c r="AO127">
+        <v>1.25</v>
+      </c>
+      <c r="AP127">
+        <v>1.5</v>
+      </c>
+      <c r="AQ127">
+        <v>2</v>
+      </c>
+      <c r="AR127">
+        <v>1.6</v>
+      </c>
+      <c r="AS127">
+        <v>2.09</v>
+      </c>
+      <c r="AT127">
+        <v>1.45</v>
+      </c>
+      <c r="AU127">
+        <v>1.68</v>
+      </c>
+      <c r="AV127">
+        <v>1.65</v>
+      </c>
+      <c r="AW127">
+        <v>3.33</v>
+      </c>
+      <c r="AX127">
+        <v>1.87</v>
+      </c>
+      <c r="AY127">
+        <v>7.1</v>
+      </c>
+      <c r="AZ127">
+        <v>2.33</v>
+      </c>
+      <c r="BA127">
+        <v>1.23</v>
+      </c>
+      <c r="BB127">
+        <v>1.38</v>
+      </c>
+      <c r="BC127">
+        <v>1.71</v>
+      </c>
+      <c r="BD127">
+        <v>2.12</v>
+      </c>
+      <c r="BE127">
+        <v>2.75</v>
+      </c>
+      <c r="BF127">
+        <v>4</v>
+      </c>
+      <c r="BG127">
+        <v>0</v>
+      </c>
+      <c r="BH127">
+        <v>3</v>
+      </c>
+      <c r="BI127">
+        <v>3</v>
+      </c>
+      <c r="BJ127">
+        <v>7</v>
+      </c>
+      <c r="BK127">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -723,6 +723,9 @@
   <si>
     <t>['21', '86']</t>
   </si>
+  <si>
+    <t>['36', '79', '82']</t>
+  </si>
 </sst>
 </file>
 
@@ -1083,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1796,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT4">
         <v>0.73</v>
@@ -2372,7 +2375,7 @@
         <v>1.18</v>
       </c>
       <c r="AT7">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -4664,7 +4667,7 @@
         <v>0.36</v>
       </c>
       <c r="AT19">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU19">
         <v>1.43</v>
@@ -4852,7 +4855,7 @@
         <v>0.5</v>
       </c>
       <c r="AS20">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
         <v>0.55</v>
@@ -5046,7 +5049,7 @@
         <v>1.45</v>
       </c>
       <c r="AT21">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -7335,7 +7338,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT33">
         <v>0.45</v>
@@ -7720,7 +7723,7 @@
         <v>1.18</v>
       </c>
       <c r="AT35">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU35">
         <v>1.71</v>
@@ -9818,7 +9821,7 @@
         <v>0.6</v>
       </c>
       <c r="AS46">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
         <v>1.36</v>
@@ -10012,7 +10015,7 @@
         <v>1.55</v>
       </c>
       <c r="AT47">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU47">
         <v>1.68</v>
@@ -12301,7 +12304,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT59">
         <v>1.73</v>
@@ -14596,7 +14599,7 @@
         <v>1.91</v>
       </c>
       <c r="AT71">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -15548,7 +15551,7 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT76">
         <v>1.64</v>
@@ -16121,7 +16124,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT79">
         <v>0.55</v>
@@ -18604,10 +18607,10 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT92">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU92">
         <v>1.93</v>
@@ -20514,7 +20517,7 @@
         <v>1.38</v>
       </c>
       <c r="AS102">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT102">
         <v>1.82</v>
@@ -21090,7 +21093,7 @@
         <v>2.64</v>
       </c>
       <c r="AT105">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU105">
         <v>2.29</v>
@@ -21472,7 +21475,7 @@
         <v>2.55</v>
       </c>
       <c r="AT107">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU107">
         <v>2.14</v>
@@ -23191,7 +23194,7 @@
         <v>1.91</v>
       </c>
       <c r="AT116">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU116">
         <v>2.05</v>
@@ -23761,7 +23764,7 @@
         <v>0.89</v>
       </c>
       <c r="AS119">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT119">
         <v>0.91</v>
@@ -25292,7 +25295,7 @@
         <v>2.09</v>
       </c>
       <c r="AT127">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU127">
         <v>1.68</v>
@@ -26244,7 +26247,7 @@
         <v>1.3</v>
       </c>
       <c r="AS132">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT132">
         <v>1.27</v>
@@ -26490,6 +26493,197 @@
       </c>
       <c r="BK133">
         <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5546241</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44995.5625</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>67</v>
+      </c>
+      <c r="H134" t="s">
+        <v>75</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>79</v>
+      </c>
+      <c r="P134" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q134">
+        <v>4</v>
+      </c>
+      <c r="R134">
+        <v>7</v>
+      </c>
+      <c r="S134">
+        <v>11</v>
+      </c>
+      <c r="T134">
+        <v>2.7</v>
+      </c>
+      <c r="U134">
+        <v>2.15</v>
+      </c>
+      <c r="V134">
+        <v>3.5</v>
+      </c>
+      <c r="W134">
+        <v>1.36</v>
+      </c>
+      <c r="X134">
+        <v>3</v>
+      </c>
+      <c r="Y134">
+        <v>2.62</v>
+      </c>
+      <c r="Z134">
+        <v>1.44</v>
+      </c>
+      <c r="AA134">
+        <v>6.5</v>
+      </c>
+      <c r="AB134">
+        <v>1.1</v>
+      </c>
+      <c r="AC134">
+        <v>2.15</v>
+      </c>
+      <c r="AD134">
+        <v>3.2</v>
+      </c>
+      <c r="AE134">
+        <v>2.9</v>
+      </c>
+      <c r="AF134">
+        <v>1.06</v>
+      </c>
+      <c r="AG134">
+        <v>8</v>
+      </c>
+      <c r="AH134">
+        <v>1.29</v>
+      </c>
+      <c r="AI134">
+        <v>3.5</v>
+      </c>
+      <c r="AJ134">
+        <v>1.83</v>
+      </c>
+      <c r="AK134">
+        <v>1.8</v>
+      </c>
+      <c r="AL134">
+        <v>1.7</v>
+      </c>
+      <c r="AM134">
+        <v>2.05</v>
+      </c>
+      <c r="AN134">
+        <v>1.36</v>
+      </c>
+      <c r="AO134">
+        <v>1.3</v>
+      </c>
+      <c r="AP134">
+        <v>1.57</v>
+      </c>
+      <c r="AQ134">
+        <v>1.45</v>
+      </c>
+      <c r="AR134">
+        <v>1.45</v>
+      </c>
+      <c r="AS134">
+        <v>1.33</v>
+      </c>
+      <c r="AT134">
+        <v>1.58</v>
+      </c>
+      <c r="AU134">
+        <v>1.78</v>
+      </c>
+      <c r="AV134">
+        <v>1.57</v>
+      </c>
+      <c r="AW134">
+        <v>3.35</v>
+      </c>
+      <c r="AX134">
+        <v>1.64</v>
+      </c>
+      <c r="AY134">
+        <v>7.2</v>
+      </c>
+      <c r="AZ134">
+        <v>2.83</v>
+      </c>
+      <c r="BA134">
+        <v>1.27</v>
+      </c>
+      <c r="BB134">
+        <v>1.47</v>
+      </c>
+      <c r="BC134">
+        <v>1.8</v>
+      </c>
+      <c r="BD134">
+        <v>2.33</v>
+      </c>
+      <c r="BE134">
+        <v>3.15</v>
+      </c>
+      <c r="BF134">
+        <v>5</v>
+      </c>
+      <c r="BG134">
+        <v>6</v>
+      </c>
+      <c r="BH134">
+        <v>4</v>
+      </c>
+      <c r="BI134">
+        <v>4</v>
+      </c>
+      <c r="BJ134">
+        <v>9</v>
+      </c>
+      <c r="BK134">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,15 @@
     <t>['19']</t>
   </si>
   <si>
+    <t>['13', '19', '30', '67', '73', '84']</t>
+  </si>
+  <si>
+    <t>['55', '89']</t>
+  </si>
+  <si>
+    <t>['60', '84']</t>
+  </si>
+  <si>
     <t>['84']</t>
   </si>
   <si>
@@ -725,6 +734,21 @@
   </si>
   <si>
     <t>['36', '79', '82']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['5', '39', '62']</t>
+  </si>
+  <si>
+    <t>['11', '24', '33', '78', '90']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['4', '31', '35']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK134"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1608,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>0.91</v>
@@ -1802,7 +1826,7 @@
         <v>1.33</v>
       </c>
       <c r="AT4">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1903,7 +1927,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2094,7 +2118,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2285,7 +2309,7 @@
         <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2476,7 +2500,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2563,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT8">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2667,7 +2691,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2754,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AT9">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2945,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT10">
         <v>0.55</v>
@@ -3049,7 +3073,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3139,7 +3163,7 @@
         <v>2.09</v>
       </c>
       <c r="AT11">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3240,7 +3264,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3330,7 +3354,7 @@
         <v>1.27</v>
       </c>
       <c r="AT12">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3431,7 +3455,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3518,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT13">
         <v>1.36</v>
@@ -3622,7 +3646,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -4004,7 +4028,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>12</v>
@@ -4091,10 +4115,10 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT16">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU16">
         <v>2.8</v>
@@ -4195,7 +4219,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4282,10 +4306,10 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU17">
         <v>2.03</v>
@@ -4664,7 +4688,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AT19">
         <v>1.58</v>
@@ -4768,7 +4792,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4858,7 +4882,7 @@
         <v>1.33</v>
       </c>
       <c r="AT20">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU20">
         <v>2.25</v>
@@ -4959,7 +4983,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5046,7 +5070,7 @@
         <v>2</v>
       </c>
       <c r="AS21">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
         <v>1.58</v>
@@ -5150,7 +5174,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -5237,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT22">
         <v>0.45</v>
@@ -5428,10 +5452,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT23">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU23">
         <v>2.8</v>
@@ -5622,7 +5646,7 @@
         <v>1.91</v>
       </c>
       <c r="AT24">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU24">
         <v>1.72</v>
@@ -5723,7 +5747,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5810,10 +5834,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT25">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU25">
         <v>2.05</v>
@@ -5914,7 +5938,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6004,7 +6028,7 @@
         <v>1.18</v>
       </c>
       <c r="AT26">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU26">
         <v>1.09</v>
@@ -6487,7 +6511,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6678,7 +6702,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6765,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AT30">
         <v>1.64</v>
@@ -7251,7 +7275,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7442,7 +7466,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7532,7 +7556,7 @@
         <v>1.55</v>
       </c>
       <c r="AT34">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU34">
         <v>2.05</v>
@@ -7633,7 +7657,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7720,7 +7744,7 @@
         <v>2.33</v>
       </c>
       <c r="AS35">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT35">
         <v>1.58</v>
@@ -7911,10 +7935,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT36">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU36">
         <v>2.25</v>
@@ -8102,10 +8126,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT37">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU37">
         <v>2.56</v>
@@ -8296,7 +8320,7 @@
         <v>2.09</v>
       </c>
       <c r="AT38">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU38">
         <v>1.73</v>
@@ -8397,7 +8421,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8484,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
         <v>0.91</v>
@@ -8588,7 +8612,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8779,7 +8803,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8970,7 +8994,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -9057,10 +9081,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AT42">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU42">
         <v>1.51</v>
@@ -9161,7 +9185,7 @@
         <v>79</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9633,7 +9657,7 @@
         <v>1.18</v>
       </c>
       <c r="AT45">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU45">
         <v>1.25</v>
@@ -9734,7 +9758,7 @@
         <v>79</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9925,7 +9949,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10203,7 +10227,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT48">
         <v>0.45</v>
@@ -10307,7 +10331,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10394,10 +10418,10 @@
         <v>0.67</v>
       </c>
       <c r="AS49">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT49">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU49">
         <v>2.33</v>
@@ -10498,7 +10522,7 @@
         <v>79</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10588,7 +10612,7 @@
         <v>2.09</v>
       </c>
       <c r="AT50">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU50">
         <v>1.67</v>
@@ -10779,7 +10803,7 @@
         <v>2.55</v>
       </c>
       <c r="AT51">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU51">
         <v>2.05</v>
@@ -10967,10 +10991,10 @@
         <v>0.33</v>
       </c>
       <c r="AS52">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AT52">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU52">
         <v>1.51</v>
@@ -11158,7 +11182,7 @@
         <v>2</v>
       </c>
       <c r="AS53">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT53">
         <v>1.64</v>
@@ -11349,7 +11373,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT54">
         <v>0.55</v>
@@ -11453,7 +11477,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11644,7 +11668,7 @@
         <v>79</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11734,7 +11758,7 @@
         <v>1.27</v>
       </c>
       <c r="AT56">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU56">
         <v>1.4</v>
@@ -11835,7 +11859,7 @@
         <v>95</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -11922,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AT57">
         <v>1.36</v>
@@ -12116,7 +12140,7 @@
         <v>1.18</v>
       </c>
       <c r="AT58">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU58">
         <v>1.23</v>
@@ -12217,7 +12241,7 @@
         <v>79</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12495,10 +12519,10 @@
         <v>0.5</v>
       </c>
       <c r="AS60">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU60">
         <v>2.08</v>
@@ -12599,7 +12623,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12981,7 +13005,7 @@
         <v>79</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13068,10 +13092,10 @@
         <v>0.2</v>
       </c>
       <c r="AS63">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT63">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU63">
         <v>1.92</v>
@@ -13259,7 +13283,7 @@
         <v>2.25</v>
       </c>
       <c r="AS64">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT64">
         <v>1.64</v>
@@ -13453,7 +13477,7 @@
         <v>1.27</v>
       </c>
       <c r="AT65">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU65">
         <v>1.41</v>
@@ -13554,7 +13578,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13832,10 +13856,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT67">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU67">
         <v>1.86</v>
@@ -14023,10 +14047,10 @@
         <v>0.8</v>
       </c>
       <c r="AS68">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AT68">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU68">
         <v>1.69</v>
@@ -14127,7 +14151,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>14</v>
@@ -14214,10 +14238,10 @@
         <v>1.8</v>
       </c>
       <c r="AS69">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT69">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU69">
         <v>2.42</v>
@@ -14318,7 +14342,7 @@
         <v>79</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14405,7 +14429,7 @@
         <v>1.75</v>
       </c>
       <c r="AS70">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT70">
         <v>1.73</v>
@@ -14509,7 +14533,7 @@
         <v>79</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14700,7 +14724,7 @@
         <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -14891,7 +14915,7 @@
         <v>127</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15082,7 +15106,7 @@
         <v>79</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15169,7 +15193,7 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT74">
         <v>1.73</v>
@@ -15273,7 +15297,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15363,7 +15387,7 @@
         <v>2.55</v>
       </c>
       <c r="AT75">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU75">
         <v>2.02</v>
@@ -15745,7 +15769,7 @@
         <v>1.55</v>
       </c>
       <c r="AT77">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU77">
         <v>1.63</v>
@@ -15846,7 +15870,7 @@
         <v>131</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15933,10 +15957,10 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT78">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU78">
         <v>1.63</v>
@@ -16127,7 +16151,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU79">
         <v>2.03</v>
@@ -16228,7 +16252,7 @@
         <v>133</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16506,10 +16530,10 @@
         <v>0.83</v>
       </c>
       <c r="AS81">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT81">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU81">
         <v>1.76</v>
@@ -16610,7 +16634,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16801,7 +16825,7 @@
         <v>79</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16992,7 +17016,7 @@
         <v>136</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17374,7 +17398,7 @@
         <v>120</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17461,7 +17485,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AT86">
         <v>0.91</v>
@@ -17565,7 +17589,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17756,7 +17780,7 @@
         <v>138</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17947,7 +17971,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18037,7 +18061,7 @@
         <v>2.55</v>
       </c>
       <c r="AT89">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU89">
         <v>2.32</v>
@@ -18225,10 +18249,10 @@
         <v>0.71</v>
       </c>
       <c r="AS90">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT90">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU90">
         <v>1.65</v>
@@ -18329,7 +18353,7 @@
         <v>79</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18419,7 +18443,7 @@
         <v>1.91</v>
       </c>
       <c r="AT91">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU91">
         <v>1.83</v>
@@ -18798,7 +18822,7 @@
         <v>0.71</v>
       </c>
       <c r="AS93">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT93">
         <v>0.45</v>
@@ -18902,7 +18926,7 @@
         <v>141</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -18989,10 +19013,10 @@
         <v>1.14</v>
       </c>
       <c r="AS94">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU94">
         <v>1.86</v>
@@ -19093,7 +19117,7 @@
         <v>79</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19180,10 +19204,10 @@
         <v>1.13</v>
       </c>
       <c r="AS95">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT95">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU95">
         <v>1.89</v>
@@ -19374,7 +19398,7 @@
         <v>1.18</v>
       </c>
       <c r="AT96">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU96">
         <v>1.45</v>
@@ -19562,7 +19586,7 @@
         <v>0.63</v>
       </c>
       <c r="AS97">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AT97">
         <v>0.55</v>
@@ -20048,7 +20072,7 @@
         <v>145</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20135,10 +20159,10 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT100">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU100">
         <v>2.11</v>
@@ -20239,7 +20263,7 @@
         <v>146</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>10</v>
@@ -20329,7 +20353,7 @@
         <v>1.55</v>
       </c>
       <c r="AT101">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU101">
         <v>1.61</v>
@@ -20430,7 +20454,7 @@
         <v>79</v>
       </c>
       <c r="P102" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20520,7 +20544,7 @@
         <v>1.33</v>
       </c>
       <c r="AT102">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU102">
         <v>1.87</v>
@@ -20812,7 +20836,7 @@
         <v>147</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20899,7 +20923,7 @@
         <v>1.25</v>
       </c>
       <c r="AS104">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT104">
         <v>1.36</v>
@@ -21090,7 +21114,7 @@
         <v>1.86</v>
       </c>
       <c r="AS105">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT105">
         <v>1.58</v>
@@ -21281,10 +21305,10 @@
         <v>0.63</v>
       </c>
       <c r="AS106">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT106">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU106">
         <v>2.06</v>
@@ -21576,7 +21600,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21663,7 +21687,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT108">
         <v>0.91</v>
@@ -21767,7 +21791,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22045,7 +22069,7 @@
         <v>0.67</v>
       </c>
       <c r="AS110">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT110">
         <v>0.55</v>
@@ -22149,7 +22173,7 @@
         <v>116</v>
       </c>
       <c r="P111" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22236,10 +22260,10 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT111">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU111">
         <v>1.75</v>
@@ -22340,7 +22364,7 @@
         <v>154</v>
       </c>
       <c r="P112" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22427,7 +22451,7 @@
         <v>1.78</v>
       </c>
       <c r="AS112">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AT112">
         <v>1.73</v>
@@ -22621,7 +22645,7 @@
         <v>1.27</v>
       </c>
       <c r="AT113">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU113">
         <v>1.6</v>
@@ -22812,7 +22836,7 @@
         <v>2.09</v>
       </c>
       <c r="AT114">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU114">
         <v>1.7</v>
@@ -23104,7 +23128,7 @@
         <v>79</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q116">
         <v>10</v>
@@ -23191,7 +23215,7 @@
         <v>1.44</v>
       </c>
       <c r="AS116">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT116">
         <v>1.58</v>
@@ -23295,7 +23319,7 @@
         <v>79</v>
       </c>
       <c r="P117" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23385,7 +23409,7 @@
         <v>1.55</v>
       </c>
       <c r="AT117">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU117">
         <v>1.62</v>
@@ -23486,7 +23510,7 @@
         <v>155</v>
       </c>
       <c r="P118" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23573,7 +23597,7 @@
         <v>1.22</v>
       </c>
       <c r="AS118">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT118">
         <v>1.36</v>
@@ -23677,7 +23701,7 @@
         <v>156</v>
       </c>
       <c r="P119" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q119">
         <v>10</v>
@@ -24059,7 +24083,7 @@
         <v>158</v>
       </c>
       <c r="P121" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q121">
         <v>8</v>
@@ -24149,7 +24173,7 @@
         <v>1.91</v>
       </c>
       <c r="AT121">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU121">
         <v>1.9</v>
@@ -24250,7 +24274,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24340,7 +24364,7 @@
         <v>1.91</v>
       </c>
       <c r="AT122">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU122">
         <v>1.86</v>
@@ -24441,7 +24465,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24528,7 +24552,7 @@
         <v>1.7</v>
       </c>
       <c r="AS123">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT123">
         <v>1.64</v>
@@ -24719,7 +24743,7 @@
         <v>0.5</v>
       </c>
       <c r="AS124">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT124">
         <v>0.45</v>
@@ -24823,7 +24847,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -24913,7 +24937,7 @@
         <v>2.55</v>
       </c>
       <c r="AT125">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU125">
         <v>1.96</v>
@@ -25014,7 +25038,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q126">
         <v>2</v>
@@ -25101,7 +25125,7 @@
         <v>0.6</v>
       </c>
       <c r="AS126">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT126">
         <v>0.55</v>
@@ -25486,7 +25510,7 @@
         <v>1.27</v>
       </c>
       <c r="AT128">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU128">
         <v>1.61</v>
@@ -25587,7 +25611,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -25674,7 +25698,7 @@
         <v>1.9</v>
       </c>
       <c r="AS129">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AT129">
         <v>1.73</v>
@@ -25778,7 +25802,7 @@
         <v>166</v>
       </c>
       <c r="P130" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26160,7 +26184,7 @@
         <v>118</v>
       </c>
       <c r="P132" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26250,7 +26274,7 @@
         <v>1.33</v>
       </c>
       <c r="AT132">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU132">
         <v>1.8</v>
@@ -26351,7 +26375,7 @@
         <v>167</v>
       </c>
       <c r="P133" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26438,10 +26462,10 @@
         <v>0.5</v>
       </c>
       <c r="AS133">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AT133">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU133">
         <v>1.49</v>
@@ -26542,7 +26566,7 @@
         <v>79</v>
       </c>
       <c r="P134" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26684,6 +26708,961 @@
       </c>
       <c r="BK134">
         <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5546242</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>66</v>
+      </c>
+      <c r="H135" t="s">
+        <v>68</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>6</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>7</v>
+      </c>
+      <c r="O135" t="s">
+        <v>168</v>
+      </c>
+      <c r="P135" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q135">
+        <v>7</v>
+      </c>
+      <c r="R135">
+        <v>4</v>
+      </c>
+      <c r="S135">
+        <v>11</v>
+      </c>
+      <c r="T135">
+        <v>2.2</v>
+      </c>
+      <c r="U135">
+        <v>2.15</v>
+      </c>
+      <c r="V135">
+        <v>4.8</v>
+      </c>
+      <c r="W135">
+        <v>1.4</v>
+      </c>
+      <c r="X135">
+        <v>2.75</v>
+      </c>
+      <c r="Y135">
+        <v>2.75</v>
+      </c>
+      <c r="Z135">
+        <v>1.4</v>
+      </c>
+      <c r="AA135">
+        <v>7</v>
+      </c>
+      <c r="AB135">
+        <v>1.08</v>
+      </c>
+      <c r="AC135">
+        <v>1.6</v>
+      </c>
+      <c r="AD135">
+        <v>3.65</v>
+      </c>
+      <c r="AE135">
+        <v>4.9</v>
+      </c>
+      <c r="AF135">
+        <v>1.06</v>
+      </c>
+      <c r="AG135">
+        <v>8</v>
+      </c>
+      <c r="AH135">
+        <v>1.33</v>
+      </c>
+      <c r="AI135">
+        <v>3.25</v>
+      </c>
+      <c r="AJ135">
+        <v>1.95</v>
+      </c>
+      <c r="AK135">
+        <v>1.75</v>
+      </c>
+      <c r="AL135">
+        <v>1.91</v>
+      </c>
+      <c r="AM135">
+        <v>1.8</v>
+      </c>
+      <c r="AN135">
+        <v>1.14</v>
+      </c>
+      <c r="AO135">
+        <v>1.25</v>
+      </c>
+      <c r="AP135">
+        <v>2.2</v>
+      </c>
+      <c r="AQ135">
+        <v>1.91</v>
+      </c>
+      <c r="AR135">
+        <v>1.27</v>
+      </c>
+      <c r="AS135">
+        <v>2</v>
+      </c>
+      <c r="AT135">
+        <v>1.17</v>
+      </c>
+      <c r="AU135">
+        <v>2.04</v>
+      </c>
+      <c r="AV135">
+        <v>1.53</v>
+      </c>
+      <c r="AW135">
+        <v>3.57</v>
+      </c>
+      <c r="AX135">
+        <v>1.24</v>
+      </c>
+      <c r="AY135">
+        <v>9.5</v>
+      </c>
+      <c r="AZ135">
+        <v>5.15</v>
+      </c>
+      <c r="BA135">
+        <v>1.23</v>
+      </c>
+      <c r="BB135">
+        <v>1.38</v>
+      </c>
+      <c r="BC135">
+        <v>1.72</v>
+      </c>
+      <c r="BD135">
+        <v>2.13</v>
+      </c>
+      <c r="BE135">
+        <v>2.8</v>
+      </c>
+      <c r="BF135">
+        <v>11</v>
+      </c>
+      <c r="BG135">
+        <v>3</v>
+      </c>
+      <c r="BH135">
+        <v>3</v>
+      </c>
+      <c r="BI135">
+        <v>0</v>
+      </c>
+      <c r="BJ135">
+        <v>14</v>
+      </c>
+      <c r="BK135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5546243</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>72</v>
+      </c>
+      <c r="H136" t="s">
+        <v>70</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>3</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>79</v>
+      </c>
+      <c r="P136" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>7</v>
+      </c>
+      <c r="S136">
+        <v>7</v>
+      </c>
+      <c r="T136">
+        <v>3.1</v>
+      </c>
+      <c r="U136">
+        <v>2.1</v>
+      </c>
+      <c r="V136">
+        <v>3.1</v>
+      </c>
+      <c r="W136">
+        <v>1.4</v>
+      </c>
+      <c r="X136">
+        <v>2.75</v>
+      </c>
+      <c r="Y136">
+        <v>2.75</v>
+      </c>
+      <c r="Z136">
+        <v>1.4</v>
+      </c>
+      <c r="AA136">
+        <v>7</v>
+      </c>
+      <c r="AB136">
+        <v>1.08</v>
+      </c>
+      <c r="AC136">
+        <v>2.55</v>
+      </c>
+      <c r="AD136">
+        <v>3.1</v>
+      </c>
+      <c r="AE136">
+        <v>2.55</v>
+      </c>
+      <c r="AF136">
+        <v>1.06</v>
+      </c>
+      <c r="AG136">
+        <v>8</v>
+      </c>
+      <c r="AH136">
+        <v>1.3</v>
+      </c>
+      <c r="AI136">
+        <v>3.4</v>
+      </c>
+      <c r="AJ136">
+        <v>1.9</v>
+      </c>
+      <c r="AK136">
+        <v>1.8</v>
+      </c>
+      <c r="AL136">
+        <v>1.73</v>
+      </c>
+      <c r="AM136">
+        <v>2</v>
+      </c>
+      <c r="AN136">
+        <v>1.5</v>
+      </c>
+      <c r="AO136">
+        <v>1.3</v>
+      </c>
+      <c r="AP136">
+        <v>1.44</v>
+      </c>
+      <c r="AQ136">
+        <v>0.36</v>
+      </c>
+      <c r="AR136">
+        <v>0.55</v>
+      </c>
+      <c r="AS136">
+        <v>0.33</v>
+      </c>
+      <c r="AT136">
+        <v>0.75</v>
+      </c>
+      <c r="AU136">
+        <v>1.51</v>
+      </c>
+      <c r="AV136">
+        <v>1.2</v>
+      </c>
+      <c r="AW136">
+        <v>2.71</v>
+      </c>
+      <c r="AX136">
+        <v>1.84</v>
+      </c>
+      <c r="AY136">
+        <v>7.1</v>
+      </c>
+      <c r="AZ136">
+        <v>2.38</v>
+      </c>
+      <c r="BA136">
+        <v>1.23</v>
+      </c>
+      <c r="BB136">
+        <v>1.39</v>
+      </c>
+      <c r="BC136">
+        <v>1.72</v>
+      </c>
+      <c r="BD136">
+        <v>2.13</v>
+      </c>
+      <c r="BE136">
+        <v>2.8</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>9</v>
+      </c>
+      <c r="BH136">
+        <v>3</v>
+      </c>
+      <c r="BI136">
+        <v>5</v>
+      </c>
+      <c r="BJ136">
+        <v>3</v>
+      </c>
+      <c r="BK136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5546244</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>71</v>
+      </c>
+      <c r="H137" t="s">
+        <v>65</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>3</v>
+      </c>
+      <c r="K137">
+        <v>3</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>5</v>
+      </c>
+      <c r="N137">
+        <v>7</v>
+      </c>
+      <c r="O137" t="s">
+        <v>169</v>
+      </c>
+      <c r="P137" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q137">
+        <v>10</v>
+      </c>
+      <c r="R137">
+        <v>5</v>
+      </c>
+      <c r="S137">
+        <v>15</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
+        <v>2.12</v>
+      </c>
+      <c r="V137">
+        <v>3.84</v>
+      </c>
+      <c r="W137">
+        <v>1.39</v>
+      </c>
+      <c r="X137">
+        <v>2.86</v>
+      </c>
+      <c r="Y137">
+        <v>2.82</v>
+      </c>
+      <c r="Z137">
+        <v>1.4</v>
+      </c>
+      <c r="AA137">
+        <v>6.5</v>
+      </c>
+      <c r="AB137">
+        <v>1.1</v>
+      </c>
+      <c r="AC137">
+        <v>1.95</v>
+      </c>
+      <c r="AD137">
+        <v>3.35</v>
+      </c>
+      <c r="AE137">
+        <v>3.5</v>
+      </c>
+      <c r="AF137">
+        <v>1.06</v>
+      </c>
+      <c r="AG137">
+        <v>8</v>
+      </c>
+      <c r="AH137">
+        <v>1.29</v>
+      </c>
+      <c r="AI137">
+        <v>3.3</v>
+      </c>
+      <c r="AJ137">
+        <v>1.85</v>
+      </c>
+      <c r="AK137">
+        <v>1.85</v>
+      </c>
+      <c r="AL137">
+        <v>1.73</v>
+      </c>
+      <c r="AM137">
+        <v>2.06</v>
+      </c>
+      <c r="AN137">
+        <v>1.35</v>
+      </c>
+      <c r="AO137">
+        <v>1.31</v>
+      </c>
+      <c r="AP137">
+        <v>1.66</v>
+      </c>
+      <c r="AQ137">
+        <v>1.18</v>
+      </c>
+      <c r="AR137">
+        <v>0.55</v>
+      </c>
+      <c r="AS137">
+        <v>1.08</v>
+      </c>
+      <c r="AT137">
+        <v>0.75</v>
+      </c>
+      <c r="AU137">
+        <v>1.67</v>
+      </c>
+      <c r="AV137">
+        <v>1.13</v>
+      </c>
+      <c r="AW137">
+        <v>2.8</v>
+      </c>
+      <c r="AX137">
+        <v>1.62</v>
+      </c>
+      <c r="AY137">
+        <v>8</v>
+      </c>
+      <c r="AZ137">
+        <v>2.75</v>
+      </c>
+      <c r="BA137">
+        <v>1.16</v>
+      </c>
+      <c r="BB137">
+        <v>1.32</v>
+      </c>
+      <c r="BC137">
+        <v>1.58</v>
+      </c>
+      <c r="BD137">
+        <v>1.95</v>
+      </c>
+      <c r="BE137">
+        <v>2.39</v>
+      </c>
+      <c r="BF137">
+        <v>5</v>
+      </c>
+      <c r="BG137">
+        <v>7</v>
+      </c>
+      <c r="BH137">
+        <v>6</v>
+      </c>
+      <c r="BI137">
+        <v>1</v>
+      </c>
+      <c r="BJ137">
+        <v>11</v>
+      </c>
+      <c r="BK137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5546245</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>73</v>
+      </c>
+      <c r="H138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>79</v>
+      </c>
+      <c r="P138" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q138">
+        <v>7</v>
+      </c>
+      <c r="R138">
+        <v>2</v>
+      </c>
+      <c r="S138">
+        <v>9</v>
+      </c>
+      <c r="T138">
+        <v>1.62</v>
+      </c>
+      <c r="U138">
+        <v>2.7</v>
+      </c>
+      <c r="V138">
+        <v>7.5</v>
+      </c>
+      <c r="W138">
+        <v>1.25</v>
+      </c>
+      <c r="X138">
+        <v>3.75</v>
+      </c>
+      <c r="Y138">
+        <v>2.1</v>
+      </c>
+      <c r="Z138">
+        <v>1.67</v>
+      </c>
+      <c r="AA138">
+        <v>4.33</v>
+      </c>
+      <c r="AB138">
+        <v>1.2</v>
+      </c>
+      <c r="AC138">
+        <v>1.28</v>
+      </c>
+      <c r="AD138">
+        <v>4.9</v>
+      </c>
+      <c r="AE138">
+        <v>7.4</v>
+      </c>
+      <c r="AF138">
+        <v>1.02</v>
+      </c>
+      <c r="AG138">
+        <v>13</v>
+      </c>
+      <c r="AH138">
+        <v>1.14</v>
+      </c>
+      <c r="AI138">
+        <v>5</v>
+      </c>
+      <c r="AJ138">
+        <v>1.43</v>
+      </c>
+      <c r="AK138">
+        <v>2.62</v>
+      </c>
+      <c r="AL138">
+        <v>1.91</v>
+      </c>
+      <c r="AM138">
+        <v>1.8</v>
+      </c>
+      <c r="AN138">
+        <v>1.02</v>
+      </c>
+      <c r="AO138">
+        <v>1.12</v>
+      </c>
+      <c r="AP138">
+        <v>3.8</v>
+      </c>
+      <c r="AQ138">
+        <v>2.64</v>
+      </c>
+      <c r="AR138">
+        <v>0.73</v>
+      </c>
+      <c r="AS138">
+        <v>2.42</v>
+      </c>
+      <c r="AT138">
+        <v>0.92</v>
+      </c>
+      <c r="AU138">
+        <v>2.35</v>
+      </c>
+      <c r="AV138">
+        <v>1.69</v>
+      </c>
+      <c r="AW138">
+        <v>4.04</v>
+      </c>
+      <c r="AX138">
+        <v>1.09</v>
+      </c>
+      <c r="AY138">
+        <v>13.5</v>
+      </c>
+      <c r="AZ138">
+        <v>9</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>1.3</v>
+      </c>
+      <c r="BC138">
+        <v>1.51</v>
+      </c>
+      <c r="BD138">
+        <v>2</v>
+      </c>
+      <c r="BE138">
+        <v>2.25</v>
+      </c>
+      <c r="BF138">
+        <v>6</v>
+      </c>
+      <c r="BG138">
+        <v>3</v>
+      </c>
+      <c r="BH138">
+        <v>10</v>
+      </c>
+      <c r="BI138">
+        <v>5</v>
+      </c>
+      <c r="BJ138">
+        <v>16</v>
+      </c>
+      <c r="BK138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5546246</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44997.5625</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>76</v>
+      </c>
+      <c r="H139" t="s">
+        <v>69</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>3</v>
+      </c>
+      <c r="K139">
+        <v>3</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
+        <v>5</v>
+      </c>
+      <c r="O139" t="s">
+        <v>170</v>
+      </c>
+      <c r="P139" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q139">
+        <v>9</v>
+      </c>
+      <c r="R139">
+        <v>3</v>
+      </c>
+      <c r="S139">
+        <v>12</v>
+      </c>
+      <c r="T139">
+        <v>3.9</v>
+      </c>
+      <c r="U139">
+        <v>2.2</v>
+      </c>
+      <c r="V139">
+        <v>2.4</v>
+      </c>
+      <c r="W139">
+        <v>1.36</v>
+      </c>
+      <c r="X139">
+        <v>3</v>
+      </c>
+      <c r="Y139">
+        <v>2.62</v>
+      </c>
+      <c r="Z139">
+        <v>1.44</v>
+      </c>
+      <c r="AA139">
+        <v>6.5</v>
+      </c>
+      <c r="AB139">
+        <v>1.1</v>
+      </c>
+      <c r="AC139">
+        <v>3.6</v>
+      </c>
+      <c r="AD139">
+        <v>3.35</v>
+      </c>
+      <c r="AE139">
+        <v>1.82</v>
+      </c>
+      <c r="AF139">
+        <v>1.05</v>
+      </c>
+      <c r="AG139">
+        <v>9</v>
+      </c>
+      <c r="AH139">
+        <v>1.3</v>
+      </c>
+      <c r="AI139">
+        <v>3.4</v>
+      </c>
+      <c r="AJ139">
+        <v>1.72</v>
+      </c>
+      <c r="AK139">
+        <v>1.82</v>
+      </c>
+      <c r="AL139">
+        <v>1.73</v>
+      </c>
+      <c r="AM139">
+        <v>2</v>
+      </c>
+      <c r="AN139">
+        <v>1.83</v>
+      </c>
+      <c r="AO139">
+        <v>1.29</v>
+      </c>
+      <c r="AP139">
+        <v>1.25</v>
+      </c>
+      <c r="AQ139">
+        <v>1.45</v>
+      </c>
+      <c r="AR139">
+        <v>1.82</v>
+      </c>
+      <c r="AS139">
+        <v>1.33</v>
+      </c>
+      <c r="AT139">
+        <v>1.92</v>
+      </c>
+      <c r="AU139">
+        <v>1.87</v>
+      </c>
+      <c r="AV139">
+        <v>1.75</v>
+      </c>
+      <c r="AW139">
+        <v>3.62</v>
+      </c>
+      <c r="AX139">
+        <v>2.28</v>
+      </c>
+      <c r="AY139">
+        <v>7.6</v>
+      </c>
+      <c r="AZ139">
+        <v>1.87</v>
+      </c>
+      <c r="BA139">
+        <v>1.16</v>
+      </c>
+      <c r="BB139">
+        <v>1.36</v>
+      </c>
+      <c r="BC139">
+        <v>1.73</v>
+      </c>
+      <c r="BD139">
+        <v>2.14</v>
+      </c>
+      <c r="BE139">
+        <v>3</v>
+      </c>
+      <c r="BF139">
+        <v>9</v>
+      </c>
+      <c r="BG139">
+        <v>10</v>
+      </c>
+      <c r="BH139">
+        <v>3</v>
+      </c>
+      <c r="BI139">
+        <v>4</v>
+      </c>
+      <c r="BJ139">
+        <v>12</v>
+      </c>
+      <c r="BK139">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.55</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT7" t="n">
         <v>1.58</v>
@@ -2527,7 +2527,7 @@
         <v>2.42</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT11" t="n">
         <v>1.92</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT12" t="n">
         <v>1.17</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU13" t="n">
         <v>1.4</v>
@@ -3336,10 +3336,10 @@
         <v>1.5</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU14" t="n">
         <v>1.29</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0.78</v>
@@ -4151,7 +4151,7 @@
         <v>2.55</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.08</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.65</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT26" t="n">
         <v>1.17</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU27" t="n">
         <v>1.28</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>2.08</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT29" t="n">
         <v>1.73</v>
@@ -6790,7 +6790,7 @@
         <v>2.55</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU31" t="n">
         <v>2.18</v>
@@ -6993,7 +6993,7 @@
         <v>1.91</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU32" t="n">
         <v>2.05</v>
@@ -7196,7 +7196,7 @@
         <v>1.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU33" t="n">
         <v>2.72</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT34" t="n">
         <v>0.75</v>
@@ -8208,7 +8208,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT38" t="n">
         <v>0.75</v>
@@ -8414,7 +8414,7 @@
         <v>1.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU39" t="n">
         <v>2.21</v>
@@ -8617,7 +8617,7 @@
         <v>2.55</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU40" t="n">
         <v>2.36</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT41" t="n">
         <v>1.73</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT43" t="n">
         <v>1.64</v>
@@ -9429,7 +9429,7 @@
         <v>1.91</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU44" t="n">
         <v>2.04</v>
@@ -9629,7 +9629,7 @@
         <v>0.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT45" t="n">
         <v>0.92</v>
@@ -9835,7 +9835,7 @@
         <v>1.33</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU46" t="n">
         <v>2.22</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT47" t="n">
         <v>1.58</v>
@@ -10241,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>2.11</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT50" t="n">
         <v>1.17</v>
@@ -11459,7 +11459,7 @@
         <v>1.08</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU54" t="n">
         <v>1.89</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT55" t="n">
         <v>1.73</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT56" t="n">
         <v>0.92</v>
@@ -12068,7 +12068,7 @@
         <v>0.33</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU57" t="n">
         <v>1.58</v>
@@ -12268,7 +12268,7 @@
         <v>0.75</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT58" t="n">
         <v>1.92</v>
@@ -12877,10 +12877,10 @@
         <v>0.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.64</v>
@@ -13083,7 +13083,7 @@
         <v>1.91</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU62" t="n">
         <v>1.96</v>
@@ -13689,7 +13689,7 @@
         <v>0.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT65" t="n">
         <v>0.75</v>
@@ -13892,10 +13892,10 @@
         <v>0.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.66</v>
@@ -15110,10 +15110,10 @@
         <v>0.2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU72" t="n">
         <v>1.28</v>
@@ -15313,10 +15313,10 @@
         <v>0.2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU73" t="n">
         <v>1.67</v>
@@ -16125,7 +16125,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
         <v>1.17</v>
@@ -16734,10 +16734,10 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.49</v>
@@ -17343,7 +17343,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT83" t="n">
         <v>1.64</v>
@@ -17546,7 +17546,7 @@
         <v>1.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT84" t="n">
         <v>1.64</v>
@@ -17749,10 +17749,10 @@
         <v>0.71</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU85" t="n">
         <v>1.57</v>
@@ -17955,7 +17955,7 @@
         <v>0.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU86" t="n">
         <v>1.58</v>
@@ -18155,7 +18155,7 @@
         <v>1.86</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT87" t="n">
         <v>1.73</v>
@@ -18358,10 +18358,10 @@
         <v>1.29</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU88" t="n">
         <v>1.47</v>
@@ -19376,7 +19376,7 @@
         <v>2.42</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU93" t="n">
         <v>2.43</v>
@@ -19982,7 +19982,7 @@
         <v>0.57</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT96" t="n">
         <v>0.75</v>
@@ -20188,7 +20188,7 @@
         <v>0.33</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU97" t="n">
         <v>1.57</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT99" t="n">
         <v>1.64</v>
@@ -20997,7 +20997,7 @@
         <v>0.63</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT101" t="n">
         <v>0.92</v>
@@ -21406,7 +21406,7 @@
         <v>1.91</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU103" t="n">
         <v>1.92</v>
@@ -21609,7 +21609,7 @@
         <v>1.08</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU104" t="n">
         <v>1.68</v>
@@ -22421,7 +22421,7 @@
         <v>2.42</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU108" t="n">
         <v>2.33</v>
@@ -22621,10 +22621,10 @@
         <v>0.88</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU109" t="n">
         <v>1.53</v>
@@ -22827,7 +22827,7 @@
         <v>1.33</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU110" t="n">
         <v>1.89</v>
@@ -23433,7 +23433,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT113" t="n">
         <v>0.75</v>
@@ -23636,7 +23636,7 @@
         <v>0.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT114" t="n">
         <v>0.75</v>
@@ -24245,7 +24245,7 @@
         <v>1.56</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT117" t="n">
         <v>1.92</v>
@@ -24451,7 +24451,7 @@
         <v>2.42</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU118" t="n">
         <v>2.39</v>
@@ -24654,7 +24654,7 @@
         <v>1.33</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU119" t="n">
         <v>1.8</v>
@@ -24854,10 +24854,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU120" t="n">
         <v>1.44</v>
@@ -25669,7 +25669,7 @@
         <v>1.33</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU124" t="n">
         <v>1.86</v>
@@ -26075,7 +26075,7 @@
         <v>2</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU126" t="n">
         <v>2.05</v>
@@ -26275,7 +26275,7 @@
         <v>1.6</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT127" t="n">
         <v>1.58</v>
@@ -26478,7 +26478,7 @@
         <v>1.7</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT128" t="n">
         <v>1.92</v>
@@ -26884,10 +26884,10 @@
         <v>1.2</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU130" t="n">
         <v>1.48</v>
@@ -27087,10 +27087,10 @@
         <v>0.9</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU131" t="n">
         <v>1.56</v>
@@ -28766,6 +28766,818 @@
       </c>
       <c r="BK139" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5546247</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45002.60416666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3</v>
+      </c>
+      <c r="L140" t="n">
+        <v>6</v>
+      </c>
+      <c r="M140" t="n">
+        <v>4</v>
+      </c>
+      <c r="N140" t="n">
+        <v>10</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['7', '58', '61', '74', '78', '90+4']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['17', '23', '73', '83']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>5</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1</v>
+      </c>
+      <c r="S140" t="n">
+        <v>6</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V140" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5546250</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>2</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>2</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['55', '68']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>5</v>
+      </c>
+      <c r="R141" t="n">
+        <v>6</v>
+      </c>
+      <c r="S141" t="n">
+        <v>11</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V141" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5546251</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>7</v>
+      </c>
+      <c r="R142" t="n">
+        <v>1</v>
+      </c>
+      <c r="S142" t="n">
+        <v>8</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V142" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5546249</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>2</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['13', '32']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>8</v>
+      </c>
+      <c r="R143" t="n">
+        <v>5</v>
+      </c>
+      <c r="S143" t="n">
+        <v>13</v>
+      </c>
+      <c r="T143" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT2" t="n">
         <v>1.25</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT3" t="n">
         <v>0.83</v>
@@ -1309,7 +1309,7 @@
         <v>1.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.75</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -1918,7 +1918,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.08</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT9" t="n">
         <v>0.75</v>
@@ -2527,7 +2527,7 @@
         <v>2.42</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.42</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT13" t="n">
         <v>1.25</v>
@@ -3542,7 +3542,7 @@
         <v>1.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU15" t="n">
         <v>0.78</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU17" t="n">
         <v>2.03</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT18" t="n">
         <v>0.83</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU19" t="n">
         <v>1.43</v>
@@ -4757,10 +4757,10 @@
         <v>2</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>2.42</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU23" t="n">
         <v>2.8</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU25" t="n">
         <v>2.05</v>
@@ -5775,7 +5775,7 @@
         <v>1.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU26" t="n">
         <v>1.09</v>
@@ -6181,7 +6181,7 @@
         <v>1.42</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU28" t="n">
         <v>2.08</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT29" t="n">
         <v>1.58</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU30" t="n">
         <v>1.48</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT31" t="n">
         <v>1.25</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU34" t="n">
         <v>2.05</v>
@@ -7602,7 +7602,7 @@
         <v>1.08</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU35" t="n">
         <v>1.71</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT36" t="n">
         <v>1.92</v>
@@ -8008,7 +8008,7 @@
         <v>2.42</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU37" t="n">
         <v>2.56</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT39" t="n">
         <v>0.83</v>
@@ -8614,10 +8614,10 @@
         <v>0.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU40" t="n">
         <v>2.36</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU42" t="n">
         <v>1.51</v>
@@ -9226,7 +9226,7 @@
         <v>1.42</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU43" t="n">
         <v>1.54</v>
@@ -9632,7 +9632,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU45" t="n">
         <v>1.25</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU47" t="n">
         <v>1.68</v>
@@ -10238,7 +10238,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT48" t="n">
         <v>0.5</v>
@@ -10647,7 +10647,7 @@
         <v>2.17</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU50" t="n">
         <v>1.67</v>
@@ -10847,7 +10847,7 @@
         <v>0.25</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT51" t="n">
         <v>0.75</v>
@@ -11050,10 +11050,10 @@
         <v>0.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU52" t="n">
         <v>1.51</v>
@@ -11253,10 +11253,10 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU53" t="n">
         <v>2.24</v>
@@ -11459,7 +11459,7 @@
         <v>1.08</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU54" t="n">
         <v>1.89</v>
@@ -11865,7 +11865,7 @@
         <v>1.42</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU56" t="n">
         <v>1.4</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT57" t="n">
         <v>1.25</v>
@@ -12674,10 +12674,10 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU60" t="n">
         <v>2.08</v>
@@ -13083,7 +13083,7 @@
         <v>1.75</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU62" t="n">
         <v>1.96</v>
@@ -13486,10 +13486,10 @@
         <v>2.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU64" t="n">
         <v>2.22</v>
@@ -13692,7 +13692,7 @@
         <v>1.42</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU65" t="n">
         <v>1.41</v>
@@ -13895,7 +13895,7 @@
         <v>2.17</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU66" t="n">
         <v>1.66</v>
@@ -14095,7 +14095,7 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT67" t="n">
         <v>0.75</v>
@@ -14298,7 +14298,7 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT68" t="n">
         <v>1.92</v>
@@ -14504,7 +14504,7 @@
         <v>2.42</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU69" t="n">
         <v>2.42</v>
@@ -14910,7 +14910,7 @@
         <v>1.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU71" t="n">
         <v>1.88</v>
@@ -15313,7 +15313,7 @@
         <v>0.2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT73" t="n">
         <v>0.5</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT74" t="n">
         <v>1.58</v>
@@ -15719,10 +15719,10 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU75" t="n">
         <v>2.02</v>
@@ -15925,7 +15925,7 @@
         <v>1.33</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU76" t="n">
         <v>2.06</v>
@@ -16125,10 +16125,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU77" t="n">
         <v>1.63</v>
@@ -16534,7 +16534,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU79" t="n">
         <v>2.03</v>
@@ -16937,10 +16937,10 @@
         <v>0.83</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU81" t="n">
         <v>1.76</v>
@@ -17343,10 +17343,10 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -17549,7 +17549,7 @@
         <v>1.33</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU84" t="n">
         <v>1.36</v>
@@ -17749,10 +17749,10 @@
         <v>0.71</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU85" t="n">
         <v>1.57</v>
@@ -17952,7 +17952,7 @@
         <v>0.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT86" t="n">
         <v>0.83</v>
@@ -18561,10 +18561,10 @@
         <v>1.29</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU89" t="n">
         <v>2.32</v>
@@ -18767,7 +18767,7 @@
         <v>1.08</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU90" t="n">
         <v>1.65</v>
@@ -18970,7 +18970,7 @@
         <v>1.75</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU91" t="n">
         <v>1.83</v>
@@ -19173,7 +19173,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU92" t="n">
         <v>1.93</v>
@@ -19576,7 +19576,7 @@
         <v>1.14</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT94" t="n">
         <v>1.92</v>
@@ -19779,10 +19779,10 @@
         <v>1.13</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU95" t="n">
         <v>1.89</v>
@@ -20185,10 +20185,10 @@
         <v>0.63</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU97" t="n">
         <v>1.57</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT98" t="n">
         <v>1.58</v>
@@ -20594,7 +20594,7 @@
         <v>2.17</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU99" t="n">
         <v>1.67</v>
@@ -20794,10 +20794,10 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU100" t="n">
         <v>2.11</v>
@@ -20997,10 +20997,10 @@
         <v>0.63</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU101" t="n">
         <v>1.61</v>
@@ -21812,7 +21812,7 @@
         <v>2.42</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU105" t="n">
         <v>2.29</v>
@@ -22012,7 +22012,7 @@
         <v>0.63</v>
       </c>
       <c r="AS106" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT106" t="n">
         <v>0.75</v>
@@ -22215,10 +22215,10 @@
         <v>1.63</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU107" t="n">
         <v>2.14</v>
@@ -22824,10 +22824,10 @@
         <v>0.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU110" t="n">
         <v>1.89</v>
@@ -23030,7 +23030,7 @@
         <v>1.08</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU111" t="n">
         <v>1.75</v>
@@ -23230,7 +23230,7 @@
         <v>1.78</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT112" t="n">
         <v>1.58</v>
@@ -23639,7 +23639,7 @@
         <v>2.17</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU114" t="n">
         <v>1.7</v>
@@ -23839,10 +23839,10 @@
         <v>1.78</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU115" t="n">
         <v>2.1</v>
@@ -24042,10 +24042,10 @@
         <v>1.44</v>
       </c>
       <c r="AS116" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU116" t="n">
         <v>2.05</v>
@@ -24245,7 +24245,7 @@
         <v>1.56</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT117" t="n">
         <v>1.92</v>
@@ -25060,7 +25060,7 @@
         <v>1.75</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU121" t="n">
         <v>1.9</v>
@@ -25466,7 +25466,7 @@
         <v>1.08</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU123" t="n">
         <v>1.73</v>
@@ -25666,7 +25666,7 @@
         <v>0.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT124" t="n">
         <v>0.5</v>
@@ -25869,10 +25869,10 @@
         <v>0.6</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU125" t="n">
         <v>1.96</v>
@@ -26072,10 +26072,10 @@
         <v>0.6</v>
       </c>
       <c r="AS126" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU126" t="n">
         <v>2.05</v>
@@ -26278,7 +26278,7 @@
         <v>2.17</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU127" t="n">
         <v>1.68</v>
@@ -27087,7 +27087,7 @@
         <v>0.9</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT131" t="n">
         <v>0.83</v>
@@ -27293,7 +27293,7 @@
         <v>1.33</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU132" t="n">
         <v>1.8</v>
@@ -27493,10 +27493,10 @@
         <v>0.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU133" t="n">
         <v>1.49</v>
@@ -27699,7 +27699,7 @@
         <v>1.33</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU134" t="n">
         <v>1.78</v>
@@ -27899,10 +27899,10 @@
         <v>1.27</v>
       </c>
       <c r="AS135" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU135" t="n">
         <v>2.04</v>
@@ -28102,10 +28102,10 @@
         <v>0.55</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU136" t="n">
         <v>1.51</v>
@@ -28511,7 +28511,7 @@
         <v>2.42</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU138" t="n">
         <v>2.35</v>
@@ -28711,7 +28711,7 @@
         <v>1.82</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT139" t="n">
         <v>1.92</v>
@@ -29320,7 +29320,7 @@
         <v>0.45</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT142" t="n">
         <v>0.5</v>
@@ -29526,7 +29526,7 @@
         <v>1.33</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU143" t="n">
         <v>1.54</v>
@@ -29729,7 +29729,7 @@
         <v>1.75</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AU144" t="n">
         <v>1.89</v>
@@ -29929,7 +29929,7 @@
         <v>1.73</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT145" t="n">
         <v>1.58</v>
@@ -29984,6 +29984,1224 @@
       </c>
       <c r="BK145" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5546257</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45016.52083333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>5</v>
+      </c>
+      <c r="R146" t="n">
+        <v>3</v>
+      </c>
+      <c r="S146" t="n">
+        <v>8</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5546258</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="n">
+        <v>4</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['60', '90+3']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['65', '69']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>9</v>
+      </c>
+      <c r="R147" t="n">
+        <v>6</v>
+      </c>
+      <c r="S147" t="n">
+        <v>15</v>
+      </c>
+      <c r="T147" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5546254</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45017.54166666666</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>2</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>3</v>
+      </c>
+      <c r="L148" t="n">
+        <v>3</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>4</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['34', '38', '84']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>10</v>
+      </c>
+      <c r="R148" t="n">
+        <v>3</v>
+      </c>
+      <c r="S148" t="n">
+        <v>13</v>
+      </c>
+      <c r="T148" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5546256</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45017.54166666666</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>2</v>
+      </c>
+      <c r="N149" t="n">
+        <v>2</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['47', '64']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>3</v>
+      </c>
+      <c r="R149" t="n">
+        <v>9</v>
+      </c>
+      <c r="S149" t="n">
+        <v>12</v>
+      </c>
+      <c r="T149" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X149" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5546253</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45018.52083333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>2</v>
+      </c>
+      <c r="R150" t="n">
+        <v>5</v>
+      </c>
+      <c r="S150" t="n">
+        <v>7</v>
+      </c>
+      <c r="T150" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5546255</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45018.60416666666</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>4</v>
+      </c>
+      <c r="S151" t="n">
+        <v>4</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V151" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT5" t="n">
         <v>1.69</v>
@@ -1715,7 +1715,7 @@
         <v>2.62</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>0.77</v>
@@ -2324,7 +2324,7 @@
         <v>0.31</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT15" t="n">
         <v>0.6899999999999999</v>
@@ -3745,7 +3745,7 @@
         <v>2.42</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU16" t="n">
         <v>2.8</v>
@@ -4354,7 +4354,7 @@
         <v>0.31</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU19" t="n">
         <v>1.43</v>
@@ -4554,10 +4554,10 @@
         <v>0.5</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU20" t="n">
         <v>2.25</v>
@@ -4757,10 +4757,10 @@
         <v>2</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU22" t="n">
         <v>1.65</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT24" t="n">
         <v>1.92</v>
@@ -5572,7 +5572,7 @@
         <v>1.92</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU25" t="n">
         <v>2.05</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT26" t="n">
         <v>1.08</v>
@@ -6384,7 +6384,7 @@
         <v>1.46</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU29" t="n">
         <v>2.54</v>
@@ -6990,7 +6990,7 @@
         <v>0.75</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT32" t="n">
         <v>1.25</v>
@@ -7193,10 +7193,10 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU33" t="n">
         <v>2.72</v>
@@ -7599,10 +7599,10 @@
         <v>2.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.71</v>
@@ -8008,7 +8008,7 @@
         <v>2.42</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU37" t="n">
         <v>2.56</v>
@@ -8211,7 +8211,7 @@
         <v>2.17</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU38" t="n">
         <v>1.73</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT39" t="n">
         <v>0.83</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU41" t="n">
         <v>1.31</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT44" t="n">
         <v>0.83</v>
@@ -9629,10 +9629,10 @@
         <v>0.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU45" t="n">
         <v>1.25</v>
@@ -9832,7 +9832,7 @@
         <v>0.6</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT46" t="n">
         <v>1.25</v>
@@ -10038,7 +10038,7 @@
         <v>1.46</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU47" t="n">
         <v>1.68</v>
@@ -10241,7 +10241,7 @@
         <v>1.92</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU48" t="n">
         <v>2.11</v>
@@ -10850,7 +10850,7 @@
         <v>2.62</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU51" t="n">
         <v>2.05</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT53" t="n">
         <v>1.69</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT54" t="n">
         <v>0.6899999999999999</v>
@@ -11662,7 +11662,7 @@
         <v>1.42</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU55" t="n">
         <v>1.49</v>
@@ -11865,7 +11865,7 @@
         <v>1.42</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU56" t="n">
         <v>1.4</v>
@@ -12268,7 +12268,7 @@
         <v>0.75</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT58" t="n">
         <v>1.92</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU59" t="n">
         <v>2.22</v>
@@ -12674,7 +12674,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT60" t="n">
         <v>0.77</v>
@@ -12880,7 +12880,7 @@
         <v>2.17</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU61" t="n">
         <v>1.64</v>
@@ -13080,7 +13080,7 @@
         <v>0.8</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT62" t="n">
         <v>0.6899999999999999</v>
@@ -13283,10 +13283,10 @@
         <v>0.2</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU63" t="n">
         <v>1.92</v>
@@ -14095,10 +14095,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU67" t="n">
         <v>1.86</v>
@@ -14704,10 +14704,10 @@
         <v>1.75</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU70" t="n">
         <v>1.78</v>
@@ -14907,10 +14907,10 @@
         <v>1.8</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU71" t="n">
         <v>1.88</v>
@@ -15110,7 +15110,7 @@
         <v>0.2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT72" t="n">
         <v>0.83</v>
@@ -15316,7 +15316,7 @@
         <v>1.46</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU73" t="n">
         <v>1.67</v>
@@ -15516,10 +15516,10 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT74" t="n">
         <v>1.46</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>1.58</v>
       </c>
       <c r="AU74" t="n">
         <v>1.91</v>
@@ -15722,7 +15722,7 @@
         <v>2.62</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU75" t="n">
         <v>2.02</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT76" t="n">
         <v>1.69</v>
@@ -16328,7 +16328,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
         <v>1.92</v>
@@ -16531,7 +16531,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT79" t="n">
         <v>0.77</v>
@@ -16737,7 +16737,7 @@
         <v>1.42</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU80" t="n">
         <v>1.49</v>
@@ -16937,10 +16937,10 @@
         <v>0.83</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU81" t="n">
         <v>1.76</v>
@@ -17140,10 +17140,10 @@
         <v>2.17</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU82" t="n">
         <v>1.84</v>
@@ -17546,7 +17546,7 @@
         <v>1.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT84" t="n">
         <v>1.69</v>
@@ -18158,7 +18158,7 @@
         <v>2.17</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU87" t="n">
         <v>1.69</v>
@@ -18764,10 +18764,10 @@
         <v>0.71</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU90" t="n">
         <v>1.65</v>
@@ -18967,7 +18967,7 @@
         <v>0.43</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT91" t="n">
         <v>0.77</v>
@@ -19170,10 +19170,10 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.93</v>
@@ -19376,7 +19376,7 @@
         <v>2.42</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU93" t="n">
         <v>2.43</v>
@@ -19576,7 +19576,7 @@
         <v>1.14</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT94" t="n">
         <v>1.92</v>
@@ -19779,7 +19779,7 @@
         <v>1.13</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT95" t="n">
         <v>1.08</v>
@@ -19982,10 +19982,10 @@
         <v>0.57</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU96" t="n">
         <v>1.45</v>
@@ -20391,7 +20391,7 @@
         <v>2.62</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU98" t="n">
         <v>2.25</v>
@@ -21000,7 +21000,7 @@
         <v>1.46</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU101" t="n">
         <v>1.61</v>
@@ -21200,7 +21200,7 @@
         <v>1.38</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT102" t="n">
         <v>1.92</v>
@@ -21403,10 +21403,10 @@
         <v>0.63</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU103" t="n">
         <v>1.92</v>
@@ -21606,7 +21606,7 @@
         <v>1.25</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT104" t="n">
         <v>1.25</v>
@@ -21812,7 +21812,7 @@
         <v>2.42</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU105" t="n">
         <v>2.29</v>
@@ -22015,7 +22015,7 @@
         <v>1.92</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU106" t="n">
         <v>2.06</v>
@@ -22218,7 +22218,7 @@
         <v>2.62</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU107" t="n">
         <v>2.14</v>
@@ -22824,7 +22824,7 @@
         <v>0.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT110" t="n">
         <v>0.6899999999999999</v>
@@ -23027,7 +23027,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT111" t="n">
         <v>1.08</v>
@@ -23233,7 +23233,7 @@
         <v>0.31</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU112" t="n">
         <v>1.57</v>
@@ -23436,7 +23436,7 @@
         <v>1.42</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU113" t="n">
         <v>1.6</v>
@@ -24045,7 +24045,7 @@
         <v>1.92</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU116" t="n">
         <v>2.05</v>
@@ -24651,7 +24651,7 @@
         <v>0.89</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT119" t="n">
         <v>0.83</v>
@@ -24854,10 +24854,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU120" t="n">
         <v>1.44</v>
@@ -25057,10 +25057,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU121" t="n">
         <v>1.9</v>
@@ -25260,10 +25260,10 @@
         <v>0.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU122" t="n">
         <v>1.86</v>
@@ -25463,7 +25463,7 @@
         <v>1.7</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT123" t="n">
         <v>1.69</v>
@@ -25666,10 +25666,10 @@
         <v>0.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU124" t="n">
         <v>1.86</v>
@@ -26278,7 +26278,7 @@
         <v>2.17</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU127" t="n">
         <v>1.68</v>
@@ -26684,7 +26684,7 @@
         <v>2.42</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU129" t="n">
         <v>2.43</v>
@@ -26884,7 +26884,7 @@
         <v>1.2</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT130" t="n">
         <v>1.25</v>
@@ -27290,7 +27290,7 @@
         <v>1.3</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT132" t="n">
         <v>1.08</v>
@@ -27496,7 +27496,7 @@
         <v>0.31</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU133" t="n">
         <v>1.49</v>
@@ -27696,10 +27696,10 @@
         <v>1.45</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU134" t="n">
         <v>1.78</v>
@@ -28305,10 +28305,10 @@
         <v>0.55</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU137" t="n">
         <v>1.67</v>
@@ -28511,7 +28511,7 @@
         <v>2.42</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU138" t="n">
         <v>2.35</v>
@@ -28711,7 +28711,7 @@
         <v>1.82</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT139" t="n">
         <v>1.92</v>
@@ -29323,7 +29323,7 @@
         <v>1.46</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU142" t="n">
         <v>1.52</v>
@@ -29523,7 +29523,7 @@
         <v>0.55</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT143" t="n">
         <v>0.6899999999999999</v>
@@ -29726,7 +29726,7 @@
         <v>1.64</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT144" t="n">
         <v>1.69</v>
@@ -29932,7 +29932,7 @@
         <v>2.62</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU145" t="n">
         <v>1.92</v>
@@ -30132,7 +30132,7 @@
         <v>0.75</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT146" t="n">
         <v>0.77</v>
@@ -30338,7 +30338,7 @@
         <v>1.46</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.51</v>
@@ -30538,7 +30538,7 @@
         <v>1.17</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT148" t="n">
         <v>1.08</v>
@@ -31150,7 +31150,7 @@
         <v>2.62</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU151" t="n">
         <v>1.86</v>
@@ -31202,6 +31202,1021 @@
       </c>
       <c r="BK151" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5546261</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45023.52083333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2</v>
+      </c>
+      <c r="K152" t="n">
+        <v>3</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3</v>
+      </c>
+      <c r="M152" t="n">
+        <v>2</v>
+      </c>
+      <c r="N152" t="n">
+        <v>5</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['35', '51', '65']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['3', '32']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>5</v>
+      </c>
+      <c r="R152" t="n">
+        <v>5</v>
+      </c>
+      <c r="S152" t="n">
+        <v>10</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5546263</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45024.41666666666</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>11</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2</v>
+      </c>
+      <c r="S153" t="n">
+        <v>13</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5546264</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45024.54166666666</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>6</v>
+      </c>
+      <c r="R154" t="n">
+        <v>4</v>
+      </c>
+      <c r="S154" t="n">
+        <v>10</v>
+      </c>
+      <c r="T154" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5546260</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45024.54166666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['72', '89']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>4</v>
+      </c>
+      <c r="R155" t="n">
+        <v>4</v>
+      </c>
+      <c r="S155" t="n">
+        <v>8</v>
+      </c>
+      <c r="T155" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5546262</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45024.54166666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3</v>
+      </c>
+      <c r="M156" t="n">
+        <v>3</v>
+      </c>
+      <c r="N156" t="n">
+        <v>6</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['27', '57', '90+1']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['6', '51', '90+9']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>13</v>
+      </c>
+      <c r="R156" t="n">
+        <v>6</v>
+      </c>
+      <c r="S156" t="n">
+        <v>19</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V156" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK156"/>
+  <dimension ref="A1:BK157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT10" t="n">
         <v>0.6899999999999999</v>
@@ -2730,7 +2730,7 @@
         <v>2.17</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT16" t="n">
         <v>0.77</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT23" t="n">
         <v>0.77</v>
@@ -5369,7 +5369,7 @@
         <v>1.85</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU24" t="n">
         <v>1.72</v>
@@ -7805,7 +7805,7 @@
         <v>1.92</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU36" t="n">
         <v>2.25</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT37" t="n">
         <v>0.79</v>
@@ -10441,10 +10441,10 @@
         <v>0.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU49" t="n">
         <v>2.33</v>
@@ -12271,7 +12271,7 @@
         <v>1.31</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU58" t="n">
         <v>1.23</v>
@@ -14301,7 +14301,7 @@
         <v>0.31</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU68" t="n">
         <v>1.69</v>
@@ -14501,7 +14501,7 @@
         <v>1.8</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT69" t="n">
         <v>1.08</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU78" t="n">
         <v>1.63</v>
@@ -19373,7 +19373,7 @@
         <v>0.71</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT93" t="n">
         <v>0.6899999999999999</v>
@@ -19579,7 +19579,7 @@
         <v>1.57</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU94" t="n">
         <v>1.86</v>
@@ -21203,7 +21203,7 @@
         <v>1.31</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU102" t="n">
         <v>1.87</v>
@@ -21809,7 +21809,7 @@
         <v>1.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT105" t="n">
         <v>1.5</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT108" t="n">
         <v>0.83</v>
@@ -24248,7 +24248,7 @@
         <v>1.46</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU117" t="n">
         <v>1.62</v>
@@ -24448,7 +24448,7 @@
         <v>1.22</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT118" t="n">
         <v>1.25</v>
@@ -26481,7 +26481,7 @@
         <v>1.42</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU128" t="n">
         <v>1.61</v>
@@ -26681,7 +26681,7 @@
         <v>1.9</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT129" t="n">
         <v>1.46</v>
@@ -28508,7 +28508,7 @@
         <v>0.73</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT138" t="n">
         <v>0.79</v>
@@ -28714,7 +28714,7 @@
         <v>1.57</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU139" t="n">
         <v>1.87</v>
@@ -32217,6 +32217,209 @@
       </c>
       <c r="BK156" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5546259</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45025.52083333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>3</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['65', '69']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>5</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>8</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V157" t="n">
+        <v>5</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X157" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT6" t="n">
         <v>0.6899999999999999</v>
@@ -2933,7 +2933,7 @@
         <v>1.42</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.92</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>2.03</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT18" t="n">
         <v>0.83</v>
@@ -5775,7 +5775,7 @@
         <v>1.31</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.09</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT31" t="n">
         <v>1.25</v>
@@ -8614,7 +8614,7 @@
         <v>0.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT40" t="n">
         <v>0.6899999999999999</v>
@@ -9023,7 +9023,7 @@
         <v>0.31</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
         <v>1.51</v>
@@ -10647,7 +10647,7 @@
         <v>2.17</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.67</v>
@@ -10847,7 +10847,7 @@
         <v>0.25</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT51" t="n">
         <v>0.77</v>
@@ -14504,7 +14504,7 @@
         <v>2.46</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>2.42</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT75" t="n">
         <v>0.79</v>
@@ -16128,7 +16128,7 @@
         <v>1.46</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU77" t="n">
         <v>1.63</v>
@@ -18561,10 +18561,10 @@
         <v>1.29</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU89" t="n">
         <v>2.32</v>
@@ -19782,7 +19782,7 @@
         <v>1.57</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU95" t="n">
         <v>1.89</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT98" t="n">
         <v>1.46</v>
@@ -22215,7 +22215,7 @@
         <v>1.63</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT107" t="n">
         <v>1.5</v>
@@ -23030,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.75</v>
@@ -23839,7 +23839,7 @@
         <v>1.78</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT115" t="n">
         <v>1.69</v>
@@ -25869,7 +25869,7 @@
         <v>0.6</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT125" t="n">
         <v>0.77</v>
@@ -27293,7 +27293,7 @@
         <v>1.31</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU132" t="n">
         <v>1.8</v>
@@ -27902,7 +27902,7 @@
         <v>1.92</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU135" t="n">
         <v>2.04</v>
@@ -29929,7 +29929,7 @@
         <v>1.73</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT145" t="n">
         <v>1.46</v>
@@ -30541,7 +30541,7 @@
         <v>1.57</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.88</v>
@@ -31147,7 +31147,7 @@
         <v>0.92</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT151" t="n">
         <v>0.79</v>
@@ -32419,6 +32419,209 @@
         <v>8</v>
       </c>
       <c r="BK157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5546265</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45030.52083333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['58', '72']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>13</v>
+      </c>
+      <c r="R158" t="n">
+        <v>4</v>
+      </c>
+      <c r="S158" t="n">
+        <v>17</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V158" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X158" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK158" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Slovakia Super Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK158"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.92</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT4" t="n">
         <v>0.79</v>
@@ -1715,7 +1715,7 @@
         <v>2.64</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT10" t="n">
         <v>0.6899999999999999</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT11" t="n">
         <v>1.77</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1.92</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU13" t="n">
         <v>1.4</v>
@@ -3336,10 +3336,10 @@
         <v>1.5</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU14" t="n">
         <v>1.29</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT16" t="n">
         <v>0.77</v>
@@ -4151,7 +4151,7 @@
         <v>2.64</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0.5</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT20" t="n">
         <v>0.77</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU22" t="n">
         <v>1.65</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU23" t="n">
         <v>2.8</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU27" t="n">
         <v>1.28</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT28" t="n">
         <v>0.6899999999999999</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU29" t="n">
         <v>2.54</v>
@@ -6790,7 +6790,7 @@
         <v>2.64</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU31" t="n">
         <v>2.18</v>
@@ -6993,7 +6993,7 @@
         <v>1.85</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU32" t="n">
         <v>2.05</v>
@@ -7193,10 +7193,10 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU33" t="n">
         <v>2.72</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU34" t="n">
         <v>2.05</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT37" t="n">
         <v>0.79</v>
@@ -8208,7 +8208,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT38" t="n">
         <v>0.77</v>
@@ -8414,7 +8414,7 @@
         <v>1.57</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU39" t="n">
         <v>2.21</v>
@@ -8820,7 +8820,7 @@
         <v>1.31</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU41" t="n">
         <v>1.31</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT43" t="n">
         <v>1.69</v>
@@ -9429,7 +9429,7 @@
         <v>1.85</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU44" t="n">
         <v>2.04</v>
@@ -9832,10 +9832,10 @@
         <v>0.6</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU46" t="n">
         <v>2.22</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT47" t="n">
         <v>1.5</v>
@@ -10241,7 +10241,7 @@
         <v>1.92</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU48" t="n">
         <v>2.11</v>
@@ -10441,7 +10441,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT49" t="n">
         <v>1.77</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>0.31</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU52" t="n">
         <v>1.51</v>
@@ -11659,10 +11659,10 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU55" t="n">
         <v>1.49</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT56" t="n">
         <v>0.79</v>
@@ -12068,7 +12068,7 @@
         <v>0.31</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU57" t="n">
         <v>1.58</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU59" t="n">
         <v>2.22</v>
@@ -12677,7 +12677,7 @@
         <v>1.57</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU60" t="n">
         <v>2.08</v>
@@ -12877,10 +12877,10 @@
         <v>0.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU61" t="n">
         <v>1.64</v>
@@ -13689,10 +13689,10 @@
         <v>0.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU65" t="n">
         <v>1.41</v>
@@ -13892,7 +13892,7 @@
         <v>0.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT66" t="n">
         <v>0.6899999999999999</v>
@@ -14501,7 +14501,7 @@
         <v>1.8</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU70" t="n">
         <v>1.78</v>
@@ -15113,7 +15113,7 @@
         <v>1.31</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU72" t="n">
         <v>1.28</v>
@@ -15313,10 +15313,10 @@
         <v>0.2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU73" t="n">
         <v>1.67</v>
@@ -15519,7 +15519,7 @@
         <v>1.57</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU74" t="n">
         <v>1.91</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT76" t="n">
         <v>1.69</v>
@@ -16125,7 +16125,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16531,10 +16531,10 @@
         <v>0.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU79" t="n">
         <v>2.03</v>
@@ -16734,10 +16734,10 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU80" t="n">
         <v>1.49</v>
@@ -17143,7 +17143,7 @@
         <v>1.85</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU82" t="n">
         <v>1.84</v>
@@ -17343,7 +17343,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT83" t="n">
         <v>1.69</v>
@@ -17749,7 +17749,7 @@
         <v>0.71</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT85" t="n">
         <v>0.6899999999999999</v>
@@ -17955,7 +17955,7 @@
         <v>0.31</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU86" t="n">
         <v>1.58</v>
@@ -18155,10 +18155,10 @@
         <v>1.86</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU87" t="n">
         <v>1.69</v>
@@ -18358,10 +18358,10 @@
         <v>1.29</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU88" t="n">
         <v>1.47</v>
@@ -18970,7 +18970,7 @@
         <v>1.85</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU91" t="n">
         <v>1.83</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT92" t="n">
         <v>1.5</v>
@@ -19373,10 +19373,10 @@
         <v>0.71</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU93" t="n">
         <v>2.43</v>
@@ -20391,7 +20391,7 @@
         <v>2.64</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU98" t="n">
         <v>2.25</v>
@@ -20591,7 +20591,7 @@
         <v>2</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT99" t="n">
         <v>1.69</v>
@@ -20797,7 +20797,7 @@
         <v>1.92</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU100" t="n">
         <v>2.11</v>
@@ -20997,7 +20997,7 @@
         <v>0.63</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT101" t="n">
         <v>0.79</v>
@@ -21200,7 +21200,7 @@
         <v>1.38</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT102" t="n">
         <v>1.77</v>
@@ -21406,7 +21406,7 @@
         <v>1.85</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU103" t="n">
         <v>1.92</v>
@@ -21609,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU104" t="n">
         <v>1.68</v>
@@ -21809,7 +21809,7 @@
         <v>1.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT105" t="n">
         <v>1.5</v>
@@ -22418,10 +22418,10 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU108" t="n">
         <v>2.33</v>
@@ -22621,10 +22621,10 @@
         <v>0.88</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU109" t="n">
         <v>1.53</v>
@@ -23233,7 +23233,7 @@
         <v>0.31</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU112" t="n">
         <v>1.57</v>
@@ -23433,7 +23433,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT113" t="n">
         <v>0.77</v>
@@ -23636,10 +23636,10 @@
         <v>0.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU114" t="n">
         <v>1.7</v>
@@ -24245,7 +24245,7 @@
         <v>1.56</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT117" t="n">
         <v>1.77</v>
@@ -24448,10 +24448,10 @@
         <v>1.22</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU118" t="n">
         <v>2.39</v>
@@ -24651,10 +24651,10 @@
         <v>0.89</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU119" t="n">
         <v>1.8</v>
@@ -24857,7 +24857,7 @@
         <v>1.31</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU120" t="n">
         <v>1.44</v>
@@ -25669,7 +25669,7 @@
         <v>1.57</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU124" t="n">
         <v>1.86</v>
@@ -25872,7 +25872,7 @@
         <v>2.64</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU125" t="n">
         <v>1.96</v>
@@ -26275,7 +26275,7 @@
         <v>1.6</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT127" t="n">
         <v>1.5</v>
@@ -26478,7 +26478,7 @@
         <v>1.7</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT128" t="n">
         <v>1.77</v>
@@ -26681,10 +26681,10 @@
         <v>1.9</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU129" t="n">
         <v>2.43</v>
@@ -26887,7 +26887,7 @@
         <v>1.31</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU130" t="n">
         <v>1.48</v>
@@ -27087,10 +27087,10 @@
         <v>0.9</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU131" t="n">
         <v>1.56</v>
@@ -27290,7 +27290,7 @@
         <v>1.3</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT132" t="n">
         <v>1</v>
@@ -27696,7 +27696,7 @@
         <v>1.45</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT134" t="n">
         <v>1.5</v>
@@ -28105,7 +28105,7 @@
         <v>0.31</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU136" t="n">
         <v>1.51</v>
@@ -28508,7 +28508,7 @@
         <v>0.73</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT138" t="n">
         <v>0.79</v>
@@ -28914,10 +28914,10 @@
         <v>1.36</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU140" t="n">
         <v>1.66</v>
@@ -29117,10 +29117,10 @@
         <v>0.91</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU141" t="n">
         <v>1.55</v>
@@ -29320,10 +29320,10 @@
         <v>0.45</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU142" t="n">
         <v>1.52</v>
@@ -29932,7 +29932,7 @@
         <v>2.64</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU145" t="n">
         <v>1.92</v>
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU146" t="n">
         <v>1.67</v>
@@ -30335,7 +30335,7 @@
         <v>1.58</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT147" t="n">
         <v>1.5</v>
@@ -31556,7 +31556,7 @@
         <v>1</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU153" t="n">
         <v>1.65</v>
@@ -31962,7 +31962,7 @@
         <v>1.57</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU155" t="n">
         <v>1.93</v>
@@ -32162,7 +32162,7 @@
         <v>0.75</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT156" t="n">
         <v>0.77</v>
@@ -32365,7 +32365,7 @@
         <v>1.92</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT157" t="n">
         <v>1.77</v>
@@ -32623,6 +32623,1021 @@
       </c>
       <c r="BK158" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5546267</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45031.41666666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>7</v>
+      </c>
+      <c r="R159" t="n">
+        <v>5</v>
+      </c>
+      <c r="S159" t="n">
+        <v>12</v>
+      </c>
+      <c r="T159" t="n">
+        <v>4</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5546269</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45031.54166666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['70', '90+1']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>6</v>
+      </c>
+      <c r="R160" t="n">
+        <v>5</v>
+      </c>
+      <c r="S160" t="n">
+        <v>11</v>
+      </c>
+      <c r="T160" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V160" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5546268</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45031.54166666666</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>2</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="n">
+        <v>7</v>
+      </c>
+      <c r="S161" t="n">
+        <v>7</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5546270</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45031.54166666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Liptovský Mikuláš</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>3</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>3</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['35', '55', '60']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>7</v>
+      </c>
+      <c r="R162" t="n">
+        <v>3</v>
+      </c>
+      <c r="S162" t="n">
+        <v>10</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V162" t="n">
+        <v>5</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5546266</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45032.52083333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>4</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>4</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['35', '56', '59', '73']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>6</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
+      <c r="S163" t="n">
+        <v>6</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V163" t="n">
+        <v>8</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X163" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
